--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="102">
   <si>
     <t>Период</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -678,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,13 +729,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4">
-        <v>5142</v>
+        <v>6657</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -732,46 +744,46 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4">
-        <v>6657</v>
+        <v>10381</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
-        <v>9818</v>
+        <v>14084</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>16988</v>
+        <v>65567</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>10157</v>
+        <v>22365</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -780,10 +792,10 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
-        <v>10381</v>
+        <v>11061</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -792,10 +804,10 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>14084</v>
+        <v>9719</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -804,22 +816,22 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>65567</v>
+        <v>17563</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4">
-        <v>51673</v>
+        <v>19257</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -828,22 +840,22 @@
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>22365</v>
+        <v>64717</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4">
-        <v>25963</v>
+        <v>15015</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -852,22 +864,22 @@
         <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4">
-        <v>11061</v>
+        <v>10122</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4">
-        <v>10773</v>
+        <v>22248</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -876,22 +888,22 @@
         <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4">
-        <v>9719</v>
+        <v>13027</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
-        <v>9891</v>
+        <v>11353</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -900,22 +912,22 @@
         <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
-        <v>17563</v>
+        <v>43876</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4">
-        <v>17517</v>
+        <v>180033</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -924,10 +936,10 @@
         <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4">
-        <v>19257</v>
+        <v>3934</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -936,22 +948,22 @@
         <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4">
-        <v>64717</v>
+        <v>23891</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4">
-        <v>33523</v>
+        <v>10193</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -960,10 +972,10 @@
         <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4">
-        <v>15015</v>
+        <v>15225</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -972,10 +984,10 @@
         <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4">
-        <v>10122</v>
+        <v>29708</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -984,10 +996,10 @@
         <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4">
-        <v>22248</v>
+        <v>22274</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -996,10 +1008,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4">
-        <v>13027</v>
+        <v>14189</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1008,22 +1020,22 @@
         <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4">
-        <v>11353</v>
+        <v>25923</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C28" s="4">
-        <v>11163</v>
+        <v>85754</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -1032,22 +1044,22 @@
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4">
-        <v>43876</v>
+        <v>10231</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4">
-        <v>25823</v>
+        <v>9997</v>
       </c>
       <c r="D30" s="1"/>
     </row>
@@ -1056,22 +1068,22 @@
         <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="4">
-        <v>180033</v>
+        <v>2376</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4">
-        <v>29612</v>
+        <v>2412</v>
       </c>
       <c r="D32" s="1"/>
     </row>
@@ -1080,10 +1092,10 @@
         <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C33" s="4">
-        <v>3934</v>
+        <v>2430</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -1092,10 +1104,10 @@
         <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4">
-        <v>23891</v>
+        <v>5561</v>
       </c>
       <c r="D34" s="1"/>
     </row>
@@ -1104,10 +1116,10 @@
         <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4">
-        <v>10193</v>
+        <v>3645</v>
       </c>
       <c r="D35" s="1"/>
     </row>
@@ -1116,22 +1128,22 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4">
-        <v>15225</v>
+        <v>7353</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C37" s="4">
-        <v>19621</v>
+        <v>45693</v>
       </c>
       <c r="D37" s="1"/>
     </row>
@@ -1140,22 +1152,22 @@
         <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4">
-        <v>29708</v>
+        <v>16983</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4">
-        <v>20765</v>
+        <v>17685</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -1164,10 +1176,10 @@
         <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4">
-        <v>22274</v>
+        <v>3240</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -1176,10 +1188,10 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4">
-        <v>14189</v>
+        <v>7302</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -1188,22 +1200,22 @@
         <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C42" s="4">
-        <v>25923</v>
+        <v>14463</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4">
-        <v>12739</v>
+        <v>14679</v>
       </c>
       <c r="D43" s="1"/>
     </row>
@@ -1212,10 +1224,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4">
-        <v>85754</v>
+        <v>32742</v>
       </c>
       <c r="D44" s="1"/>
     </row>
@@ -1224,22 +1236,22 @@
         <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4">
-        <v>10231</v>
+        <v>48832</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="C46" s="4">
-        <v>1000</v>
+        <v>9612</v>
       </c>
       <c r="D46" s="1"/>
     </row>
@@ -1248,10 +1260,10 @@
         <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C47" s="4">
-        <v>9997</v>
+        <v>8823</v>
       </c>
       <c r="D47" s="1"/>
     </row>
@@ -1260,22 +1272,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C48" s="4">
-        <v>2376</v>
+        <v>19611</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C49" s="4">
-        <v>2695</v>
+        <v>20649</v>
       </c>
       <c r="D49" s="1"/>
     </row>
@@ -1284,22 +1296,22 @@
         <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C50" s="4">
-        <v>2412</v>
+        <v>39618</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C51" s="4">
-        <v>1773</v>
+        <v>4887</v>
       </c>
       <c r="D51" s="1"/>
     </row>
@@ -1308,10 +1320,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C52" s="4">
-        <v>2430</v>
+        <v>29520</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,10 +1331,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C53" s="4">
-        <v>5561</v>
+        <v>81752</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1330,10 +1342,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C54" s="4">
-        <v>3645</v>
+        <v>21231</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,10 +1353,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C55" s="4">
-        <v>7353</v>
+        <v>1199547</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,21 +1364,21 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C56" s="4">
-        <v>45693</v>
+        <v>24861</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C57" s="4">
-        <v>29997</v>
+        <v>222105</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,21 +1386,21 @@
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C58" s="4">
-        <v>16983</v>
+        <v>98955</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C59" s="4">
-        <v>15642</v>
+        <v>9902</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,10 +1408,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C60" s="4">
-        <v>17685</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1419,10 @@
         <v>54</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C61" s="4">
-        <v>3240</v>
+        <v>38979</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,10 +1430,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C62" s="4">
-        <v>7302</v>
+        <v>73923</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1429,21 +1441,21 @@
         <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C63" s="4">
-        <v>14463</v>
+        <v>246150</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C64" s="4">
-        <v>10697</v>
+        <v>24633</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,10 +1463,10 @@
         <v>54</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C65" s="4">
-        <v>14679</v>
+        <v>49237</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,21 +1474,21 @@
         <v>54</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C66" s="4">
-        <v>32742</v>
+        <v>19572</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C67" s="4">
-        <v>16983</v>
+        <v>102863</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,21 +1496,21 @@
         <v>54</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C68" s="4">
-        <v>48832</v>
+        <v>29357</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C69" s="4">
-        <v>18459</v>
+        <v>29844</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,10 +1518,10 @@
         <v>54</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C70" s="4">
-        <v>9612</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,21 +1529,21 @@
         <v>54</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C71" s="4">
-        <v>8823</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C72" s="4">
-        <v>10588</v>
+        <v>14383</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1539,21 +1551,21 @@
         <v>54</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C73" s="4">
-        <v>19611</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C74" s="4">
-        <v>13005</v>
+        <v>99950</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1561,21 +1573,21 @@
         <v>54</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C75" s="4">
-        <v>20649</v>
+        <v>29286</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C76" s="4">
-        <v>22698</v>
+        <v>29817</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,10 +1595,10 @@
         <v>54</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C77" s="4">
-        <v>39618</v>
+        <v>23295</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,21 +1606,21 @@
         <v>54</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C78" s="4">
-        <v>4887</v>
+        <v>18801</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C79" s="4">
-        <v>5643</v>
+        <v>40023</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,10 +1628,10 @@
         <v>54</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C80" s="4">
-        <v>29520</v>
+        <v>28378</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1627,21 +1639,21 @@
         <v>54</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C81" s="4">
-        <v>81752</v>
+        <v>35838</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C82" s="4">
-        <v>40240</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1649,10 +1661,10 @@
         <v>54</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C83" s="4">
-        <v>21231</v>
+        <v>26166</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1660,21 +1672,21 @@
         <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C84" s="4">
-        <v>1199547</v>
+        <v>22211</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C85" s="4">
-        <v>544693</v>
+        <v>43899</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,32 +1694,32 @@
         <v>54</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C86" s="4">
-        <v>24861</v>
+        <v>19747</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C87" s="4">
-        <v>24795</v>
+        <v>15225</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C88" s="4">
-        <v>222105</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1715,21 +1727,21 @@
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4">
-        <v>99564</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4">
-        <v>98955</v>
+        <v>16988</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1737,21 +1749,21 @@
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C91" s="4">
-        <v>147303</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C92" s="4">
-        <v>9902</v>
+        <v>51673</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,21 +1771,21 @@
         <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C93" s="4">
-        <v>10053</v>
+        <v>25963</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C94" s="4">
-        <v>10102</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,21 +1793,21 @@
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C95" s="4">
-        <v>10089</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C96" s="4">
-        <v>38979</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,21 +1815,21 @@
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C97" s="4">
-        <v>22437</v>
+        <v>33523</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C98" s="4">
-        <v>73923</v>
+        <v>11382</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,43 +1837,43 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C99" s="4">
-        <v>33597</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C100" s="4">
-        <v>246150</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C101" s="4">
-        <v>24633</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C102" s="4">
-        <v>49237</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,32 +1881,32 @@
         <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C103" s="4">
-        <v>23373</v>
+        <v>19621</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="C104" s="4">
-        <v>19572</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C105" s="4">
-        <v>102863</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,21 +1914,21 @@
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C106" s="4">
-        <v>38907</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C107" s="4">
-        <v>29357</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,87 +1936,87 @@
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C108" s="4">
-        <v>15579</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="C109" s="4">
-        <v>29844</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C110" s="4">
-        <v>4761</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="C111" s="4">
-        <v>8251</v>
+        <v>11255</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C112" s="4">
-        <v>14383</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C113" s="4">
-        <v>10033</v>
+        <v>18459</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C114" s="4">
-        <v>99950</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C115" s="4">
-        <v>29286</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,21 +2024,21 @@
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C116" s="4">
-        <v>13725</v>
+        <v>13005</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C117" s="4">
-        <v>29817</v>
+        <v>22698</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,21 +2046,21 @@
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C118" s="4">
-        <v>13592</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C119" s="4">
-        <v>23295</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,21 +2068,21 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C120" s="4">
-        <v>14841</v>
+        <v>40240</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C121" s="4">
-        <v>18801</v>
+        <v>573601</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,21 +2090,21 @@
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C122" s="4">
-        <v>18435</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C123" s="4">
-        <v>40023</v>
+        <v>99564</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,10 +2112,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C124" s="4">
-        <v>32589</v>
+        <v>147303</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,32 +2123,32 @@
         <v>2</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C125" s="4">
-        <v>20304</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C126" s="4">
-        <v>28378</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C127" s="4">
-        <v>35838</v>
+        <v>22437</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,32 +2156,32 @@
         <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C128" s="4">
-        <v>32974</v>
+        <v>73393</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C129" s="4">
-        <v>10167</v>
+        <v>37521</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C130" s="4">
-        <v>26166</v>
+        <v>23373</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,21 +2189,21 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C131" s="4">
-        <v>14407</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C132" s="4">
-        <v>22211</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,21 +2211,21 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C133" s="4">
-        <v>33208</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C134" s="4">
-        <v>43899</v>
+        <v>13592</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,32 +2233,98 @@
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C135" s="4">
-        <v>28220</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C136" s="4">
-        <v>19747</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C137" s="4">
-        <v>15225</v>
+        <v>32589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="4">
+        <v>20304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C139" s="4">
+        <v>32974</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="4">
+        <v>10311</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="4">
+        <v>14407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="4">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="4">
+        <v>28220</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C143"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="104">
   <si>
     <t>Период</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -690,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,10 +1744,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C90" s="4">
-        <v>16988</v>
+        <v>11557</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="4">
-        <v>10157</v>
+        <v>16988</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,10 +1766,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" s="4">
-        <v>51673</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,10 +1777,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="4">
-        <v>25963</v>
+        <v>51673</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,10 +1788,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" s="4">
-        <v>10773</v>
+        <v>25963</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,10 +1799,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" s="4">
-        <v>9891</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,10 +1810,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" s="4">
-        <v>17517</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" s="4">
-        <v>33523</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,10 +1832,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C98" s="4">
-        <v>11382</v>
+        <v>33523</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C99" s="4">
-        <v>11163</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C100" s="4">
-        <v>25823</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,10 +1865,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="4">
-        <v>4200</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C102" s="4">
-        <v>29612</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C103" s="4">
-        <v>19621</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C104" s="4">
-        <v>20765</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +1909,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4">
-        <v>12739</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,10 +1920,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C106" s="4">
-        <v>1985</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,10 +1931,10 @@
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C107" s="4">
-        <v>2695</v>
+        <v>19621</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C108" s="4">
-        <v>1773</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,10 +1953,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C109" s="4">
-        <v>29997</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,10 +1964,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C110" s="4">
-        <v>15642</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C111" s="4">
-        <v>11255</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +1986,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C112" s="4">
-        <v>16983</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,10 +1997,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C113" s="4">
-        <v>18459</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,10 +2008,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C114" s="4">
-        <v>10588</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,10 +2019,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C115" s="4">
-        <v>5135</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,10 +2030,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C116" s="4">
-        <v>13005</v>
+        <v>19751</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C117" s="4">
-        <v>22698</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,10 +2052,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C118" s="4">
-        <v>3186</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C119" s="4">
-        <v>5643</v>
+        <v>18459</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C120" s="4">
-        <v>40240</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C121" s="4">
-        <v>573601</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2090,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C122" s="4">
-        <v>24795</v>
+        <v>13005</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2101,10 +2107,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C123" s="4">
-        <v>99564</v>
+        <v>22698</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,10 +2118,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C124" s="4">
-        <v>147303</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2123,10 +2129,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C125" s="4">
-        <v>10053</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C126" s="4">
-        <v>10089</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2145,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C127" s="4">
-        <v>22437</v>
+        <v>40240</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,10 +2162,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C128" s="4">
-        <v>73393</v>
+        <v>573601</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,10 +2173,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C129" s="4">
-        <v>37521</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C130" s="4">
-        <v>23373</v>
+        <v>99564</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C131" s="4">
-        <v>38907</v>
+        <v>147303</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,10 +2206,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C132" s="4">
-        <v>15579</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,10 +2217,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C133" s="4">
-        <v>13725</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2222,10 +2228,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C134" s="4">
-        <v>13592</v>
+        <v>22437</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C135" s="4">
-        <v>14841</v>
+        <v>73393</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,10 +2250,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C136" s="4">
-        <v>18435</v>
+        <v>37521</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,10 +2261,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C137" s="4">
-        <v>32589</v>
+        <v>23373</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2266,10 +2272,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C138" s="4">
-        <v>20304</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2277,10 +2283,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C139" s="4">
-        <v>32974</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,10 +2294,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C140" s="4">
-        <v>10311</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2299,10 +2305,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C141" s="4">
-        <v>14407</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2310,10 +2316,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C142" s="4">
-        <v>33208</v>
+        <v>17390</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,9 +2327,97 @@
         <v>2</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="4">
+        <v>14841</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" s="4">
+        <v>18435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="4">
+        <v>32589</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" s="4">
+        <v>20304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="4">
+        <v>32974</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="4">
+        <v>10311</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="4">
+        <v>14407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" s="4">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C151" s="4">
         <v>28220</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="105">
   <si>
     <t>Период</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
   </si>
 </sst>
 </file>
@@ -696,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C151"/>
+      <selection activeCell="A88" sqref="A88:C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,10 +1780,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C93" s="4">
-        <v>51673</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" s="4">
-        <v>25963</v>
+        <v>59401</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95" s="4">
-        <v>10773</v>
+        <v>25963</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="4">
-        <v>9891</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,10 +1824,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" s="4">
-        <v>17517</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1835,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" s="4">
-        <v>33523</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1846,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C99" s="4">
-        <v>11774</v>
+        <v>33523</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,10 +1857,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C100" s="4">
-        <v>1638</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1868,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C101" s="4">
-        <v>14315</v>
+        <v>10367</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C102" s="4">
-        <v>9429</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,10 +1890,10 @@
         <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C103" s="4">
-        <v>11163</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,10 +1901,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" s="4">
-        <v>25823</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C105" s="4">
-        <v>9625</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,10 +1923,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C106" s="4">
-        <v>29612</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" s="4">
-        <v>19621</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1945,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="4">
-        <v>20765</v>
+        <v>19621</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1956,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109" s="4">
-        <v>12739</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1967,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C110" s="4">
-        <v>1985</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C111" s="4">
-        <v>2695</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C112" s="4">
-        <v>1773</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,10 +2000,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C113" s="4">
-        <v>3998</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,10 +2011,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" s="4">
-        <v>29997</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C115" s="4">
-        <v>15642</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2030,10 +2033,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C116" s="4">
-        <v>19751</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2044,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C117" s="4">
-        <v>12153</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,10 +2055,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C118" s="4">
-        <v>16983</v>
+        <v>21236</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,10 +2066,10 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C119" s="4">
-        <v>18459</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2074,10 +2077,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C120" s="4">
-        <v>10588</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2085,10 +2088,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C121" s="4">
-        <v>5135</v>
+        <v>22239</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,10 +2099,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C122" s="4">
-        <v>13005</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2107,10 +2110,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C123" s="4">
-        <v>22698</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2118,10 +2121,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C124" s="4">
-        <v>4896</v>
+        <v>13005</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2129,10 +2132,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C125" s="4">
-        <v>4959</v>
+        <v>22698</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,10 +2143,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C126" s="4">
-        <v>5643</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2151,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C127" s="4">
-        <v>40240</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C128" s="4">
-        <v>573601</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2173,10 +2176,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C129" s="4">
-        <v>24795</v>
+        <v>40240</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C130" s="4">
-        <v>99564</v>
+        <v>15428</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C131" s="4">
-        <v>147303</v>
+        <v>600014</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2209,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C132" s="4">
-        <v>10053</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2220,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C133" s="4">
-        <v>10089</v>
+        <v>99564</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2231,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C134" s="4">
-        <v>22437</v>
+        <v>147303</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2242,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C135" s="4">
-        <v>73393</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2253,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C136" s="4">
-        <v>37521</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C137" s="4">
-        <v>23373</v>
+        <v>47286</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2275,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C138" s="4">
-        <v>38907</v>
+        <v>73393</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2286,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C139" s="4">
-        <v>15579</v>
+        <v>37521</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C140" s="4">
-        <v>3320</v>
+        <v>23373</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,10 +2308,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C141" s="4">
-        <v>13725</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2319,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C142" s="4">
-        <v>17390</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2330,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C143" s="4">
-        <v>14841</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +2341,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C144" s="4">
-        <v>18435</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2352,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C145" s="4">
-        <v>32589</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2363,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C146" s="4">
-        <v>20304</v>
+        <v>27299</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2374,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C147" s="4">
-        <v>32974</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +2385,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C148" s="4">
-        <v>10311</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C149" s="4">
-        <v>14407</v>
+        <v>57843</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +2407,10 @@
         <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C150" s="4">
-        <v>33208</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,9 +2418,64 @@
         <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" s="4">
+        <v>10727</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="4">
+        <v>32974</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="4">
+        <v>10311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" s="4">
+        <v>14407</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="4">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C156" s="4">
         <v>28220</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="106">
   <si>
     <t>Период</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -699,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C156"/>
+      <selection activeCell="A88" sqref="A88:C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1786,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="4">
-        <v>1008</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="4">
-        <v>59401</v>
+        <v>78469</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="C121" s="4">
-        <v>22239</v>
+        <v>30708</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,7 +2127,7 @@
         <v>28</v>
       </c>
       <c r="C124" s="4">
-        <v>13005</v>
+        <v>26038</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2256,7 +2259,7 @@
         <v>37</v>
       </c>
       <c r="C136" s="4">
-        <v>10089</v>
+        <v>20259</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2333,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="C143" s="4">
-        <v>4716</v>
+        <v>12996</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C145" s="4">
-        <v>13725</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C146" s="4">
-        <v>27299</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,10 +2377,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C147" s="4">
-        <v>14841</v>
+        <v>27299</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,10 +2388,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C148" s="4">
-        <v>18435</v>
+        <v>41004</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,10 +2399,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C149" s="4">
-        <v>57843</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,10 +2410,10 @@
         <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C150" s="4">
-        <v>20304</v>
+        <v>64919</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C151" s="4">
-        <v>10727</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,10 +2432,10 @@
         <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C152" s="4">
-        <v>32974</v>
+        <v>10727</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,10 +2443,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C153" s="4">
-        <v>10311</v>
+        <v>32974</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C154" s="4">
-        <v>14407</v>
+        <v>10311</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C155" s="4">
-        <v>33208</v>
+        <v>14407</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,10 +2476,32 @@
         <v>2</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C156" s="4">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C157" s="4">
         <v>28220</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C158" s="4">
+        <v>5852</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t>Период</t>
   </si>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C158"/>
+      <selection activeCell="A88" sqref="A88:C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="4">
-        <v>78469</v>
+        <v>81581</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1860,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C100" s="4">
-        <v>11774</v>
+        <v>10276</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1871,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C101" s="4">
-        <v>10367</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1882,10 +1882,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C102" s="4">
-        <v>14315</v>
+        <v>10367</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,10 +1893,10 @@
         <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C103" s="4">
-        <v>9429</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1904,10 +1904,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C104" s="4">
-        <v>11163</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="4">
-        <v>25823</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,10 +1926,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C106" s="4">
-        <v>9625</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,10 +1937,10 @@
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C107" s="4">
-        <v>29612</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1948,10 +1948,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" s="4">
-        <v>19621</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1959,10 +1959,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="4">
-        <v>20765</v>
+        <v>19621</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1970,10 +1970,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110" s="4">
-        <v>12739</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1981,10 +1981,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C111" s="4">
-        <v>1195</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,10 +1992,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C112" s="4">
-        <v>1985</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2003,10 +2003,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C113" s="4">
-        <v>2695</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,10 +2014,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C114" s="4">
-        <v>1773</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,10 +2025,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C115" s="4">
-        <v>3998</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C116" s="4">
-        <v>29997</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,10 +2047,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C117" s="4">
-        <v>15642</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C118" s="4">
-        <v>21236</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,10 +2069,10 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C119" s="4">
-        <v>12153</v>
+        <v>21236</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2080,10 +2080,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C120" s="4">
-        <v>16983</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,10 +2091,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C121" s="4">
-        <v>30708</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2102,10 +2102,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C122" s="4">
-        <v>10588</v>
+        <v>30708</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,10 +2113,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C123" s="4">
-        <v>5135</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,10 +2124,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C124" s="4">
-        <v>26038</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C125" s="4">
-        <v>22698</v>
+        <v>26038</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,10 +2146,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C126" s="4">
-        <v>4896</v>
+        <v>22698</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2157,10 +2157,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C127" s="4">
-        <v>4959</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2168,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C128" s="4">
-        <v>5643</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2179,10 +2179,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C129" s="4">
-        <v>40240</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C130" s="4">
-        <v>15428</v>
+        <v>42904</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2201,10 +2201,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C131" s="4">
-        <v>600014</v>
+        <v>15428</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2212,10 +2212,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C132" s="4">
-        <v>24795</v>
+        <v>600014</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,10 +2223,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C133" s="4">
-        <v>99564</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2234,10 +2234,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C134" s="4">
-        <v>147303</v>
+        <v>110040</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2245,10 +2245,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C135" s="4">
-        <v>10053</v>
+        <v>147303</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2256,10 +2256,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C136" s="4">
-        <v>20259</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,10 +2267,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" s="4">
-        <v>47286</v>
+        <v>20259</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2278,10 +2278,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C138" s="4">
-        <v>73393</v>
+        <v>47286</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,10 +2289,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C139" s="4">
-        <v>37521</v>
+        <v>73393</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C140" s="4">
-        <v>23373</v>
+        <v>37521</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2311,10 +2311,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C141" s="4">
-        <v>38907</v>
+        <v>23373</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,10 +2322,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C142" s="4">
-        <v>15579</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2333,10 +2333,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C143" s="4">
-        <v>12996</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2344,10 +2344,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C144" s="4">
-        <v>6592</v>
+        <v>12996</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C145" s="4">
-        <v>2088</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2366,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C146" s="4">
-        <v>13725</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,10 +2377,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C147" s="4">
-        <v>27299</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,10 +2388,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C148" s="4">
-        <v>41004</v>
+        <v>27299</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2399,10 +2399,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C149" s="4">
-        <v>18435</v>
+        <v>41004</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,10 +2410,10 @@
         <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C150" s="4">
-        <v>64919</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C151" s="4">
-        <v>20304</v>
+        <v>64919</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,10 +2432,10 @@
         <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C152" s="4">
-        <v>10727</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2443,10 +2443,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C153" s="4">
-        <v>32974</v>
+        <v>10727</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C154" s="4">
-        <v>10311</v>
+        <v>32974</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2465,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C155" s="4">
-        <v>14407</v>
+        <v>10311</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2476,10 +2476,10 @@
         <v>2</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C156" s="4">
-        <v>33208</v>
+        <v>14407</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2487,10 +2487,10 @@
         <v>2</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C157" s="4">
-        <v>28220</v>
+        <v>33208</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2498,10 +2498,21 @@
         <v>2</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="4">
+        <v>28220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C158" s="4">
-        <v>5852</v>
+      <c r="C159" s="4">
+        <v>9721</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="108">
   <si>
     <t>Период</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -419,6 +425,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -702,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C159"/>
+      <selection activeCell="A88" sqref="A88:C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="C92" s="4">
-        <v>10157</v>
+        <v>20664</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,10 +2023,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C114" s="4">
-        <v>2695</v>
+        <v>14443</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,10 +2034,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" s="4">
-        <v>1773</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C116" s="4">
-        <v>3998</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,10 +2056,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="4">
-        <v>29997</v>
+        <v>72</v>
+      </c>
+      <c r="C117" s="5">
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,10 +2067,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C118" s="4">
-        <v>15642</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C119" s="4">
-        <v>21236</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2080,10 +2089,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C120" s="4">
-        <v>12153</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2091,10 +2100,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C121" s="4">
-        <v>16983</v>
+        <v>21236</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2102,10 +2111,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C122" s="4">
-        <v>30708</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,10 +2122,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C123" s="4">
-        <v>10588</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,10 +2133,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C124" s="4">
-        <v>5135</v>
+        <v>30708</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,10 +2144,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" s="4">
-        <v>26038</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C126" s="4">
-        <v>22698</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2157,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C127" s="4">
-        <v>4896</v>
+        <v>26038</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2168,10 +2177,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C128" s="4">
-        <v>4959</v>
+        <v>22698</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2179,10 +2188,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C129" s="4">
-        <v>5643</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,10 +2199,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C130" s="4">
-        <v>42904</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2201,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C131" s="4">
-        <v>15428</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2212,10 +2221,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C132" s="4">
-        <v>600014</v>
+        <v>42904</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C133" s="4">
-        <v>24795</v>
+        <v>15428</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2234,10 +2243,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C134" s="4">
-        <v>110040</v>
+        <v>600014</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2245,10 +2254,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C135" s="4">
-        <v>147303</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2256,10 +2265,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C136" s="4">
-        <v>10053</v>
+        <v>138858</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,10 +2276,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C137" s="4">
-        <v>20259</v>
+        <v>147303</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2278,10 +2287,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C138" s="4">
-        <v>47286</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C139" s="4">
-        <v>73393</v>
+        <v>20259</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,10 +2309,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C140" s="4">
-        <v>37521</v>
+        <v>47286</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2311,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C141" s="4">
-        <v>23373</v>
+        <v>73393</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C142" s="4">
-        <v>38907</v>
+        <v>37521</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2333,10 +2342,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C143" s="4">
-        <v>15579</v>
+        <v>23373</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2344,10 +2353,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C144" s="4">
-        <v>12996</v>
+        <v>38907</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,10 +2364,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C145" s="4">
-        <v>6592</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2366,10 +2375,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C146" s="4">
-        <v>10195</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C147" s="4">
-        <v>13725</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,10 +2397,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C148" s="4">
-        <v>27299</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2399,10 +2408,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C149" s="4">
-        <v>41004</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,10 +2419,10 @@
         <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C150" s="4">
-        <v>18435</v>
+        <v>25231</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C151" s="4">
-        <v>64919</v>
+        <v>27299</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2432,10 +2441,10 @@
         <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C152" s="4">
-        <v>20304</v>
+        <v>41004</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2443,10 +2452,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C153" s="4">
-        <v>10727</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,10 +2463,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C154" s="4">
-        <v>32974</v>
+        <v>64919</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2465,10 +2474,10 @@
         <v>2</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C155" s="4">
-        <v>10311</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2476,10 +2485,10 @@
         <v>2</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C156" s="4">
-        <v>14407</v>
+        <v>10727</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2487,10 +2496,10 @@
         <v>2</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C157" s="4">
-        <v>33208</v>
+        <v>32974</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2498,10 +2507,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C158" s="4">
-        <v>28220</v>
+        <v>10311</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2509,9 +2518,42 @@
         <v>2</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C159" s="4">
+        <v>14407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="4">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="4">
+        <v>28220</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C162" s="4">
         <v>9721</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
   <si>
     <t>Период</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20х2,0г</t>
+  </si>
+  <si>
+    <t>"Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями 50г</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,9 +431,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -711,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C162"/>
+      <selection activeCell="A88" sqref="A88:C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C88" s="4">
-        <v>5142</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" s="4">
-        <v>9818</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1759,10 +1762,10 @@
         <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4">
-        <v>11557</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1770,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C91" s="4">
-        <v>16988</v>
+        <v>11557</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1781,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="4">
-        <v>20664</v>
+        <v>16988</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4">
-        <v>9807</v>
+        <v>20664</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,10 +1806,10 @@
         <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C94" s="4">
-        <v>81581</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C95" s="4">
-        <v>25963</v>
+        <v>13216</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1825,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" s="4">
-        <v>10773</v>
+        <v>81581</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,10 +1839,10 @@
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" s="4">
-        <v>9891</v>
+        <v>25963</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1847,10 +1850,10 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C98" s="4">
-        <v>17517</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,10 +1861,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C99" s="4">
-        <v>33523</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C100" s="4">
-        <v>10276</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C101" s="4">
-        <v>11774</v>
+        <v>33523</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1891,10 +1894,10 @@
         <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C102" s="4">
-        <v>10367</v>
+        <v>14875</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1902,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C103" s="4">
-        <v>14315</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1913,10 +1916,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C104" s="4">
-        <v>9429</v>
+        <v>10367</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1924,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C105" s="4">
-        <v>11163</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1938,10 @@
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C106" s="4">
-        <v>25823</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +1949,10 @@
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="C107" s="4">
-        <v>9625</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1960,10 @@
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" s="4">
-        <v>29612</v>
+        <v>25823</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,10 +1971,10 @@
         <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C109" s="4">
-        <v>19621</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C110" s="4">
-        <v>20765</v>
+        <v>29612</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +1993,10 @@
         <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C111" s="4">
-        <v>12739</v>
+        <v>19621</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,10 +2004,10 @@
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="C112" s="4">
-        <v>1195</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113" s="4">
-        <v>1985</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2023,10 +2026,10 @@
         <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C114" s="4">
-        <v>14443</v>
+        <v>10637</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,10 +2037,10 @@
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C115" s="4">
-        <v>2695</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,10 +2048,10 @@
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" s="4">
-        <v>3533</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C117" s="5">
-        <v>306</v>
+        <v>106</v>
+      </c>
+      <c r="C117" s="4">
+        <v>14443</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,10 +2070,10 @@
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C118" s="4">
-        <v>3998</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,10 +2081,10 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" s="4">
-        <v>29997</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,10 +2092,10 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C120" s="4">
-        <v>15642</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,10 +2103,10 @@
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C121" s="4">
-        <v>21236</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,10 +2114,10 @@
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C122" s="4">
-        <v>12153</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,10 +2125,10 @@
         <v>2</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C123" s="4">
-        <v>16983</v>
+        <v>15642</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,10 +2136,10 @@
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C124" s="4">
-        <v>30708</v>
+        <v>21236</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C125" s="4">
-        <v>10588</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2155,10 +2158,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C126" s="4">
-        <v>5135</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C127" s="4">
-        <v>26038</v>
+        <v>30708</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,10 +2180,10 @@
         <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C128" s="4">
-        <v>22698</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,10 +2191,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C129" s="4">
-        <v>4896</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C130" s="4">
-        <v>4959</v>
+        <v>26038</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,10 +2213,10 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" s="4">
-        <v>5643</v>
+        <v>22698</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,10 +2224,10 @@
         <v>2</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C132" s="4">
-        <v>42904</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C133" s="4">
-        <v>15428</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,10 +2246,10 @@
         <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C134" s="4">
-        <v>600014</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,10 +2257,10 @@
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C135" s="4">
-        <v>24795</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,10 +2268,10 @@
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C136" s="4">
-        <v>138858</v>
+        <v>52768</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,10 +2279,10 @@
         <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C137" s="4">
-        <v>147303</v>
+        <v>15428</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,10 +2290,10 @@
         <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C138" s="4">
-        <v>10053</v>
+        <v>600014</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,10 +2301,10 @@
         <v>2</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C139" s="4">
-        <v>20259</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,10 +2312,10 @@
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C140" s="4">
-        <v>47286</v>
+        <v>149372</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,10 +2323,10 @@
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C141" s="4">
-        <v>73393</v>
+        <v>147303</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,10 +2334,10 @@
         <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C142" s="4">
-        <v>37521</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2345,10 @@
         <v>2</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C143" s="4">
-        <v>23373</v>
+        <v>20259</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,10 +2356,10 @@
         <v>2</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C144" s="4">
-        <v>38907</v>
+        <v>47286</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,10 +2367,10 @@
         <v>2</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C145" s="4">
-        <v>15579</v>
+        <v>73393</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,10 +2378,10 @@
         <v>2</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C146" s="4">
-        <v>16944</v>
+        <v>37521</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C147" s="4">
-        <v>6592</v>
+        <v>23373</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2397,10 +2400,10 @@
         <v>2</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C148" s="4">
-        <v>10195</v>
+        <v>63864</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,10 +2411,10 @@
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C149" s="4">
-        <v>10177</v>
+        <v>15579</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,10 +2422,10 @@
         <v>2</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C150" s="4">
-        <v>25231</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,10 +2433,10 @@
         <v>2</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C151" s="4">
-        <v>27299</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2441,10 +2444,10 @@
         <v>2</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C152" s="4">
-        <v>41004</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,10 +2455,10 @@
         <v>2</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C153" s="4">
-        <v>18435</v>
+        <v>35262</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,10 +2466,10 @@
         <v>2</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C154" s="4">
-        <v>64919</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2474,10 +2477,10 @@
         <v>2</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C155" s="4">
-        <v>20304</v>
+        <v>25231</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,10 +2488,10 @@
         <v>2</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C156" s="4">
-        <v>10727</v>
+        <v>27299</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,10 +2499,10 @@
         <v>2</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C157" s="4">
-        <v>32974</v>
+        <v>41004</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2507,10 +2510,10 @@
         <v>2</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C158" s="4">
-        <v>10311</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,10 +2521,10 @@
         <v>2</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C159" s="4">
-        <v>14407</v>
+        <v>64919</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,10 +2532,10 @@
         <v>2</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C160" s="4">
-        <v>33208</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2540,10 +2543,10 @@
         <v>2</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C161" s="4">
-        <v>28220</v>
+        <v>10727</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2551,9 +2554,64 @@
         <v>2</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="4">
+        <v>32974</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C163" s="4">
+        <v>10311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" s="4">
+        <v>14407</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="4">
+        <v>33208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C166" s="4">
+        <v>28220</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C167" s="4">
         <v>9721</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:C167"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2271,7 @@
         <v>31</v>
       </c>
       <c r="C136" s="4">
-        <v>52768</v>
+        <v>55558</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>93</v>
       </c>
       <c r="C153" s="4">
-        <v>35262</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="111">
   <si>
     <t>Период</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
   </si>
 </sst>
 </file>
@@ -714,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,6 +2618,17 @@
         <v>9721</v>
       </c>
     </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" s="4">
+        <v>15309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
   <si>
     <t>Период</t>
   </si>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+      <selection activeCell="A168" sqref="A168:C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,9 +2623,108 @@
         <v>110</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="4">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="4">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" s="4">
+        <v>21589</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" s="4">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="4">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C173" s="4">
+        <v>49503</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C174" s="4">
+        <v>13518</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" s="4">
+        <v>49212</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C176" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C177" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="111">
   <si>
     <t>Период</t>
   </si>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C177"/>
+      <selection activeCell="A168" sqref="A168:C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="C168" s="4">
-        <v>8736</v>
+        <v>17262</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2634,10 +2634,10 @@
         <v>110</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C169" s="4">
-        <v>1792</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
         <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C170" s="4">
-        <v>21589</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,10 +2656,10 @@
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C171" s="4">
-        <v>5184</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,10 +2667,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C172" s="4">
-        <v>25569</v>
+        <v>10485</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2678,10 +2678,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C173" s="4">
-        <v>49503</v>
+        <v>50805</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,10 +2689,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C174" s="4">
-        <v>13518</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,10 +2700,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C175" s="4">
-        <v>49212</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,10 +2711,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C176" s="4">
-        <v>7801</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,9 +2722,42 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C177" s="4">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" s="4">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C180" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="111">
   <si>
     <t>Период</t>
   </si>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C180"/>
+      <selection activeCell="A168" sqref="A168:C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,7 +2637,7 @@
         <v>9</v>
       </c>
       <c r="C169" s="4">
-        <v>3346</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
         <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C170" s="4">
-        <v>11774</v>
+        <v>8778</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,10 +2656,10 @@
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C171" s="4">
-        <v>21589</v>
+        <v>21966</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,10 +2667,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C172" s="4">
-        <v>10485</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2678,10 +2678,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C173" s="4">
-        <v>50805</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,10 +2689,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C174" s="4">
-        <v>49503</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,10 +2700,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C175" s="4">
-        <v>24363</v>
+        <v>10485</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,10 +2711,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C176" s="4">
-        <v>10296</v>
+        <v>69354</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,10 +2722,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C177" s="4">
-        <v>100375</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,10 +2733,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C178" s="4">
-        <v>10530</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,10 +2744,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C179" s="4">
-        <v>7801</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,9 +2755,53 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="4">
+        <v>16346</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" s="4">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C182" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C183" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C184" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="111">
   <si>
     <t>Период</t>
   </si>
@@ -424,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,6 +434,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -717,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C184"/>
+      <selection activeCell="A168" sqref="A168:C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,10 +2626,10 @@
         <v>110</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="4">
-        <v>17262</v>
+        <v>3</v>
+      </c>
+      <c r="C168" s="5">
+        <v>826</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2634,10 +2637,10 @@
         <v>110</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C169" s="4">
-        <v>9863</v>
+        <v>17262</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,10 +2648,10 @@
         <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C170" s="4">
-        <v>8778</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,10 +2659,10 @@
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C171" s="4">
-        <v>21966</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,10 +2670,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C172" s="4">
-        <v>21589</v>
+        <v>10283</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2678,10 +2681,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C173" s="4">
-        <v>16353</v>
+        <v>31150</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,10 +2692,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C174" s="4">
-        <v>11331</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,10 +2703,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C175" s="4">
-        <v>10485</v>
+        <v>19890</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,10 +2714,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C176" s="4">
-        <v>69354</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,10 +2725,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C177" s="4">
-        <v>49503</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,10 +2736,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C178" s="4">
-        <v>24363</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,10 +2747,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C179" s="4">
-        <v>10296</v>
+        <v>10485</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,10 +2758,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C180" s="4">
-        <v>16346</v>
+        <v>86499</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,10 +2769,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C181" s="4">
-        <v>100375</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2777,10 +2780,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C182" s="4">
-        <v>21339</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2788,10 +2791,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C183" s="4">
-        <v>7801</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,9 +2802,64 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C184" s="4">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185" s="4">
+        <v>16346</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C186" s="4">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C188" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C189" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="112">
   <si>
     <t>Период</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,9 +437,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -720,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C189"/>
+      <selection activeCell="A168" sqref="A168:C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,8 +2628,8 @@
       <c r="B168" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C168" s="5">
-        <v>826</v>
+      <c r="C168" s="4">
+        <v>4879</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2659,10 +2659,10 @@
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C171" s="4">
-        <v>11360</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2670,10 +2670,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C172" s="4">
-        <v>10283</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2681,10 +2681,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C173" s="4">
-        <v>31150</v>
+        <v>10283</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,10 +2692,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C174" s="4">
-        <v>21589</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,10 +2703,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C175" s="4">
-        <v>19890</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2714,10 +2714,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C176" s="4">
-        <v>16353</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2725,10 +2725,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C177" s="4">
-        <v>11331</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2736,10 +2736,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C178" s="4">
-        <v>25026</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2747,10 +2747,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C179" s="4">
-        <v>10485</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C180" s="4">
-        <v>86499</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,10 +2769,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C181" s="4">
-        <v>24795</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,10 +2780,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C182" s="4">
-        <v>49503</v>
+        <v>25335</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,10 +2791,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C183" s="4">
-        <v>24363</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,10 +2802,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C184" s="4">
-        <v>10296</v>
+        <v>86499</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2813,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C185" s="4">
-        <v>16346</v>
+        <v>24795</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +2824,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C186" s="4">
-        <v>100375</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,10 +2835,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C187" s="4">
-        <v>21339</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,10 +2846,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C188" s="4">
-        <v>7801</v>
+        <v>16614</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,9 +2857,75 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C189" s="4">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C190" s="4">
+        <v>16346</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C191" s="4">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C192" s="4">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C193" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C194" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C195" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="113">
   <si>
     <t>Период</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -720,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C195"/>
+      <selection activeCell="A168" sqref="A168:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="C171" s="4">
-        <v>6622</v>
+        <v>30242</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2670,10 +2673,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C172" s="4">
-        <v>11360</v>
+        <v>15764</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2681,10 +2684,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" s="4">
-        <v>10283</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2692,10 +2695,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="4">
-        <v>34783</v>
+        <v>10283</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,10 +2706,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C175" s="4">
-        <v>11739</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2714,10 +2717,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C176" s="4">
-        <v>21589</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2725,10 +2728,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C177" s="4">
-        <v>1800</v>
+        <v>11858</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2736,10 +2739,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C178" s="4">
-        <v>24406</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2747,10 +2750,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C179" s="4">
-        <v>16353</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2758,10 +2761,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C180" s="4">
-        <v>11331</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2769,10 +2772,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C181" s="4">
-        <v>25026</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2780,10 +2783,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C182" s="4">
-        <v>25335</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2791,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C183" s="4">
-        <v>9615</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,10 +2805,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C184" s="4">
-        <v>86499</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2813,10 +2816,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C185" s="4">
-        <v>24795</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +2827,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C186" s="4">
-        <v>49503</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2835,10 +2838,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C187" s="4">
-        <v>24363</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,10 +2849,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C188" s="4">
-        <v>16614</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2857,10 +2860,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C189" s="4">
-        <v>10296</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2868,10 +2871,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C190" s="4">
-        <v>16346</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,10 +2882,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C191" s="4">
-        <v>100375</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2890,10 +2893,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C192" s="4">
-        <v>20914</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,10 +2904,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C193" s="4">
-        <v>21339</v>
+        <v>86499</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,10 +2915,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C194" s="4">
-        <v>7801</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2923,9 +2926,141 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="4">
+        <v>24795</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C196" s="4">
+        <v>14148</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C197" s="4">
+        <v>49503</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C198" s="4">
+        <v>24363</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="4">
+        <v>22344</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C200" s="4">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" s="4">
+        <v>16346</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C202" s="4">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C203" s="4">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" s="4">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C206" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C207" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="113">
   <si>
     <t>Период</t>
   </si>
@@ -723,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C207"/>
+      <selection activeCell="A168" sqref="A168:C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,7 +2676,7 @@
         <v>98</v>
       </c>
       <c r="C172" s="4">
-        <v>15764</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="C174" s="4">
-        <v>10283</v>
+        <v>12551</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,10 +2728,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C177" s="4">
-        <v>11858</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,10 +2739,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C178" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,10 +2750,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C179" s="4">
-        <v>1800</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,10 +2761,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C180" s="4">
-        <v>3564</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2772,10 +2772,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C181" s="4">
-        <v>7587</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2783,10 +2783,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C182" s="4">
-        <v>24406</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,10 +2794,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C183" s="4">
-        <v>2440</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,10 +2805,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C184" s="4">
-        <v>16353</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,10 +2816,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C185" s="4">
-        <v>5337</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C186" s="4">
-        <v>9288</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,10 +2838,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C187" s="4">
-        <v>1494</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,10 +2849,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C188" s="4">
-        <v>11331</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2860,10 +2860,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C189" s="4">
-        <v>25026</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,10 +2871,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C190" s="4">
-        <v>32850</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,10 +2882,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C191" s="4">
-        <v>9615</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2893,10 +2893,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C192" s="4">
-        <v>16295</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,10 +2904,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C193" s="4">
-        <v>86499</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,10 +2915,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C194" s="4">
-        <v>24377</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2926,10 +2926,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C195" s="4">
-        <v>24795</v>
+        <v>86499</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,10 +2937,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C196" s="4">
-        <v>14148</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,10 +2948,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C197" s="4">
-        <v>49503</v>
+        <v>42489</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2959,10 +2959,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C198" s="4">
-        <v>24363</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2970,10 +2970,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C199" s="4">
-        <v>22344</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2981,10 +2981,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C200" s="4">
-        <v>10296</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2992,10 +2992,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C201" s="4">
-        <v>16346</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,10 +3003,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C202" s="4">
-        <v>9495</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3014,10 +3014,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C203" s="4">
-        <v>100375</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,10 +3025,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C204" s="4">
-        <v>20914</v>
+        <v>9495</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,10 +3036,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C205" s="4">
-        <v>21339</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,10 +3047,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C206" s="4">
-        <v>7801</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3058,9 +3058,31 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C208" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C209" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="116">
   <si>
     <t>Период</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
   </si>
 </sst>
 </file>
@@ -723,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C209"/>
+      <selection activeCell="A168" sqref="A168:C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="C171" s="4">
-        <v>30242</v>
+        <v>33042</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,7 +2707,7 @@
         <v>14</v>
       </c>
       <c r="C174" s="4">
-        <v>12551</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2717,10 +2726,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C176" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2728,10 +2737,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C177" s="4">
-        <v>5236</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,10 +2748,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C178" s="4">
-        <v>26173</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2750,10 +2759,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C179" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,10 +2770,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C180" s="4">
-        <v>1800</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2772,10 +2781,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C181" s="4">
-        <v>3564</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2783,10 +2792,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C182" s="4">
-        <v>7587</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,10 +2803,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C183" s="4">
-        <v>24406</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,10 +2814,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C184" s="4">
-        <v>2440</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,10 +2825,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C185" s="4">
-        <v>16353</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,10 +2836,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C186" s="4">
-        <v>5337</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,10 +2847,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C187" s="4">
-        <v>12336</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,10 +2858,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C188" s="4">
-        <v>10549</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2860,10 +2869,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C189" s="4">
-        <v>6516</v>
+        <v>12672</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,10 +2880,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C190" s="4">
-        <v>11331</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,10 +2891,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C191" s="4">
-        <v>25026</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2893,10 +2902,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C192" s="4">
-        <v>32850</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,10 +2913,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C193" s="4">
-        <v>9615</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,10 +2924,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C194" s="4">
-        <v>16295</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2926,10 +2935,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C195" s="4">
-        <v>86499</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,10 +2946,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C196" s="4">
-        <v>24377</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,10 +2957,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C197" s="4">
-        <v>42489</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2959,10 +2968,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C198" s="4">
-        <v>41760</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2970,10 +2979,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C199" s="4">
-        <v>49503</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2981,10 +2990,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C200" s="4">
-        <v>24363</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2992,10 +3001,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C201" s="4">
-        <v>22344</v>
+        <v>86499</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3003,10 +3012,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C202" s="4">
-        <v>10296</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3014,10 +3023,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C203" s="4">
-        <v>16346</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,10 +3034,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C204" s="4">
-        <v>9495</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3036,10 +3045,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C205" s="4">
-        <v>100375</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3047,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C206" s="4">
-        <v>20914</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3058,10 +3067,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C207" s="4">
-        <v>21339</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3069,10 +3078,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C208" s="4">
-        <v>7801</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3080,9 +3089,86 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C209" s="4">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C210" s="4">
+        <v>16346</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C211" s="4">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C212" s="4">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C213" s="4">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C215" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C216" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="116">
   <si>
     <t>Период</t>
   </si>
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C216"/>
+      <selection activeCell="A168" sqref="A168:C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,10 +2671,10 @@
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C171" s="4">
-        <v>33042</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C172" s="4">
-        <v>20559</v>
+        <v>52054</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,10 +2693,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C173" s="4">
-        <v>11360</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,10 +2704,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C174" s="4">
-        <v>25350</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2715,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C175" s="4">
-        <v>34783</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +2726,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C176" s="4">
-        <v>4949</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,10 +2737,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C177" s="4">
-        <v>11739</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +2748,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="C178" s="4">
-        <v>8631</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,10 +2759,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C179" s="4">
-        <v>26173</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +2770,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C180" s="4">
-        <v>21589</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +2781,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C181" s="4">
-        <v>2412</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,10 +2792,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C182" s="4">
-        <v>1998</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,10 +2803,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C183" s="4">
-        <v>1800</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,10 +2814,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C184" s="4">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +2825,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C185" s="4">
-        <v>2394</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +2836,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C186" s="4">
-        <v>3564</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +2847,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C187" s="4">
-        <v>7587</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +2858,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C188" s="4">
-        <v>24406</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +2869,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C189" s="4">
-        <v>12672</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,10 +2880,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C190" s="4">
-        <v>2440</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C191" s="4">
-        <v>16353</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,10 +2902,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="C192" s="4">
-        <v>5337</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +2913,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C193" s="4">
-        <v>12336</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2924,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C194" s="4">
-        <v>10549</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C195" s="4">
-        <v>10071</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,10 +2946,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C196" s="4">
-        <v>11331</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,10 +2957,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C197" s="4">
-        <v>25026</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +2968,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C198" s="4">
-        <v>32850</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,10 +2979,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C199" s="4">
-        <v>9615</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +2990,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C200" s="4">
-        <v>16295</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,10 +3001,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C201" s="4">
-        <v>86499</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3012,10 +3012,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C202" s="4">
-        <v>24377</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C203" s="4">
-        <v>49563</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,10 +3034,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C204" s="4">
-        <v>2574</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,10 +3045,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C205" s="4">
-        <v>49197</v>
+        <v>86499</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C206" s="4">
-        <v>49503</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,10 +3067,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C207" s="4">
-        <v>24363</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C208" s="4">
-        <v>22344</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,10 +3089,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C209" s="4">
-        <v>10296</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,10 +3100,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C210" s="4">
-        <v>16346</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,10 +3111,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C211" s="4">
-        <v>9495</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,10 +3122,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C212" s="4">
-        <v>100375</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +3133,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C213" s="4">
-        <v>20914</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C214" s="4">
-        <v>21339</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,10 +3155,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C215" s="4">
-        <v>7801</v>
+        <v>9495</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,9 +3166,75 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C216" s="4">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C217" s="4">
+        <v>100375</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C218" s="4">
+        <v>14732</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" s="4">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C220" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C222" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="116">
   <si>
     <t>Период</t>
   </si>
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C222"/>
+      <selection activeCell="A168" sqref="A168:C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="C172" s="4">
-        <v>52054</v>
+        <v>66397</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
         <v>62</v>
       </c>
       <c r="C174" s="4">
-        <v>8064</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +2825,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C185" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +2836,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C186" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +2847,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C187" s="4">
-        <v>2376</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +2858,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C188" s="4">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +2869,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C189" s="4">
-        <v>3564</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,10 +2880,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C190" s="4">
-        <v>7587</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C191" s="4">
-        <v>24406</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,10 +2902,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C192" s="4">
-        <v>20601</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +2913,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C193" s="4">
-        <v>2440</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2924,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C194" s="4">
-        <v>7938</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C195" s="4">
-        <v>16353</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,10 +2946,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C196" s="4">
-        <v>5337</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,10 +2957,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C197" s="4">
-        <v>12336</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +2968,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C198" s="4">
-        <v>10549</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,10 +2979,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C199" s="4">
-        <v>10071</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +2990,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C200" s="4">
-        <v>11331</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,10 +3001,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C201" s="4">
-        <v>25026</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3012,10 +3012,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C202" s="4">
-        <v>32850</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C203" s="4">
-        <v>9615</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,10 +3034,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C204" s="4">
-        <v>16295</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,10 +3045,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C205" s="4">
-        <v>86499</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C206" s="4">
-        <v>24377</v>
+        <v>95193</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,10 +3067,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C207" s="4">
-        <v>49563</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C208" s="4">
-        <v>9999</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,10 +3089,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C209" s="4">
-        <v>49197</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,10 +3100,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C210" s="4">
-        <v>49503</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,10 +3111,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C211" s="4">
-        <v>24363</v>
+        <v>8676</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,10 +3122,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C212" s="4">
-        <v>22344</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +3133,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C213" s="4">
-        <v>10296</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C214" s="4">
-        <v>16346</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,10 +3155,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C215" s="4">
-        <v>9495</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,10 +3166,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C216" s="4">
-        <v>5040</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,10 +3177,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C217" s="4">
-        <v>100375</v>
+        <v>9495</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,10 +3188,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C218" s="4">
-        <v>14732</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,10 +3199,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C219" s="4">
-        <v>20914</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,10 +3210,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C220" s="4">
-        <v>21339</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,10 +3221,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C221" s="4">
-        <v>7801</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,9 +3232,31 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C222" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C223" s="4">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C224" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="116">
   <si>
     <t>Период</t>
   </si>
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C224"/>
+      <selection activeCell="A168" sqref="A168:C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,10 +2660,10 @@
         <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C170" s="4">
-        <v>9863</v>
+        <v>10437</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,10 +2671,10 @@
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C171" s="4">
-        <v>10381</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,10 +2682,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C172" s="4">
-        <v>66397</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,10 +2693,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C173" s="4">
-        <v>20559</v>
+        <v>66397</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,10 +2704,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C174" s="4">
-        <v>9065</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2715,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C175" s="4">
-        <v>11360</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +2726,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C176" s="4">
-        <v>25350</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,10 +2737,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C177" s="4">
-        <v>34783</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +2748,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C178" s="4">
-        <v>4949</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,10 +2759,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C179" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +2770,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C180" s="4">
-        <v>8631</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +2781,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C181" s="4">
-        <v>26173</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,10 +2792,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C182" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,10 +2803,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C183" s="4">
-        <v>9871</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,10 +2814,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C184" s="4">
-        <v>2412</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +2825,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C185" s="4">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +2836,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C186" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +2847,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C187" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +2858,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C188" s="4">
-        <v>2376</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +2869,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C189" s="4">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,10 +2880,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C190" s="4">
-        <v>3564</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C191" s="4">
-        <v>7587</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,10 +2902,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C192" s="4">
-        <v>24406</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +2913,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C193" s="4">
-        <v>20601</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2924,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C194" s="4">
-        <v>2440</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C195" s="4">
-        <v>15723</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,10 +2946,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C196" s="4">
-        <v>16353</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,10 +2957,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C197" s="4">
-        <v>5337</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +2968,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C198" s="4">
-        <v>12336</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,10 +2979,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C199" s="4">
-        <v>10549</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +2990,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C200" s="4">
-        <v>10071</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,10 +3001,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C201" s="4">
-        <v>11331</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3012,10 +3012,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C202" s="4">
-        <v>25026</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C203" s="4">
-        <v>32850</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,10 +3034,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C204" s="4">
-        <v>9615</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,10 +3045,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C205" s="4">
-        <v>16295</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C206" s="4">
-        <v>95193</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,10 +3067,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C207" s="4">
-        <v>24377</v>
+        <v>111852</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C208" s="4">
-        <v>49563</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,10 +3089,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C209" s="4">
-        <v>9999</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,10 +3100,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C210" s="4">
-        <v>49197</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,10 +3111,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C211" s="4">
-        <v>8676</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,10 +3122,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C212" s="4">
-        <v>49503</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +3133,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C213" s="4">
-        <v>24363</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C214" s="4">
-        <v>22344</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,10 +3155,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C215" s="4">
-        <v>10296</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,10 +3166,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C216" s="4">
-        <v>16346</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,10 +3177,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C217" s="4">
-        <v>9495</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,10 +3188,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C218" s="4">
-        <v>9817</v>
+        <v>9495</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,10 +3199,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C219" s="4">
-        <v>100375</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,10 +3210,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C220" s="4">
-        <v>14732</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,10 +3221,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C221" s="4">
-        <v>20914</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,10 +3232,10 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C222" s="4">
-        <v>21339</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,10 +3243,10 @@
         <v>110</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C223" s="4">
-        <v>7801</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,9 +3254,20 @@
         <v>110</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C224" s="4">
+        <v>9845</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C225" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="117">
   <si>
     <t>Период</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
   </si>
 </sst>
 </file>
@@ -732,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C225"/>
+      <selection activeCell="A168" sqref="A168:C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,10 +2652,10 @@
         <v>110</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C169" s="4">
-        <v>17262</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,10 +2663,10 @@
         <v>110</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" s="4">
-        <v>10437</v>
+        <v>17262</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,10 +2674,10 @@
         <v>110</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C171" s="4">
-        <v>9863</v>
+        <v>10437</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,10 +2685,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C172" s="4">
-        <v>10381</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,10 +2696,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C173" s="4">
-        <v>66397</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,10 +2707,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C174" s="4">
-        <v>20559</v>
+        <v>66397</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2718,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C175" s="4">
-        <v>9065</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +2729,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C176" s="4">
-        <v>11360</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,10 +2740,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C177" s="4">
-        <v>25350</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +2751,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C178" s="4">
-        <v>34783</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,10 +2762,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C179" s="4">
-        <v>4949</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +2773,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C180" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +2784,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C181" s="4">
-        <v>8631</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,10 +2795,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C182" s="4">
-        <v>26173</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,10 +2806,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C183" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,10 +2817,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C184" s="4">
-        <v>9871</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +2828,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C185" s="4">
-        <v>2412</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +2839,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C186" s="4">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +2850,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C187" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +2861,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C188" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +2872,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C189" s="4">
-        <v>2376</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,10 +2883,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C190" s="4">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +2894,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C191" s="4">
-        <v>3564</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,10 +2905,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C192" s="4">
-        <v>7587</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +2916,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C193" s="4">
-        <v>24406</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C194" s="4">
-        <v>20601</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +2938,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C195" s="4">
-        <v>2440</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,10 +2949,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C196" s="4">
-        <v>15723</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,10 +2960,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C197" s="4">
-        <v>16353</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +2971,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C198" s="4">
-        <v>5337</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,10 +2982,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C199" s="4">
-        <v>12336</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C200" s="4">
-        <v>10549</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,10 +3004,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C201" s="4">
-        <v>10071</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3012,10 +3015,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C202" s="4">
-        <v>11331</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,10 +3026,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C203" s="4">
-        <v>25026</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,10 +3037,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C204" s="4">
-        <v>32850</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,10 +3048,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C205" s="4">
-        <v>9615</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,10 +3059,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C206" s="4">
-        <v>16295</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,10 +3070,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C207" s="4">
-        <v>111852</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C208" s="4">
-        <v>24377</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,10 +3092,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C209" s="4">
-        <v>49563</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,10 +3103,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C210" s="4">
-        <v>9999</v>
+        <v>111852</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,10 +3114,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C211" s="4">
-        <v>49197</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C212" s="4">
-        <v>38673</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,10 +3136,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C213" s="4">
-        <v>49503</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,10 +3147,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C214" s="4">
-        <v>24363</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,10 +3158,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C215" s="4">
-        <v>22344</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,10 +3169,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C216" s="4">
-        <v>10296</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,10 +3180,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C217" s="4">
-        <v>16346</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,10 +3191,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C218" s="4">
-        <v>9495</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,10 +3202,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C219" s="4">
-        <v>9817</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,10 +3213,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C220" s="4">
-        <v>100375</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,10 +3224,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C221" s="4">
-        <v>14732</v>
+        <v>18684</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,10 +3235,10 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C222" s="4">
-        <v>20914</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,10 +3246,10 @@
         <v>110</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C223" s="4">
-        <v>21339</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C224" s="4">
-        <v>9845</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3265,9 +3268,42 @@
         <v>110</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" s="4">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C227" s="4">
+        <v>22211</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C228" s="4">
         <v>15309</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="117">
   <si>
     <t>Период</t>
   </si>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C228"/>
+      <selection activeCell="A168" sqref="A168:C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,7 +2655,7 @@
         <v>102</v>
       </c>
       <c r="C169" s="4">
-        <v>1008</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,10 +2707,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" s="4">
-        <v>66397</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C175" s="4">
-        <v>20559</v>
+        <v>66397</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,10 +2729,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C176" s="4">
-        <v>9065</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2740,10 +2740,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C177" s="4">
-        <v>11360</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,10 +2751,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178" s="4">
-        <v>25350</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,10 +2762,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C179" s="4">
-        <v>34783</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C180" s="4">
-        <v>4949</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,10 +2784,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C181" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C182" s="4">
-        <v>8631</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,10 +2806,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C183" s="4">
-        <v>26173</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2817,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C184" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,10 +2828,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C185" s="4">
-        <v>9871</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,10 +2839,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C186" s="4">
-        <v>2412</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,10 +2850,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C187" s="4">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,10 +2861,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C188" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +2872,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C189" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C190" s="4">
-        <v>2376</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,10 +2894,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C191" s="4">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C192" s="4">
-        <v>3564</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,10 +2916,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C193" s="4">
-        <v>7587</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C194" s="4">
-        <v>24406</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2938,10 +2938,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C195" s="4">
-        <v>20601</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C196" s="4">
-        <v>2440</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C197" s="4">
-        <v>15723</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,10 +2971,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C198" s="4">
-        <v>16353</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,10 +2982,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C199" s="4">
-        <v>5337</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C200" s="4">
-        <v>12336</v>
+        <v>16353</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C201" s="4">
-        <v>10549</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C202" s="4">
-        <v>10071</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C203" s="4">
-        <v>4086</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C204" s="4">
-        <v>18576</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C205" s="4">
-        <v>11331</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C206" s="4">
-        <v>25026</v>
+        <v>20979</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C207" s="4">
-        <v>32850</v>
+        <v>12069</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C208" s="4">
-        <v>9615</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C209" s="4">
-        <v>16295</v>
+        <v>44478</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3103,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C210" s="4">
-        <v>111852</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3114,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C211" s="4">
-        <v>24377</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C212" s="4">
-        <v>49563</v>
+        <v>111852</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C213" s="4">
-        <v>9999</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C214" s="4">
-        <v>49197</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C215" s="4">
-        <v>38673</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C216" s="4">
-        <v>49503</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C217" s="4">
-        <v>24363</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3191,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C218" s="4">
-        <v>22344</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C219" s="4">
-        <v>10296</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C220" s="4">
-        <v>16346</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C221" s="4">
-        <v>18684</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3235,10 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C222" s="4">
-        <v>9817</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,10 +3246,10 @@
         <v>110</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C223" s="4">
-        <v>100375</v>
+        <v>18684</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C224" s="4">
-        <v>14732</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>110</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C225" s="4">
-        <v>20914</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3279,10 +3279,10 @@
         <v>110</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C226" s="4">
-        <v>21339</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3290,10 +3290,10 @@
         <v>110</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C227" s="4">
-        <v>22211</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,43 @@
         <v>110</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="4">
+        <v>21339</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" s="4">
+        <v>22211</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C230" s="4">
         <v>15309</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" s="4">
+        <v>7042</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="117">
   <si>
     <t>Период</t>
   </si>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C231"/>
+      <selection activeCell="A168" sqref="A168:C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,10 +2685,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C172" s="4">
-        <v>9863</v>
+        <v>12670</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2696,10 +2696,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C173" s="4">
-        <v>10381</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,10 +2707,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C174" s="4">
-        <v>10051</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C175" s="4">
-        <v>66397</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,10 +2729,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C176" s="4">
-        <v>20559</v>
+        <v>66397</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2740,10 +2740,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C177" s="4">
-        <v>9065</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,10 +2751,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C178" s="4">
-        <v>11360</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,10 +2762,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179" s="4">
-        <v>25350</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C180" s="4">
-        <v>34783</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,10 +2784,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C181" s="4">
-        <v>4949</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C182" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,10 +2806,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C183" s="4">
-        <v>8631</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2817,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C184" s="4">
-        <v>26173</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,10 +2828,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C185" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,10 +2839,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C186" s="4">
-        <v>9871</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,10 +2850,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C187" s="4">
-        <v>2412</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,10 +2861,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C188" s="4">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +2872,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C189" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C190" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,10 +2894,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C191" s="4">
-        <v>2376</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C192" s="4">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,10 +2916,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C193" s="4">
-        <v>3564</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C194" s="4">
-        <v>7587</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2938,10 +2938,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C195" s="4">
-        <v>24406</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C196" s="4">
-        <v>20601</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C197" s="4">
-        <v>2440</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,10 +2971,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C198" s="4">
-        <v>15723</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,10 +2982,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C199" s="4">
-        <v>13365</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C200" s="4">
-        <v>16353</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C201" s="4">
-        <v>5337</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C202" s="4">
-        <v>12336</v>
+        <v>29223</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C203" s="4">
-        <v>10549</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C204" s="4">
-        <v>10071</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C205" s="4">
-        <v>5103</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C206" s="4">
-        <v>20979</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C207" s="4">
-        <v>12069</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C208" s="4">
-        <v>25026</v>
+        <v>20979</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C209" s="4">
-        <v>44478</v>
+        <v>21096</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3103,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C210" s="4">
-        <v>9615</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3114,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C211" s="4">
-        <v>16295</v>
+        <v>50841</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C212" s="4">
-        <v>111852</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C213" s="4">
-        <v>24377</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C214" s="4">
-        <v>49563</v>
+        <v>113508</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C215" s="4">
-        <v>9999</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C216" s="4">
-        <v>49197</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C217" s="4">
-        <v>38673</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3191,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C218" s="4">
-        <v>49503</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C219" s="4">
-        <v>24363</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C220" s="4">
-        <v>22344</v>
+        <v>49503</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C221" s="4">
-        <v>10296</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3235,10 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C222" s="4">
-        <v>16346</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,10 +3246,10 @@
         <v>110</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C223" s="4">
-        <v>18684</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C224" s="4">
-        <v>9817</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>110</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C225" s="4">
-        <v>100375</v>
+        <v>18684</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3279,10 +3279,10 @@
         <v>110</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C226" s="4">
-        <v>14732</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3290,10 +3290,10 @@
         <v>110</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C227" s="4">
-        <v>20914</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,10 @@
         <v>110</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C228" s="4">
-        <v>21339</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3312,10 +3312,10 @@
         <v>110</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C229" s="4">
-        <v>22211</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,10 +3323,10 @@
         <v>110</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C230" s="4">
-        <v>15309</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,10 +3334,32 @@
         <v>110</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C231" s="4">
+        <v>22211</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C232" s="4">
+        <v>15309</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C231" s="4">
-        <v>7042</v>
+      <c r="C233" s="4">
+        <v>10833</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="117">
   <si>
     <t>Период</t>
   </si>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C233"/>
+      <selection activeCell="A168" sqref="A168:C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="C172" s="4">
-        <v>12670</v>
+        <v>26761</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2740,10 +2740,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C177" s="4">
-        <v>20559</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,10 +2751,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C178" s="4">
-        <v>9065</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,10 +2762,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C179" s="4">
-        <v>11360</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180" s="4">
-        <v>25350</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,10 +2784,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C181" s="4">
-        <v>34783</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C182" s="4">
-        <v>4949</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,10 +2806,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C183" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2817,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C184" s="4">
-        <v>8631</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,10 +2828,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C185" s="4">
-        <v>26173</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,10 +2839,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C186" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,10 +2850,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C187" s="4">
-        <v>9871</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,10 +2861,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C188" s="4">
-        <v>2412</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +2872,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C189" s="4">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C190" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,10 +2894,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C191" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C192" s="4">
-        <v>2376</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,10 +2916,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C193" s="4">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C194" s="4">
-        <v>3879</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2938,10 +2938,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C195" s="4">
-        <v>3564</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C196" s="4">
-        <v>7587</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C197" s="4">
-        <v>24406</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,10 +2971,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C198" s="4">
-        <v>20601</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,10 +2982,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C199" s="4">
-        <v>2440</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C200" s="4">
-        <v>15723</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C201" s="4">
-        <v>13365</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C202" s="4">
-        <v>29223</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C203" s="4">
-        <v>5337</v>
+        <v>32814</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C204" s="4">
-        <v>12336</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C205" s="4">
-        <v>10549</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C206" s="4">
-        <v>10071</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C207" s="4">
-        <v>5103</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C208" s="4">
-        <v>20979</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C209" s="4">
-        <v>21096</v>
+        <v>20979</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3103,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C210" s="4">
-        <v>25026</v>
+        <v>21096</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3114,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C211" s="4">
-        <v>50841</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C212" s="4">
-        <v>9615</v>
+        <v>50841</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C213" s="4">
-        <v>16295</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C214" s="4">
-        <v>113508</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C215" s="4">
-        <v>24377</v>
+        <v>122797</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C216" s="4">
-        <v>49563</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C217" s="4">
-        <v>9999</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3191,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C218" s="4">
-        <v>49197</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C219" s="4">
-        <v>38673</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C220" s="4">
-        <v>49503</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C221" s="4">
-        <v>24363</v>
+        <v>70491</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3235,10 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C222" s="4">
-        <v>22344</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,10 +3246,10 @@
         <v>110</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C223" s="4">
-        <v>10296</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C224" s="4">
-        <v>16346</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>110</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C225" s="4">
-        <v>18684</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3279,10 +3279,10 @@
         <v>110</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C226" s="4">
-        <v>9817</v>
+        <v>18684</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3290,10 +3290,10 @@
         <v>110</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C227" s="4">
-        <v>100375</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,10 @@
         <v>110</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C228" s="4">
-        <v>14732</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3312,10 +3312,10 @@
         <v>110</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C229" s="4">
-        <v>20914</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,10 +3323,10 @@
         <v>110</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C230" s="4">
-        <v>21339</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,10 +3334,10 @@
         <v>110</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C231" s="4">
-        <v>22211</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3345,10 +3345,10 @@
         <v>110</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C232" s="4">
-        <v>15309</v>
+        <v>22211</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3356,9 +3356,20 @@
         <v>110</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C233" s="4">
+        <v>15309</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C234" s="4">
         <v>10833</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="117">
   <si>
     <t>Период</t>
   </si>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C234"/>
+      <selection activeCell="A168" sqref="A168:C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,10 +2685,10 @@
         <v>110</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C172" s="4">
-        <v>26761</v>
+        <v>10661</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2696,10 +2696,10 @@
         <v>110</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C173" s="4">
-        <v>9863</v>
+        <v>26761</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2707,10 +2707,10 @@
         <v>110</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C174" s="4">
-        <v>10381</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>110</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C175" s="4">
-        <v>10051</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,10 +2729,10 @@
         <v>110</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C176" s="4">
-        <v>66397</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2740,10 +2740,10 @@
         <v>110</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C177" s="4">
-        <v>2352</v>
+        <v>66397</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,10 +2751,10 @@
         <v>110</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C178" s="4">
-        <v>20559</v>
+        <v>9863</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,10 +2762,10 @@
         <v>110</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C179" s="4">
-        <v>9065</v>
+        <v>20559</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>110</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C180" s="4">
-        <v>11360</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,10 +2784,10 @@
         <v>110</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C181" s="4">
-        <v>25350</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>110</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C182" s="4">
-        <v>34783</v>
+        <v>25350</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,10 +2806,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C183" s="4">
-        <v>4949</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2817,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C184" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,10 +2828,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C185" s="4">
-        <v>8631</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,10 +2839,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C186" s="4">
-        <v>26173</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,10 +2850,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C187" s="4">
-        <v>21589</v>
+        <v>26173</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,10 +2861,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C188" s="4">
-        <v>9871</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +2872,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C189" s="4">
-        <v>2412</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C190" s="4">
-        <v>2376</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,10 +2894,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C191" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C192" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,10 +2916,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C193" s="4">
-        <v>2376</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C194" s="4">
-        <v>2394</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2938,10 +2938,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C195" s="4">
-        <v>3879</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C196" s="4">
-        <v>3564</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C197" s="4">
-        <v>7587</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,10 +2971,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C198" s="4">
-        <v>24406</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,10 +2982,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C199" s="4">
-        <v>20601</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C200" s="4">
-        <v>2440</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C201" s="4">
-        <v>15723</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C202" s="4">
-        <v>13365</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C203" s="4">
-        <v>32814</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C204" s="4">
-        <v>5337</v>
+        <v>32814</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="C205" s="4">
-        <v>12336</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C206" s="4">
-        <v>10549</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C207" s="4">
-        <v>10071</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C208" s="4">
-        <v>5103</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C209" s="4">
-        <v>20979</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3103,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C210" s="4">
-        <v>21096</v>
+        <v>20979</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3114,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C211" s="4">
-        <v>25026</v>
+        <v>21096</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C212" s="4">
-        <v>50841</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C213" s="4">
-        <v>9615</v>
+        <v>50841</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C214" s="4">
-        <v>16295</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C215" s="4">
-        <v>122797</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C216" s="4">
-        <v>24377</v>
+        <v>132121</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C217" s="4">
-        <v>49563</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3191,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C218" s="4">
-        <v>9999</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C219" s="4">
-        <v>49197</v>
+        <v>49563</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C220" s="4">
-        <v>38673</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C221" s="4">
-        <v>70491</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3235,10 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C222" s="4">
-        <v>24363</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,10 +3246,10 @@
         <v>110</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C223" s="4">
-        <v>22344</v>
+        <v>74334</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C224" s="4">
-        <v>10296</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>110</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C225" s="4">
-        <v>16346</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3279,10 +3279,10 @@
         <v>110</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C226" s="4">
-        <v>18684</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3290,10 +3290,10 @@
         <v>110</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C227" s="4">
-        <v>9817</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,10 @@
         <v>110</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C228" s="4">
-        <v>100375</v>
+        <v>18684</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3312,10 +3312,10 @@
         <v>110</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C229" s="4">
-        <v>14732</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,10 +3323,10 @@
         <v>110</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C230" s="4">
-        <v>20914</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,10 +3334,10 @@
         <v>110</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C231" s="4">
-        <v>21339</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3345,10 +3345,10 @@
         <v>110</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C232" s="4">
-        <v>22211</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3356,10 +3356,10 @@
         <v>110</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C233" s="4">
-        <v>15309</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3367,9 +3367,31 @@
         <v>110</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C234" s="4">
+        <v>22211</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C235" s="4">
+        <v>15309</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C236" s="4">
         <v>10833</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -3172,7 +3172,7 @@
         <v>31</v>
       </c>
       <c r="C216" s="4">
-        <v>132121</v>
+        <v>136186</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
         <v>84</v>
       </c>
       <c r="C217" s="4">
-        <v>9288</v>
+        <v>11403</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -2853,7 +2853,7 @@
         <v>68</v>
       </c>
       <c r="C187" s="4">
-        <v>26173</v>
+        <v>40859</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,7 +3139,7 @@
         <v>81</v>
       </c>
       <c r="C213" s="4">
-        <v>50841</v>
+        <v>53235</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>34</v>
       </c>
       <c r="C219" s="4">
-        <v>49563</v>
+        <v>70731</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="117">
   <si>
     <t>Период</t>
   </si>
@@ -735,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C236"/>
+      <selection activeCell="A168" sqref="A168:C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="C174" s="4">
-        <v>9863</v>
+        <v>22988</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2806,10 +2806,10 @@
         <v>110</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C183" s="4">
-        <v>34783</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2817,10 +2817,10 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C184" s="4">
-        <v>4949</v>
+        <v>34783</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,10 +2828,10 @@
         <v>110</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C185" s="4">
-        <v>11739</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2839,10 +2839,10 @@
         <v>110</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C186" s="4">
-        <v>8631</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2850,10 +2850,10 @@
         <v>110</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C187" s="4">
-        <v>40859</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,10 +2861,10 @@
         <v>110</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C188" s="4">
-        <v>21589</v>
+        <v>50218</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +2872,10 @@
         <v>110</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C189" s="4">
-        <v>9871</v>
+        <v>21589</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>110</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C190" s="4">
-        <v>5104</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2894,10 +2894,10 @@
         <v>110</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C191" s="4">
-        <v>2376</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,10 +2905,10 @@
         <v>110</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C192" s="4">
-        <v>1998</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2916,10 +2916,10 @@
         <v>110</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C193" s="4">
-        <v>1800</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C194" s="4">
-        <v>2376</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2938,10 +2938,10 @@
         <v>110</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C195" s="4">
-        <v>2394</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="C196" s="4">
-        <v>3879</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>110</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C197" s="4">
-        <v>3564</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,10 +2971,10 @@
         <v>110</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C198" s="4">
-        <v>7587</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2982,10 +2982,10 @@
         <v>110</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C199" s="4">
-        <v>24406</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2993,10 +2993,10 @@
         <v>110</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C200" s="4">
-        <v>20601</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C201" s="4">
-        <v>2440</v>
+        <v>25558</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>110</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C202" s="4">
-        <v>15723</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3026,10 +3026,10 @@
         <v>110</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C203" s="4">
-        <v>13365</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>110</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C204" s="4">
-        <v>32814</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3048,10 +3048,10 @@
         <v>110</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C205" s="4">
-        <v>5337</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3059,10 +3059,10 @@
         <v>110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C206" s="4">
-        <v>12336</v>
+        <v>32814</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>110</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C207" s="4">
-        <v>10549</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3081,10 +3081,10 @@
         <v>110</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C208" s="4">
-        <v>10071</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,10 +3092,10 @@
         <v>110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C209" s="4">
-        <v>5103</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,10 +3103,10 @@
         <v>110</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C210" s="4">
-        <v>20979</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,10 +3114,10 @@
         <v>110</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C211" s="4">
-        <v>21096</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3125,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C212" s="4">
-        <v>25026</v>
+        <v>20979</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>110</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C213" s="4">
-        <v>53235</v>
+        <v>21096</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>110</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C214" s="4">
-        <v>9615</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>110</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C215" s="4">
-        <v>16295</v>
+        <v>63801</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>110</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C216" s="4">
-        <v>136186</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>110</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C217" s="4">
-        <v>11403</v>
+        <v>16295</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,10 +3191,10 @@
         <v>110</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C218" s="4">
-        <v>24377</v>
+        <v>136186</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3202,10 +3202,10 @@
         <v>110</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C219" s="4">
-        <v>70731</v>
+        <v>11403</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3213,10 +3213,10 @@
         <v>110</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C220" s="4">
-        <v>9999</v>
+        <v>24377</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,10 +3224,10 @@
         <v>110</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C221" s="4">
-        <v>49197</v>
+        <v>74322</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3235,10 +3235,10 @@
         <v>110</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C222" s="4">
-        <v>38673</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3246,10 +3246,10 @@
         <v>110</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C223" s="4">
-        <v>74334</v>
+        <v>49197</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,10 +3257,10 @@
         <v>110</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C224" s="4">
-        <v>24363</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>110</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C225" s="4">
-        <v>22344</v>
+        <v>74334</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3279,10 +3279,10 @@
         <v>110</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C226" s="4">
-        <v>10296</v>
+        <v>24363</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3290,10 +3290,10 @@
         <v>110</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C227" s="4">
-        <v>16346</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,10 @@
         <v>110</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C228" s="4">
-        <v>18684</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3312,10 +3312,10 @@
         <v>110</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C229" s="4">
-        <v>9817</v>
+        <v>16346</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,10 +3323,10 @@
         <v>110</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C230" s="4">
-        <v>100375</v>
+        <v>18684</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,10 +3334,10 @@
         <v>110</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C231" s="4">
-        <v>14732</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3345,10 +3345,10 @@
         <v>110</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C232" s="4">
-        <v>20914</v>
+        <v>100375</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3356,10 +3356,10 @@
         <v>110</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C233" s="4">
-        <v>21339</v>
+        <v>14732</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3367,10 +3367,10 @@
         <v>110</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C234" s="4">
-        <v>22211</v>
+        <v>20914</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3378,10 +3378,10 @@
         <v>110</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C235" s="4">
-        <v>15309</v>
+        <v>21339</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3389,9 +3389,31 @@
         <v>110</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C236" s="4">
+        <v>22211</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" s="4">
+        <v>15309</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C238" s="4">
         <v>10833</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="118">
   <si>
     <t>Период</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
   </si>
 </sst>
 </file>
@@ -735,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:C238"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239:C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,7 +3164,7 @@
         <v>81</v>
       </c>
       <c r="C215" s="4">
-        <v>63801</v>
+        <v>50841</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3415,6 +3418,83 @@
       </c>
       <c r="C238" s="4">
         <v>10833</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C239" s="4">
+        <v>10472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="4">
+        <v>14861</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="4">
+        <v>30861</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C242" s="4">
+        <v>9405</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C243" s="4">
+        <v>17032</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C244" s="4">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C245" s="4">
+        <v>9289</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="118">
   <si>
     <t>Период</t>
   </si>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C245"/>
+      <selection activeCell="A239" sqref="A239:C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,7 +3428,7 @@
         <v>109</v>
       </c>
       <c r="C239" s="4">
-        <v>10472</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3447,10 +3447,10 @@
         <v>117</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C241" s="4">
-        <v>30861</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3458,10 +3458,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C242" s="4">
-        <v>9405</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3469,10 +3469,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C243" s="4">
-        <v>17032</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3480,10 +3480,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C244" s="4">
-        <v>6492</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3491,9 +3491,97 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="4">
+        <v>30861</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C246" s="4">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" s="4">
+        <v>9405</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C248" s="4">
+        <v>17032</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" s="4">
+        <v>60678</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250" s="4">
+        <v>10089</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C251" s="4">
+        <v>9648</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C252" s="4">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C253" s="4">
         <v>9289</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -738,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C253"/>
+      <selection activeCell="A239" sqref="A239:C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3461,7 +3464,7 @@
         <v>67</v>
       </c>
       <c r="C242" s="4">
-        <v>2310</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3486,7 @@
         <v>75</v>
       </c>
       <c r="C244" s="4">
-        <v>6768</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,10 +3505,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C246" s="4">
-        <v>2410</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3513,10 +3516,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C247" s="4">
-        <v>9405</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3524,10 +3527,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C248" s="4">
-        <v>17032</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,10 +3538,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C249" s="4">
-        <v>60678</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,10 +3549,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C250" s="4">
-        <v>10089</v>
+        <v>60678</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,10 +3560,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C251" s="4">
-        <v>9648</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,10 +3571,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C252" s="4">
-        <v>6492</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,9 +3582,20 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C253" s="4">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C254" s="4">
         <v>9289</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -741,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C254"/>
+      <selection activeCell="A239" sqref="A239:C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,10 +3428,10 @@
         <v>117</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C239" s="4">
-        <v>11907</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,10 +3439,10 @@
         <v>117</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C240" s="4">
-        <v>14861</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,10 +3450,10 @@
         <v>117</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C241" s="4">
-        <v>9751</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,10 +3461,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C242" s="4">
-        <v>14357</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3472,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C243" s="4">
-        <v>1059</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3483,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C244" s="4">
-        <v>8073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3494,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C245" s="4">
-        <v>30861</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3505,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C246" s="4">
-        <v>1600</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3516,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C247" s="4">
-        <v>2410</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3527,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C248" s="4">
-        <v>9405</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3538,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C249" s="4">
-        <v>17032</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3549,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C250" s="4">
-        <v>60678</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3560,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C251" s="4">
-        <v>10089</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3571,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C252" s="4">
-        <v>9648</v>
+        <v>60678</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C253" s="4">
-        <v>6492</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3593,43 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C254" s="4">
+        <v>36666</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C255" s="4">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C256" s="4">
         <v>9289</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C257" s="4">
+        <v>4382</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -741,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C257"/>
+      <selection activeCell="A239" sqref="A239:C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,10 +3450,10 @@
         <v>117</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C241" s="4">
-        <v>14861</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,10 +3461,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C242" s="4">
-        <v>9751</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3472,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C243" s="4">
-        <v>14357</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3483,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C244" s="4">
-        <v>1059</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3494,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C245" s="4">
-        <v>8073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3505,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C246" s="4">
-        <v>30861</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3516,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C247" s="4">
-        <v>1600</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3527,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C248" s="4">
-        <v>2410</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3538,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C249" s="4">
-        <v>9405</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3549,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C250" s="4">
-        <v>17032</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3560,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C251" s="4">
-        <v>5706</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3571,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C252" s="4">
-        <v>60678</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C253" s="4">
-        <v>10089</v>
+        <v>60678</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3593,10 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C254" s="4">
-        <v>36666</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3604,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C255" s="4">
-        <v>6492</v>
+        <v>60354</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3615,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C256" s="4">
-        <v>9289</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3626,21 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C257" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C257" s="4">
-        <v>4382</v>
+      <c r="C258" s="4">
+        <v>12138</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +458,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -741,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C258"/>
+      <selection activeCell="A239" sqref="A239:C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,7 +3456,7 @@
         <v>60</v>
       </c>
       <c r="C241" s="4">
-        <v>6062</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3475,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C243" s="4">
-        <v>9751</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3486,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C244" s="4">
-        <v>14357</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3497,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C245" s="4">
-        <v>1059</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3508,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C246" s="4">
-        <v>8073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3519,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C247" s="4">
-        <v>30861</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3530,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C248" s="4">
-        <v>1600</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3541,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C249" s="4">
-        <v>2410</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3552,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C250" s="4">
-        <v>9405</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3563,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C251" s="4">
-        <v>17032</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3574,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C252" s="4">
-        <v>5706</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3585,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C253" s="4">
-        <v>60678</v>
+        <v>14076</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3596,10 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C254" s="4">
-        <v>10089</v>
+        <v>145173</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3607,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C255" s="4">
-        <v>60354</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3618,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C256" s="4">
-        <v>6492</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3629,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C257" s="4">
-        <v>9289</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,9 +3640,42 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C258" s="4">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C259" s="5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C260" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C261" s="4">
         <v>12138</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,9 +458,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3478,7 +3475,7 @@
         <v>15</v>
       </c>
       <c r="C243" s="4">
-        <v>6202</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3588,7 +3585,7 @@
         <v>31</v>
       </c>
       <c r="C253" s="4">
-        <v>14076</v>
+        <v>23436</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,7 +3640,7 @@
         <v>44</v>
       </c>
       <c r="C258" s="4">
-        <v>5112</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3653,8 +3650,8 @@
       <c r="B259" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C259" s="5">
-        <v>342</v>
+      <c r="C259" s="4">
+        <v>19233</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -741,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C261"/>
+      <selection activeCell="A239" sqref="A239:C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,7 +3475,7 @@
         <v>15</v>
       </c>
       <c r="C243" s="4">
-        <v>20440</v>
+        <v>23314</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
         <v>31</v>
       </c>
       <c r="C253" s="4">
-        <v>23436</v>
+        <v>26391</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3604,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C255" s="4">
-        <v>10089</v>
+        <v>22554</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3615,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C256" s="4">
-        <v>73629</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3626,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C257" s="4">
-        <v>6492</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,10 +3637,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C258" s="4">
-        <v>25453</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,10 +3648,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C259" s="4">
-        <v>19233</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,10 +3659,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C260" s="4">
-        <v>9289</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,10 +3670,54 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C261" s="4">
+        <v>24012</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C262" s="4">
+        <v>19233</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C263" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C264" s="4">
         <v>12138</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C265" s="4">
+        <v>11104</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -741,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C265"/>
+      <selection activeCell="A239" sqref="A239:C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,10 +3428,10 @@
         <v>117</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C239" s="4">
-        <v>10024</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,10 +3439,10 @@
         <v>117</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C240" s="4">
-        <v>11907</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,10 +3450,10 @@
         <v>117</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C241" s="4">
-        <v>11830</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,10 +3461,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C242" s="4">
-        <v>14861</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3472,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C243" s="4">
-        <v>23314</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3483,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C244" s="4">
-        <v>9751</v>
+        <v>23314</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3494,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C245" s="4">
-        <v>14357</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3505,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C246" s="4">
-        <v>1059</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3516,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C247" s="4">
-        <v>8073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3527,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C248" s="4">
-        <v>30861</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3538,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C249" s="4">
-        <v>1600</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3549,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C250" s="4">
-        <v>2410</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3560,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C251" s="4">
-        <v>9405</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3571,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C252" s="4">
-        <v>17032</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C253" s="4">
-        <v>26391</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3593,10 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C254" s="4">
-        <v>145173</v>
+        <v>26391</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3604,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C255" s="4">
-        <v>22554</v>
+        <v>145173</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3615,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C256" s="4">
-        <v>10089</v>
+        <v>23797</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3626,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C257" s="4">
-        <v>73629</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,10 +3637,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C258" s="4">
-        <v>4968</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,10 +3648,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C259" s="4">
-        <v>6492</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,10 +3659,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C260" s="4">
-        <v>25453</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,10 +3670,10 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C261" s="4">
-        <v>24012</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,10 +3681,10 @@
         <v>117</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C262" s="4">
-        <v>19233</v>
+        <v>24321</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,10 +3692,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C263" s="4">
-        <v>9289</v>
+        <v>19233</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,10 +3703,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C264" s="4">
-        <v>12138</v>
+        <v>9289</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,9 +3714,20 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C265" s="4">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C266" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +458,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -741,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C266"/>
+      <selection activeCell="A239" sqref="A239:C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3461,10 +3464,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C242" s="4">
-        <v>11830</v>
+        <v>14941</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3475,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C243" s="4">
-        <v>14861</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3486,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C244" s="4">
-        <v>23314</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3497,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C245" s="4">
-        <v>9751</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3508,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="C246" s="4">
-        <v>14357</v>
+        <v>23314</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3519,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C247" s="4">
-        <v>1059</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3530,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C248" s="4">
-        <v>8073</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3541,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C249" s="4">
-        <v>30861</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3552,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="C250" s="4">
-        <v>1600</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3563,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C251" s="4">
-        <v>2410</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3574,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C252" s="4">
-        <v>9405</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3585,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C253" s="4">
-        <v>17032</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3596,10 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C254" s="4">
-        <v>26391</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3607,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C255" s="4">
-        <v>145173</v>
+        <v>24</v>
+      </c>
+      <c r="C255" s="5">
+        <v>198</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3618,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C256" s="4">
-        <v>23797</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3629,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C257" s="4">
-        <v>10089</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,10 +3640,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C258" s="4">
-        <v>73629</v>
+        <v>26391</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,10 +3651,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C259" s="4">
-        <v>4968</v>
+        <v>169437</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,10 +3662,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="C260" s="4">
-        <v>6492</v>
+        <v>23797</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,10 +3673,10 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C261" s="4">
-        <v>25453</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,10 +3684,10 @@
         <v>117</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C262" s="4">
-        <v>24321</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,10 +3695,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C263" s="4">
-        <v>19233</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,10 +3706,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C264" s="4">
-        <v>9289</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,10 +3717,10 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C265" s="4">
-        <v>12138</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,9 +3728,53 @@
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C266" s="4">
+        <v>24321</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C267" s="4">
+        <v>19233</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C268" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" s="4">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C270" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="119">
   <si>
     <t>Период</t>
   </si>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,9 +458,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -744,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C270"/>
+      <selection activeCell="A239" sqref="A239:C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,7 +3552,7 @@
         <v>20</v>
       </c>
       <c r="C250" s="4">
-        <v>1764</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3609,8 +3606,8 @@
       <c r="B255" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C255" s="5">
-        <v>198</v>
+      <c r="C255" s="4">
+        <v>7848</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3654,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="C259" s="4">
-        <v>169437</v>
+        <v>197823</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,10 +3692,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C263" s="4">
-        <v>10269</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,10 +3703,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C264" s="4">
-        <v>6492</v>
+        <v>16542</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,10 +3714,10 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C265" s="4">
-        <v>25453</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,10 +3725,10 @@
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C266" s="4">
-        <v>24321</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,10 +3736,10 @@
         <v>117</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C267" s="4">
-        <v>19233</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,10 +3747,10 @@
         <v>117</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C268" s="4">
-        <v>9289</v>
+        <v>24321</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,10 +3758,10 @@
         <v>117</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C269" s="4">
-        <v>12138</v>
+        <v>19233</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,9 +3769,31 @@
         <v>117</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C270" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C271" s="4">
+        <v>12138</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C272" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="120">
   <si>
     <t>Период</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +461,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -741,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C272"/>
+      <selection activeCell="A239" sqref="A239:C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,10 +3434,10 @@
         <v>117</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C239" s="4">
-        <v>4907</v>
+        <v>18197</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,10 +3445,10 @@
         <v>117</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C240" s="4">
-        <v>10024</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,10 +3456,10 @@
         <v>117</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C241" s="4">
-        <v>11907</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,10 +3467,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C242" s="4">
-        <v>14941</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,10 +3478,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C243" s="4">
-        <v>11830</v>
+        <v>14941</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3489,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C244" s="4">
-        <v>9385</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3500,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C245" s="4">
-        <v>14861</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3511,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C246" s="4">
-        <v>23314</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3522,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C247" s="4">
-        <v>9751</v>
+        <v>23314</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,10 +3533,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C248" s="4">
-        <v>14357</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,10 +3544,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C249" s="4">
-        <v>1059</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,10 +3555,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C250" s="4">
-        <v>4284</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,10 +3566,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C251" s="4">
-        <v>8073</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,10 +3577,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="C252" s="4">
-        <v>30861</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,10 +3588,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="C253" s="4">
-        <v>1600</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,10 +3599,10 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C254" s="4">
-        <v>2410</v>
+        <v>115</v>
+      </c>
+      <c r="C254" s="5">
+        <v>720</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,10 +3610,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C255" s="4">
-        <v>7848</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,10 +3621,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C256" s="4">
-        <v>9405</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,10 +3632,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C257" s="4">
-        <v>17032</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,10 +3643,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C258" s="4">
-        <v>26391</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,10 +3654,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C259" s="4">
-        <v>197823</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,10 +3665,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C260" s="4">
-        <v>23797</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,10 +3676,10 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C261" s="4">
-        <v>10089</v>
+        <v>10377</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,10 +3687,10 @@
         <v>117</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C262" s="4">
-        <v>73629</v>
+        <v>23895</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,10 +3698,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C263" s="4">
-        <v>10049</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,10 +3709,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C264" s="4">
-        <v>16542</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,10 +3720,10 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C265" s="4">
-        <v>10269</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,10 +3731,10 @@
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C266" s="4">
-        <v>6492</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,10 +3742,10 @@
         <v>117</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C267" s="4">
-        <v>25453</v>
+        <v>46484</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,10 +3753,10 @@
         <v>117</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C268" s="4">
-        <v>24321</v>
+        <v>249042</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3758,10 +3764,10 @@
         <v>117</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C269" s="4">
-        <v>19233</v>
+        <v>23797</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3769,10 +3775,10 @@
         <v>117</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C270" s="4">
-        <v>9289</v>
+        <v>83052</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3780,10 +3786,10 @@
         <v>117</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C271" s="4">
-        <v>12138</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,9 +3797,141 @@
         <v>117</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C272" s="4">
+        <v>73629</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" s="4">
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C274" s="4">
+        <v>9891</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C275" s="4">
+        <v>18495</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C276" s="4">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C277" s="4">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C278" s="4">
+        <v>7074</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279" s="4">
+        <v>25453</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C280" s="4">
+        <v>73308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C281" s="4">
+        <v>19233</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C282" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C283" s="4">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C284" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="120">
   <si>
     <t>Период</t>
   </si>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,9 +461,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -747,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C284"/>
+      <selection activeCell="A239" sqref="A239:C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,10 +3453,10 @@
         <v>117</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C241" s="4">
-        <v>10024</v>
+        <v>12873</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3467,10 +3464,10 @@
         <v>117</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C242" s="4">
-        <v>11907</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3478,10 +3475,10 @@
         <v>117</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C243" s="4">
-        <v>14941</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3489,10 +3486,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C244" s="4">
-        <v>11830</v>
+        <v>14941</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,10 +3497,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C245" s="4">
-        <v>9385</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3511,10 +3508,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C246" s="4">
-        <v>14861</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3522,10 +3519,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C247" s="4">
-        <v>23314</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3533,10 +3530,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C248" s="4">
-        <v>5005</v>
+        <v>23314</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3544,10 +3541,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C249" s="4">
-        <v>9751</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3555,10 +3552,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C250" s="4">
-        <v>14357</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,10 +3563,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C251" s="4">
-        <v>21543</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3577,10 +3574,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C252" s="4">
-        <v>1059</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3588,10 +3585,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C253" s="4">
-        <v>4284</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3599,10 +3596,10 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C254" s="5">
-        <v>720</v>
+        <v>20</v>
+      </c>
+      <c r="C254" s="4">
+        <v>4284</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,10 +3607,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C255" s="4">
-        <v>8073</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3621,10 +3618,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C256" s="4">
-        <v>30861</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3632,10 +3629,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C257" s="4">
-        <v>1600</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,10 +3640,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C258" s="4">
-        <v>2020</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3654,10 +3651,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C259" s="4">
-        <v>1700</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3665,10 +3662,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C260" s="4">
-        <v>2410</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,10 +3673,10 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C261" s="4">
-        <v>10377</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3687,10 +3684,10 @@
         <v>117</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C262" s="4">
-        <v>23895</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3698,10 +3695,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C263" s="4">
-        <v>9405</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,10 +3706,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="C264" s="4">
-        <v>46008</v>
+        <v>10377</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,10 +3717,10 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C265" s="4">
-        <v>19999</v>
+        <v>23895</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,10 +3728,10 @@
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C266" s="4">
-        <v>17032</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3742,10 +3739,10 @@
         <v>117</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="C267" s="4">
-        <v>46484</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,10 +3750,10 @@
         <v>117</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C268" s="4">
-        <v>249042</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,10 +3761,10 @@
         <v>117</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C269" s="4">
-        <v>23797</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3775,10 +3772,10 @@
         <v>117</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C270" s="4">
-        <v>83052</v>
+        <v>46484</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,10 +3783,10 @@
         <v>117</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C271" s="4">
-        <v>10089</v>
+        <v>249042</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,10 +3794,10 @@
         <v>117</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C272" s="4">
-        <v>73629</v>
+        <v>23797</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3808,10 +3805,10 @@
         <v>117</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C273" s="4">
-        <v>10049</v>
+        <v>99468</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3819,10 +3816,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C274" s="4">
-        <v>9891</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,10 +3827,10 @@
         <v>117</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C275" s="4">
-        <v>18495</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3841,10 +3838,10 @@
         <v>117</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C276" s="4">
-        <v>10269</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3852,10 +3849,10 @@
         <v>117</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C277" s="4">
-        <v>6492</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,10 +3860,10 @@
         <v>117</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C278" s="4">
-        <v>7074</v>
+        <v>18495</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,10 +3871,10 @@
         <v>117</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C279" s="4">
-        <v>25453</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,10 +3882,10 @@
         <v>117</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C280" s="4">
-        <v>73308</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3896,10 +3893,10 @@
         <v>117</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C281" s="4">
-        <v>19233</v>
+        <v>64134</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,10 +3904,10 @@
         <v>117</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C282" s="4">
-        <v>9289</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,10 +3915,10 @@
         <v>117</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C283" s="4">
-        <v>37226</v>
+        <v>29898</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3929,9 +3926,53 @@
         <v>117</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" s="4">
+        <v>73308</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C285" s="4">
+        <v>19233</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C286" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C287" s="4">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C288" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="120">
   <si>
     <t>Период</t>
   </si>
@@ -744,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C288"/>
+      <selection activeCell="A239" sqref="A239:C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3533,7 @@
         <v>15</v>
       </c>
       <c r="C248" s="4">
-        <v>23314</v>
+        <v>40002</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,10 +3618,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C256" s="4">
-        <v>2646</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,10 +3629,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C257" s="4">
-        <v>1080</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,10 +3640,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C258" s="4">
-        <v>8073</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,10 +3651,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C259" s="4">
-        <v>30861</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,10 +3662,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C260" s="4">
-        <v>3038</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3673,10 +3673,10 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C261" s="4">
-        <v>2020</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,10 +3684,10 @@
         <v>117</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C262" s="4">
-        <v>1700</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,10 +3695,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C263" s="4">
-        <v>3660</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,10 +3706,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C264" s="4">
-        <v>10377</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,10 +3717,10 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C265" s="4">
-        <v>23895</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,10 +3728,10 @@
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C266" s="4">
-        <v>9405</v>
+        <v>10377</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,10 +3739,10 @@
         <v>117</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="C267" s="4">
-        <v>46008</v>
+        <v>23895</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,10 +3750,10 @@
         <v>117</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C268" s="4">
-        <v>19999</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,10 +3761,10 @@
         <v>117</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C269" s="4">
-        <v>17032</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,10 +3772,10 @@
         <v>117</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C270" s="4">
-        <v>46484</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,10 +3783,10 @@
         <v>117</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C271" s="4">
-        <v>249042</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3794,10 +3794,10 @@
         <v>117</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C272" s="4">
-        <v>23797</v>
+        <v>46484</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,10 +3805,10 @@
         <v>117</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C273" s="4">
-        <v>99468</v>
+        <v>249042</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,10 +3816,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C274" s="4">
-        <v>10089</v>
+        <v>23797</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,10 +3827,10 @@
         <v>117</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C275" s="4">
-        <v>73629</v>
+        <v>99468</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,10 +3838,10 @@
         <v>117</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C276" s="4">
-        <v>10049</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,10 +3849,10 @@
         <v>117</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C277" s="4">
-        <v>9891</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,10 +3860,10 @@
         <v>117</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C278" s="4">
-        <v>18495</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3871,10 +3871,10 @@
         <v>117</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C279" s="4">
-        <v>10269</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,10 +3882,10 @@
         <v>117</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C280" s="4">
-        <v>6492</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,10 +3893,10 @@
         <v>117</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C281" s="4">
-        <v>64134</v>
+        <v>18495</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3904,10 +3904,10 @@
         <v>117</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C282" s="4">
-        <v>25453</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3915,10 +3915,10 @@
         <v>117</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C283" s="4">
-        <v>29898</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3926,10 +3926,10 @@
         <v>117</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C284" s="4">
-        <v>73308</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3937,10 +3937,10 @@
         <v>117</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C285" s="4">
-        <v>19233</v>
+        <v>120456</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,10 +3948,10 @@
         <v>117</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C286" s="4">
-        <v>9289</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,10 +3959,10 @@
         <v>117</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C287" s="4">
-        <v>37226</v>
+        <v>38925</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,9 +3970,53 @@
         <v>117</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" s="4">
+        <v>73308</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C289" s="4">
+        <v>19233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C290" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C291" s="4">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C292" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="120">
   <si>
     <t>Период</t>
   </si>
@@ -744,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D292"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C292"/>
+      <selection activeCell="A239" sqref="A239:C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3533,7 @@
         <v>15</v>
       </c>
       <c r="C248" s="4">
-        <v>40002</v>
+        <v>52651</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="C261" s="4">
-        <v>1710</v>
+        <v>16777</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="C272" s="4">
-        <v>46484</v>
+        <v>47006</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,10 +3816,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C274" s="4">
-        <v>23797</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,10 +3827,10 @@
         <v>117</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C275" s="4">
-        <v>99468</v>
+        <v>73882</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,10 +3838,10 @@
         <v>117</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C276" s="4">
-        <v>10089</v>
+        <v>156222</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,10 +3849,10 @@
         <v>117</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C277" s="4">
-        <v>73629</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,10 +3860,10 @@
         <v>117</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C278" s="4">
-        <v>10049</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3871,10 +3871,10 @@
         <v>117</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C279" s="4">
-        <v>29645</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,10 +3882,10 @@
         <v>117</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C280" s="4">
-        <v>9891</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,10 +3893,10 @@
         <v>117</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C281" s="4">
-        <v>18495</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3904,10 +3904,10 @@
         <v>117</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C282" s="4">
-        <v>10269</v>
+        <v>24362</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3915,10 +3915,10 @@
         <v>117</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C283" s="4">
-        <v>4977</v>
+        <v>18495</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3926,10 +3926,10 @@
         <v>117</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C284" s="4">
-        <v>6492</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3937,10 +3937,10 @@
         <v>117</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C285" s="4">
-        <v>120456</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,10 +3948,10 @@
         <v>117</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C286" s="4">
-        <v>25453</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,10 +3959,10 @@
         <v>117</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C287" s="4">
-        <v>38925</v>
+        <v>169052</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,10 +3970,10 @@
         <v>117</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C288" s="4">
-        <v>73308</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,10 +3981,10 @@
         <v>117</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C289" s="4">
-        <v>19233</v>
+        <v>38925</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,10 +3992,10 @@
         <v>117</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C290" s="4">
-        <v>9289</v>
+        <v>73308</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,10 +4003,10 @@
         <v>117</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C291" s="4">
-        <v>37226</v>
+        <v>19233</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -4014,9 +4014,42 @@
         <v>117</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C292" s="4">
+        <v>18340</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C293" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C294" s="4">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C295" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -4017,7 +4017,7 @@
         <v>94</v>
       </c>
       <c r="C292" s="4">
-        <v>18340</v>
+        <v>22379</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="120">
   <si>
     <t>Период</t>
   </si>
@@ -744,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C295"/>
+      <selection activeCell="A239" sqref="A239:C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,10 +3486,10 @@
         <v>117</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C244" s="4">
-        <v>14941</v>
+        <v>12026</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3497,10 +3497,10 @@
         <v>117</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C245" s="4">
-        <v>11830</v>
+        <v>14941</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3508,10 +3508,10 @@
         <v>117</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C246" s="4">
-        <v>9385</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,10 +3519,10 @@
         <v>117</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C247" s="4">
-        <v>14861</v>
+        <v>9385</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,10 +3530,10 @@
         <v>117</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C248" s="4">
-        <v>52651</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3541,10 +3541,10 @@
         <v>117</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C249" s="4">
-        <v>5005</v>
+        <v>52651</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3552,10 +3552,10 @@
         <v>117</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C250" s="4">
-        <v>9751</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3563,10 +3563,10 @@
         <v>117</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C251" s="4">
-        <v>14357</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,10 +3574,10 @@
         <v>117</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C252" s="4">
-        <v>21543</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,10 +3585,10 @@
         <v>117</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C253" s="4">
-        <v>1059</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,10 +3596,10 @@
         <v>117</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C254" s="4">
-        <v>4284</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3607,10 +3607,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C255" s="4">
-        <v>2250</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,10 +3618,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C256" s="4">
-        <v>1818</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,10 +3629,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C257" s="4">
-        <v>2646</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,10 +3640,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C258" s="4">
-        <v>2430</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,10 +3651,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C259" s="4">
-        <v>8073</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,10 +3662,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C260" s="4">
-        <v>30861</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3673,10 +3673,10 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C261" s="4">
-        <v>16777</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,10 +3684,10 @@
         <v>117</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C262" s="4">
-        <v>3038</v>
+        <v>16777</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,10 +3695,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C263" s="4">
-        <v>2020</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,10 +3706,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C264" s="4">
-        <v>1700</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,10 +3717,10 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C265" s="4">
-        <v>4350</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,10 +3728,10 @@
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C266" s="4">
-        <v>10377</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,10 +3739,10 @@
         <v>117</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C267" s="4">
-        <v>23895</v>
+        <v>10377</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,10 +3750,10 @@
         <v>117</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C268" s="4">
-        <v>9405</v>
+        <v>23895</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,10 +3761,10 @@
         <v>117</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="C269" s="4">
-        <v>46008</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,10 +3772,10 @@
         <v>117</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C270" s="4">
-        <v>19999</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,10 +3783,10 @@
         <v>117</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C271" s="4">
-        <v>17032</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3794,10 +3794,10 @@
         <v>117</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C272" s="4">
-        <v>47006</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,10 +3805,10 @@
         <v>117</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C273" s="4">
-        <v>249042</v>
+        <v>56330</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,10 +3816,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C274" s="4">
-        <v>12195</v>
+        <v>264378</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,10 +3827,10 @@
         <v>117</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C275" s="4">
-        <v>73882</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,10 +3838,10 @@
         <v>117</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C276" s="4">
-        <v>156222</v>
+        <v>73882</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,10 +3849,10 @@
         <v>117</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C277" s="4">
-        <v>10089</v>
+        <v>213012</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,10 +3860,10 @@
         <v>117</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C278" s="4">
-        <v>73629</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3871,10 +3871,10 @@
         <v>117</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C279" s="4">
-        <v>10049</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,10 +3882,10 @@
         <v>117</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C280" s="4">
-        <v>29645</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,10 +3893,10 @@
         <v>117</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C281" s="4">
-        <v>9891</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3904,10 +3904,10 @@
         <v>117</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C282" s="4">
-        <v>24362</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3915,10 +3915,10 @@
         <v>117</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C283" s="4">
-        <v>18495</v>
+        <v>24362</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3926,10 +3926,10 @@
         <v>117</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C284" s="4">
-        <v>10269</v>
+        <v>18495</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3937,10 +3937,10 @@
         <v>117</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C285" s="4">
-        <v>4977</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,10 +3948,10 @@
         <v>117</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C286" s="4">
-        <v>6492</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,10 +3959,10 @@
         <v>117</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C287" s="4">
-        <v>169052</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,10 +3970,10 @@
         <v>117</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C288" s="4">
-        <v>25453</v>
+        <v>169052</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,10 +3981,10 @@
         <v>117</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C289" s="4">
-        <v>38925</v>
+        <v>9043</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,10 +3992,10 @@
         <v>117</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C290" s="4">
-        <v>73308</v>
+        <v>25453</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,10 +4003,10 @@
         <v>117</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C291" s="4">
-        <v>19233</v>
+        <v>38925</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -4014,10 +4014,10 @@
         <v>117</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C292" s="4">
-        <v>22379</v>
+        <v>73308</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -4025,10 +4025,10 @@
         <v>117</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C293" s="4">
-        <v>9289</v>
+        <v>38862</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,10 +4036,10 @@
         <v>117</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C294" s="4">
-        <v>37226</v>
+        <v>22379</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -4047,9 +4047,31 @@
         <v>117</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C295" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C296" s="4">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C297" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="120">
   <si>
     <t>Период</t>
   </si>
@@ -744,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C297"/>
+      <selection activeCell="A239" sqref="A239:C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,7 +3489,7 @@
         <v>57</v>
       </c>
       <c r="C244" s="4">
-        <v>12026</v>
+        <v>15379</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3533,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="C248" s="4">
-        <v>14861</v>
+        <v>44982</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>104</v>
       </c>
       <c r="C254" s="4">
-        <v>1059</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3607,10 +3607,10 @@
         <v>117</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C255" s="4">
-        <v>4284</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,10 +3618,10 @@
         <v>117</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C256" s="4">
-        <v>2250</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,10 +3629,10 @@
         <v>117</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C257" s="4">
-        <v>1818</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,10 +3640,10 @@
         <v>117</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C258" s="4">
-        <v>2646</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,10 +3651,10 @@
         <v>117</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C259" s="4">
-        <v>2430</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,10 +3662,10 @@
         <v>117</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C260" s="4">
-        <v>8073</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3673,10 +3673,10 @@
         <v>117</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C261" s="4">
-        <v>30861</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,10 +3684,10 @@
         <v>117</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C262" s="4">
-        <v>16777</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,10 +3695,10 @@
         <v>117</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="C263" s="4">
-        <v>3038</v>
+        <v>30861</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,10 +3706,10 @@
         <v>117</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C264" s="4">
-        <v>2020</v>
+        <v>16777</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,10 +3717,10 @@
         <v>117</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C265" s="4">
-        <v>1700</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,10 +3728,10 @@
         <v>117</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C266" s="4">
-        <v>4350</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,10 +3739,10 @@
         <v>117</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C267" s="4">
-        <v>10377</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,10 +3750,10 @@
         <v>117</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C268" s="4">
-        <v>23895</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,10 +3761,10 @@
         <v>117</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C269" s="4">
-        <v>9405</v>
+        <v>10377</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,10 +3772,10 @@
         <v>117</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="C270" s="4">
-        <v>46008</v>
+        <v>23895</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,10 +3783,10 @@
         <v>117</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C271" s="4">
-        <v>19999</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3794,10 +3794,10 @@
         <v>117</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C272" s="4">
-        <v>17032</v>
+        <v>46008</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,10 +3805,10 @@
         <v>117</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C273" s="4">
-        <v>56330</v>
+        <v>17901</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,10 +3816,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C274" s="4">
-        <v>264378</v>
+        <v>38526</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,10 +3827,10 @@
         <v>117</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C275" s="4">
-        <v>12195</v>
+        <v>17032</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,10 +3838,10 @@
         <v>117</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C276" s="4">
-        <v>73882</v>
+        <v>66684</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,10 +3849,10 @@
         <v>117</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C277" s="4">
-        <v>213012</v>
+        <v>351309</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,10 +3860,10 @@
         <v>117</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C278" s="4">
-        <v>10089</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3871,10 +3871,10 @@
         <v>117</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C279" s="4">
-        <v>73629</v>
+        <v>73882</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,10 +3882,10 @@
         <v>117</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="C280" s="4">
-        <v>10049</v>
+        <v>246501</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,10 +3893,10 @@
         <v>117</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C281" s="4">
-        <v>29645</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3904,10 +3904,10 @@
         <v>117</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C282" s="4">
-        <v>9891</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3915,10 +3915,10 @@
         <v>117</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C283" s="4">
-        <v>24362</v>
+        <v>73629</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3926,10 +3926,10 @@
         <v>117</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C284" s="4">
-        <v>18495</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3937,10 +3937,10 @@
         <v>117</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C285" s="4">
-        <v>10269</v>
+        <v>29645</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,10 +3948,10 @@
         <v>117</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C286" s="4">
-        <v>4977</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,10 +3959,10 @@
         <v>117</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C287" s="4">
-        <v>6492</v>
+        <v>24362</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,10 +3970,10 @@
         <v>117</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C288" s="4">
-        <v>169052</v>
+        <v>18495</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,10 +3981,10 @@
         <v>117</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C289" s="4">
-        <v>9043</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,10 +3992,10 @@
         <v>117</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C290" s="4">
-        <v>25453</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,10 +4003,10 @@
         <v>117</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C291" s="4">
-        <v>38925</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -4014,10 +4014,10 @@
         <v>117</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C292" s="4">
-        <v>73308</v>
+        <v>169052</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -4025,10 +4025,10 @@
         <v>117</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C293" s="4">
-        <v>38862</v>
+        <v>9043</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,10 +4036,10 @@
         <v>117</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C294" s="4">
-        <v>22379</v>
+        <v>40690</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -4047,10 +4047,10 @@
         <v>117</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C295" s="4">
-        <v>9289</v>
+        <v>38925</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,10 +4058,10 @@
         <v>117</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C296" s="4">
-        <v>37226</v>
+        <v>73308</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -4069,9 +4069,53 @@
         <v>117</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C297" s="4">
+        <v>49880</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C298" s="4">
+        <v>22379</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C299" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C300" s="4">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C301" s="4">
         <v>11104</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="121">
   <si>
     <t>Период</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
   </si>
 </sst>
 </file>
@@ -744,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:C301"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302:C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,7 +3723,7 @@
         <v>118</v>
       </c>
       <c r="C265" s="4">
-        <v>3038</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -4117,6 +4120,28 @@
       </c>
       <c r="C301" s="4">
         <v>11104</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C302" s="4">
+        <v>30637</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C303" s="4">
+        <v>13993</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="121">
   <si>
     <t>Период</t>
   </si>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C303"/>
+      <selection activeCell="A302" sqref="A302:C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,10 +4127,10 @@
         <v>120</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C302" s="4">
-        <v>30637</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4138,9 +4138,97 @@
         <v>120</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="4">
+        <v>20027</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C304" s="4">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C305" s="4">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C306" s="4">
+        <v>71514</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C307" s="4">
+        <v>30637</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C308" s="4">
+        <v>34794</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C309" s="4">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C310" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C311" s="4">
         <v>13993</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="121">
   <si>
     <t>Период</t>
   </si>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C311"/>
+      <selection activeCell="A302" sqref="A302:C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,10 +4149,10 @@
         <v>120</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C304" s="4">
-        <v>5485</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,10 +4160,10 @@
         <v>120</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C305" s="4">
-        <v>2516</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4171,10 +4171,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C306" s="4">
-        <v>71514</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,10 +4182,10 @@
         <v>120</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C307" s="4">
-        <v>30637</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,10 +4193,10 @@
         <v>120</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C308" s="4">
-        <v>34794</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,10 +4204,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C309" s="4">
-        <v>8460</v>
+        <v>120672</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,10 +4215,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C310" s="4">
-        <v>15903</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,9 +4226,53 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C311" s="4">
+        <v>73737</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C312" s="4">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C313" s="4">
+        <v>11619</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C314" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C315" s="4">
         <v>13993</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="121">
   <si>
     <t>Период</t>
   </si>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C315"/>
+      <selection activeCell="A302" sqref="A302:C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,10 +4149,10 @@
         <v>120</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C304" s="4">
-        <v>15344</v>
+        <v>23184</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,10 +4160,10 @@
         <v>120</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C305" s="4">
-        <v>14357</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4171,10 +4171,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C306" s="4">
-        <v>5485</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,10 +4182,10 @@
         <v>120</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C307" s="4">
-        <v>2516</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,10 +4193,10 @@
         <v>120</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C308" s="4">
-        <v>3924</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,10 +4204,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C309" s="4">
-        <v>120672</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,10 +4215,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C310" s="4">
-        <v>30637</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C311" s="4">
-        <v>73737</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4237,10 +4237,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C312" s="4">
-        <v>10017</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,10 +4248,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C313" s="4">
-        <v>11619</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,10 +4259,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C314" s="4">
-        <v>15903</v>
+        <v>11682</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,9 +4270,130 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C315" s="4">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C316" s="4">
+        <v>26073</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C317" s="4">
+        <v>10482</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C318" s="4">
+        <v>229941</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C319" s="4">
+        <v>30637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C320" s="4">
+        <v>73737</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C321" s="4">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C322" s="4">
+        <v>11619</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C323" s="4">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C324" s="4">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C325" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C326" s="4">
         <v>13993</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="121">
   <si>
     <t>Период</t>
   </si>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C326"/>
+      <selection activeCell="A302" sqref="A302:C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4152,7 +4152,7 @@
         <v>12</v>
       </c>
       <c r="C304" s="4">
-        <v>23184</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,10 +4215,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C310" s="4">
-        <v>12769</v>
+        <v>10472</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C311" s="4">
-        <v>2113</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4237,10 +4237,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C312" s="4">
-        <v>5485</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,10 +4248,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C313" s="4">
-        <v>2516</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,10 +4259,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C314" s="4">
-        <v>11682</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,10 +4270,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C315" s="4">
-        <v>7110</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,10 +4281,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C316" s="4">
-        <v>26073</v>
+        <v>14454</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,10 +4292,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C317" s="4">
-        <v>10482</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,10 +4303,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C318" s="4">
-        <v>229941</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4314,10 +4314,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C319" s="4">
-        <v>30637</v>
+        <v>287127</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,10 +4325,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C320" s="4">
-        <v>73737</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,10 +4336,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C321" s="4">
-        <v>10017</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,10 +4347,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C322" s="4">
-        <v>11619</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4358,10 +4358,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C323" s="4">
-        <v>6667</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,10 +4369,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C324" s="4">
-        <v>10501</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,10 +4380,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C325" s="4">
-        <v>15903</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,10 +4391,43 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C326" s="4">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C327" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C328" s="4">
         <v>13993</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C329" s="4">
+        <v>9723</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="121">
   <si>
     <t>Период</t>
   </si>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C329"/>
+      <selection activeCell="A302" sqref="A302:C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4218,7 +4218,7 @@
         <v>68</v>
       </c>
       <c r="C310" s="4">
-        <v>10472</v>
+        <v>48552</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,10 +4270,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C315" s="4">
-        <v>32491</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,10 +4281,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C316" s="4">
-        <v>14454</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,10 +4292,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C317" s="4">
-        <v>26073</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,10 +4303,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C318" s="4">
-        <v>10482</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4314,10 +4314,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C319" s="4">
-        <v>287127</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,10 +4325,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C320" s="4">
-        <v>28638</v>
+        <v>344385</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,10 +4336,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C321" s="4">
-        <v>30637</v>
+        <v>85842</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,10 +4347,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C322" s="4">
-        <v>73737</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4358,10 +4358,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C323" s="4">
-        <v>10017</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,10 +4369,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C324" s="4">
-        <v>11619</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,10 +4380,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C325" s="4">
-        <v>6667</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,10 +4391,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C326" s="4">
-        <v>10501</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4402,10 +4402,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C327" s="4">
-        <v>15903</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,10 +4413,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C328" s="4">
-        <v>13993</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4424,9 +4424,20 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C329" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C330" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="122">
   <si>
     <t>Период</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
   </si>
 </sst>
 </file>
@@ -747,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D330"/>
+  <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C330"/>
+      <selection activeCell="A302" sqref="A302:C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,10 +4152,10 @@
         <v>120</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C304" s="4">
-        <v>27808</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,10 +4163,10 @@
         <v>120</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C305" s="4">
-        <v>15344</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4171,10 +4174,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C306" s="4">
-        <v>14357</v>
+        <v>11298</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,10 +4185,10 @@
         <v>120</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C307" s="4">
-        <v>21441</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,10 +4196,10 @@
         <v>120</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C308" s="4">
-        <v>12201</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,10 +4207,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C309" s="4">
-        <v>8275</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,10 +4218,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C310" s="4">
-        <v>48552</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,10 +4229,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C311" s="4">
-        <v>12769</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4237,10 +4240,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C312" s="4">
-        <v>2113</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,10 +4251,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C313" s="4">
-        <v>5485</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,10 +4262,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C314" s="4">
-        <v>2516</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,10 +4273,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C315" s="4">
-        <v>2552</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,10 +4284,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C316" s="4">
-        <v>32491</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,10 +4295,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C317" s="4">
-        <v>16111</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,10 +4306,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C318" s="4">
-        <v>26073</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4314,10 +4317,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C319" s="4">
-        <v>10482</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,10 +4328,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C320" s="4">
-        <v>344385</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,10 +4339,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C321" s="4">
-        <v>85842</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,10 +4350,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C322" s="4">
-        <v>30637</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4358,10 +4361,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C323" s="4">
-        <v>73737</v>
+        <v>400248</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,10 +4372,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C324" s="4">
-        <v>10017</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,10 +4383,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C325" s="4">
-        <v>11619</v>
+        <v>114480</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,10 +4394,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C326" s="4">
-        <v>6667</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4402,10 +4405,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C327" s="4">
-        <v>10501</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,10 +4416,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C328" s="4">
-        <v>15903</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4424,10 +4427,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C329" s="4">
-        <v>13993</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,9 +4438,53 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C330" s="4">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C331" s="4">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C332" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C333" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C334" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -4177,7 +4177,7 @@
         <v>121</v>
       </c>
       <c r="C306" s="4">
-        <v>11298</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,7 +4386,7 @@
         <v>35</v>
       </c>
       <c r="C325" s="4">
-        <v>114480</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="122">
   <si>
     <t>Период</t>
   </si>
@@ -750,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D334"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C334"/>
+      <selection activeCell="A302" sqref="A302:C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4207,10 +4207,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C309" s="4">
-        <v>21441</v>
+        <v>24934</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4218,10 +4218,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C310" s="4">
-        <v>12201</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4229,10 +4229,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C311" s="4">
-        <v>8275</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4240,10 +4240,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C312" s="4">
-        <v>50589</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,10 +4251,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C313" s="4">
-        <v>12769</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,10 +4262,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C314" s="4">
-        <v>2113</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,10 +4273,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C315" s="4">
-        <v>5485</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,10 +4284,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C316" s="4">
-        <v>2516</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,10 +4295,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C317" s="4">
-        <v>2552</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,10 +4306,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C318" s="4">
-        <v>32491</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4317,10 +4317,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C319" s="4">
-        <v>16111</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4328,10 +4328,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C320" s="4">
-        <v>5040</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4339,10 +4339,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C321" s="4">
-        <v>26073</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,10 +4350,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C322" s="4">
-        <v>10482</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4361,10 +4361,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C323" s="4">
-        <v>400248</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4372,10 +4372,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C324" s="4">
-        <v>11700</v>
+        <v>457362</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4383,10 +4383,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C325" s="4">
-        <v>126621</v>
+        <v>49527</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4394,10 +4394,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C326" s="4">
-        <v>30637</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4405,10 +4405,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C327" s="4">
-        <v>73737</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4416,10 +4416,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C328" s="4">
-        <v>10017</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4427,10 +4427,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C329" s="4">
-        <v>11619</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,10 +4438,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C330" s="4">
-        <v>6667</v>
+        <v>10138</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,10 +4449,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C331" s="4">
-        <v>10501</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,10 +4460,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C332" s="4">
-        <v>15903</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4471,10 +4471,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C333" s="4">
-        <v>13993</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4482,9 +4482,31 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C334" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C335" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C336" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="122">
   <si>
     <t>Период</t>
   </si>
@@ -750,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C336"/>
+      <selection activeCell="A302" sqref="A302:C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,7 +4210,7 @@
         <v>15</v>
       </c>
       <c r="C309" s="4">
-        <v>24934</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4229,10 +4229,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C311" s="4">
-        <v>12201</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4240,10 +4240,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C312" s="4">
-        <v>8275</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,10 +4251,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C313" s="4">
-        <v>50589</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,10 +4262,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C314" s="4">
-        <v>12769</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,10 +4273,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C315" s="4">
-        <v>2113</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,10 +4284,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C316" s="4">
-        <v>5485</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,10 +4295,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C317" s="4">
-        <v>2516</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,10 +4306,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C318" s="4">
-        <v>2552</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4317,10 +4317,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C319" s="4">
-        <v>32491</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4328,10 +4328,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C320" s="4">
-        <v>16111</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4339,10 +4339,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C321" s="4">
-        <v>10701</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,10 +4350,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C322" s="4">
-        <v>26073</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4361,10 +4361,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C323" s="4">
-        <v>10482</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4372,10 +4372,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C324" s="4">
-        <v>457362</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4383,10 +4383,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C325" s="4">
-        <v>49527</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4394,10 +4394,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C326" s="4">
-        <v>126621</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4405,10 +4405,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C327" s="4">
-        <v>30637</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4416,10 +4416,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C328" s="4">
-        <v>73737</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4427,10 +4427,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C329" s="4">
-        <v>10017</v>
+        <v>13734</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,10 +4438,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C330" s="4">
-        <v>10138</v>
+        <v>542151</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,10 +4449,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C331" s="4">
-        <v>11619</v>
+        <v>49527</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,10 +4460,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C332" s="4">
-        <v>6667</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4471,10 +4471,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C333" s="4">
-        <v>10501</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4482,10 +4482,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C334" s="4">
-        <v>15903</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,10 +4493,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C335" s="4">
-        <v>13993</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,9 +4504,119 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C336" s="4">
+        <v>73737</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C337" s="4">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C338" s="4">
+        <v>10138</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C339" s="4">
+        <v>22572</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C340" s="4">
+        <v>11619</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C341" s="4">
+        <v>6667</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C342" s="4">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C343" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C344" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C345" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C346" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:D349"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C346"/>
+      <selection activeCell="A302" sqref="A302:C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="C303" s="4">
-        <v>20027</v>
+        <v>36463</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4229,10 +4232,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C311" s="4">
-        <v>9933</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4240,10 +4243,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C312" s="4">
-        <v>22617</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C313" s="4">
-        <v>12201</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4262,10 +4265,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C314" s="4">
-        <v>8275</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,10 +4276,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C315" s="4">
-        <v>50589</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,10 +4287,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C316" s="4">
-        <v>12769</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,10 +4298,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C317" s="4">
-        <v>2113</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C318" s="4">
-        <v>5485</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4317,10 +4320,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C319" s="4">
-        <v>2516</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4328,10 +4331,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C320" s="4">
-        <v>2552</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4339,10 +4342,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C321" s="4">
-        <v>32491</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,10 +4353,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C322" s="4">
-        <v>16111</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4361,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C323" s="4">
-        <v>2390</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4372,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C324" s="4">
-        <v>10701</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4383,10 +4386,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C325" s="4">
-        <v>26073</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4394,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C326" s="4">
-        <v>10482</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4405,10 +4408,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C327" s="4">
-        <v>4869</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4416,10 +4419,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C328" s="4">
-        <v>13509</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4427,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C329" s="4">
-        <v>13734</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,10 +4441,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C330" s="4">
-        <v>542151</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C331" s="4">
-        <v>49527</v>
+        <v>21762</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4460,10 +4463,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C332" s="4">
-        <v>126621</v>
+        <v>569925</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4471,10 +4474,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C333" s="4">
-        <v>10071</v>
+        <v>51435</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4482,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C334" s="4">
-        <v>30637</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,10 +4496,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C335" s="4">
-        <v>39731</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,10 +4507,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C336" s="4">
-        <v>73737</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C337" s="4">
-        <v>10017</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4526,10 +4529,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C338" s="4">
-        <v>10138</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C339" s="4">
-        <v>22572</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4548,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C340" s="4">
-        <v>11619</v>
+        <v>10138</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4559,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C341" s="4">
-        <v>6667</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4570,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C342" s="4">
-        <v>10501</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4581,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C343" s="4">
-        <v>15903</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4592,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C344" s="4">
-        <v>14212</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4603,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C345" s="4">
-        <v>13993</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4614,9 +4617,42 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C346" s="4">
+        <v>30411</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C347" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C348" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C349" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -460,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,6 +470,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D349"/>
+  <dimension ref="A1:D354"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C349"/>
+      <selection activeCell="A302" sqref="A302:C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,10 +4136,10 @@
         <v>120</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C302" s="4">
-        <v>21045</v>
+        <v>15428</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4144,10 +4147,10 @@
         <v>120</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C303" s="4">
-        <v>36463</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4155,10 +4158,10 @@
         <v>120</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C304" s="4">
-        <v>19901</v>
+        <v>55328</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,10 +4169,10 @@
         <v>120</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C305" s="4">
-        <v>27808</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4177,10 +4180,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C306" s="4">
-        <v>20816</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,10 +4191,10 @@
         <v>120</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C307" s="4">
-        <v>15344</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,10 +4202,10 @@
         <v>120</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C308" s="4">
-        <v>14357</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4210,10 +4213,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C309" s="4">
-        <v>31686</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,10 +4224,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C310" s="4">
-        <v>21441</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,10 +4235,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C311" s="4">
-        <v>9499</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,10 +4246,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C312" s="4">
-        <v>9933</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,10 +4257,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C313" s="4">
-        <v>22617</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,10 +4268,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C314" s="4">
-        <v>12201</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,10 +4279,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C315" s="4">
-        <v>8275</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4290,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C316" s="4">
-        <v>50589</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4301,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C317" s="4">
-        <v>12769</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4312,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C318" s="4">
-        <v>2113</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4323,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C319" s="4">
-        <v>5485</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4334,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C320" s="4">
-        <v>2516</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4345,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C321" s="4">
-        <v>2552</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4356,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C322" s="4">
-        <v>32491</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4367,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C323" s="4">
-        <v>16111</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4378,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C324" s="4">
-        <v>2390</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4389,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C325" s="4">
-        <v>3550</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4400,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C326" s="4">
-        <v>10701</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4411,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C327" s="4">
-        <v>26073</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4422,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C328" s="4">
-        <v>10482</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4433,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C329" s="4">
-        <v>4869</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4444,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C330" s="4">
-        <v>13509</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4455,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C331" s="4">
-        <v>21762</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4466,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C332" s="4">
-        <v>569925</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4477,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C333" s="4">
-        <v>51435</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4488,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C334" s="4">
-        <v>126621</v>
+        <v>22329</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4499,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C335" s="4">
-        <v>10071</v>
+        <v>598437</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4510,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C336" s="4">
-        <v>30637</v>
+        <v>99180</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4521,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C337" s="4">
-        <v>39731</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4532,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C338" s="4">
-        <v>73737</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4543,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C339" s="4">
-        <v>10017</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4554,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C340" s="4">
-        <v>10138</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4565,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C341" s="4">
-        <v>32562</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4576,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C342" s="4">
-        <v>11619</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4587,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C343" s="4">
-        <v>6667</v>
+        <v>10138</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4598,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C344" s="4">
-        <v>10501</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4609,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C345" s="4">
-        <v>15903</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4620,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C346" s="4">
-        <v>30411</v>
+        <v>91</v>
+      </c>
+      <c r="C346" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4631,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C347" s="4">
-        <v>14212</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4642,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C348" s="4">
-        <v>13993</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,9 +4653,64 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C349" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C350" s="4">
+        <v>30411</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C351" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C352" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C353" s="4">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C354" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -460,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,9 +470,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -756,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D354"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C354"/>
+      <selection activeCell="A302" sqref="A302:C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4136,10 +4133,10 @@
         <v>120</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C302" s="4">
-        <v>15428</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -4147,10 +4144,10 @@
         <v>120</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C303" s="4">
-        <v>21045</v>
+        <v>15428</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4158,10 +4155,10 @@
         <v>120</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C304" s="4">
-        <v>55328</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4169,10 +4166,10 @@
         <v>120</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C305" s="4">
-        <v>19901</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4180,10 +4177,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C306" s="4">
-        <v>27808</v>
+        <v>55328</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4191,10 +4188,10 @@
         <v>120</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C307" s="4">
-        <v>20816</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -4202,10 +4199,10 @@
         <v>120</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C308" s="4">
-        <v>15344</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4213,10 +4210,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C309" s="4">
-        <v>14357</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4224,10 +4221,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C310" s="4">
-        <v>31686</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4235,10 +4232,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C311" s="4">
-        <v>21441</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4246,10 +4243,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="C312" s="4">
-        <v>9499</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4257,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C313" s="4">
-        <v>9933</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4268,10 +4265,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C314" s="4">
-        <v>22617</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4279,10 +4276,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C315" s="4">
-        <v>12201</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4290,10 +4287,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C316" s="4">
-        <v>8275</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4301,10 +4298,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C317" s="4">
-        <v>50589</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4312,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C318" s="4">
-        <v>12769</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4323,10 +4320,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C319" s="4">
-        <v>2113</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4334,10 +4331,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C320" s="4">
-        <v>5485</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4345,10 +4342,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C321" s="4">
-        <v>2516</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4356,10 +4353,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C322" s="4">
-        <v>2552</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4367,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C323" s="4">
-        <v>32491</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4378,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C324" s="4">
-        <v>16111</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,10 +4386,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C325" s="4">
-        <v>2390</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4400,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C326" s="4">
-        <v>4770</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4411,10 +4408,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C327" s="4">
-        <v>10701</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4422,10 +4419,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C328" s="4">
-        <v>1188</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4433,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C329" s="4">
-        <v>26073</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4444,10 +4441,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C330" s="4">
-        <v>10482</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4455,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C331" s="4">
-        <v>6066</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4466,10 +4463,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C332" s="4">
-        <v>4869</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4477,10 +4474,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C333" s="4">
-        <v>13509</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4488,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C334" s="4">
-        <v>22329</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4499,10 +4496,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C335" s="4">
-        <v>598437</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4510,10 +4507,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C336" s="4">
-        <v>99180</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4521,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C337" s="4">
-        <v>126621</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4532,10 +4529,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C338" s="4">
-        <v>10071</v>
+        <v>22329</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4543,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C339" s="4">
-        <v>30637</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4554,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C340" s="4">
-        <v>39731</v>
+        <v>627057</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4565,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C341" s="4">
-        <v>73737</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4576,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C342" s="4">
-        <v>10017</v>
+        <v>99180</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4587,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C343" s="4">
-        <v>10138</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4598,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C344" s="4">
-        <v>32562</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4609,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C345" s="4">
-        <v>11619</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4620,10 +4617,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C346" s="5">
-        <v>500</v>
+        <v>39</v>
+      </c>
+      <c r="C346" s="4">
+        <v>39731</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4631,10 +4628,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C347" s="4">
-        <v>6667</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4642,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C348" s="4">
-        <v>10501</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4653,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C349" s="4">
-        <v>15903</v>
+        <v>10138</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4664,10 +4661,10 @@
         <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C350" s="4">
-        <v>30411</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4675,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C351" s="4">
-        <v>14212</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,10 +4683,10 @@
         <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C352" s="4">
-        <v>13993</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4697,10 +4694,10 @@
         <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C353" s="4">
-        <v>5404</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4708,9 +4705,75 @@
         <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C354" s="4">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C355" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C356" s="4">
+        <v>30411</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C357" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C358" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C359" s="4">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C360" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D360"/>
+  <dimension ref="A1:D363"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C360"/>
+      <selection activeCell="A302" sqref="A302:C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="C308" s="4">
-        <v>27808</v>
+        <v>53001</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,10 +4243,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C312" s="4">
-        <v>31686</v>
+        <v>11620</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C313" s="4">
-        <v>21441</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C314" s="4">
-        <v>9499</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,10 +4276,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C315" s="4">
-        <v>9933</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4287,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C316" s="4">
-        <v>22617</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4298,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C317" s="4">
-        <v>12201</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C318" s="4">
-        <v>8275</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C319" s="4">
-        <v>50589</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4331,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C320" s="4">
-        <v>12769</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4342,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C321" s="4">
-        <v>2113</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C322" s="4">
-        <v>5485</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C323" s="4">
-        <v>1260</v>
+        <v>10039</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C324" s="4">
-        <v>2516</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4386,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="C325" s="4">
-        <v>2358</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C326" s="4">
-        <v>2552</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C327" s="4">
-        <v>32491</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4419,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C328" s="4">
-        <v>16111</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C329" s="4">
-        <v>2390</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C330" s="4">
-        <v>4770</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C331" s="4">
-        <v>10701</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4463,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C332" s="4">
-        <v>24435</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4474,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C333" s="4">
-        <v>26073</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C334" s="4">
-        <v>10482</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4496,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C335" s="4">
-        <v>6327</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C336" s="4">
-        <v>4869</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C337" s="4">
-        <v>13509</v>
+        <v>17703</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4529,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C338" s="4">
-        <v>22329</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C339" s="4">
-        <v>14733</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C340" s="4">
-        <v>627057</v>
+        <v>22329</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C341" s="4">
-        <v>3726</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C342" s="4">
-        <v>99180</v>
+        <v>655659</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C343" s="4">
-        <v>126621</v>
+        <v>24543</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C344" s="4">
-        <v>10071</v>
+        <v>99180</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C345" s="4">
-        <v>30637</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C346" s="4">
-        <v>39731</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4628,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C347" s="4">
-        <v>73737</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C348" s="4">
-        <v>10017</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C349" s="4">
-        <v>10138</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C350" s="4">
-        <v>32562</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C351" s="4">
-        <v>11619</v>
+        <v>10138</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4683,10 @@
         <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C352" s="4">
-        <v>3420</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C353" s="4">
-        <v>6667</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C354" s="4">
-        <v>10501</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>120</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C355" s="4">
-        <v>15903</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>120</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C356" s="4">
-        <v>30411</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4738,10 @@
         <v>120</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C357" s="4">
-        <v>14212</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>120</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C358" s="4">
-        <v>13993</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>120</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C359" s="4">
-        <v>19140</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,9 +4771,42 @@
         <v>120</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C360" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C361" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C362" s="4">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C363" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D363"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C363"/>
+      <selection activeCell="A302" sqref="A302:C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4243,10 +4243,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C312" s="4">
-        <v>11620</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C313" s="4">
-        <v>31686</v>
+        <v>33047</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C314" s="4">
-        <v>21441</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,10 +4276,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C315" s="4">
-        <v>9499</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4287,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C316" s="4">
-        <v>9933</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4298,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="C317" s="4">
-        <v>22617</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C318" s="4">
-        <v>12201</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C319" s="4">
-        <v>8275</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4331,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C320" s="4">
-        <v>50589</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4342,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C321" s="4">
-        <v>12769</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C322" s="4">
-        <v>2113</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C323" s="4">
-        <v>10039</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C324" s="4">
-        <v>2386</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4386,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C325" s="4">
-        <v>2516</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C326" s="4">
-        <v>2358</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C327" s="4">
-        <v>2552</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4419,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C328" s="4">
-        <v>32491</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C329" s="4">
-        <v>16111</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C330" s="4">
-        <v>4640</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C331" s="4">
-        <v>4770</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4463,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C332" s="4">
-        <v>10701</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4474,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C333" s="4">
-        <v>24435</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C334" s="4">
-        <v>26073</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4496,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C335" s="4">
-        <v>10482</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C336" s="4">
-        <v>6327</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C337" s="4">
-        <v>17703</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4529,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C338" s="4">
-        <v>4869</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C339" s="4">
-        <v>13509</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C340" s="4">
-        <v>22329</v>
+        <v>17703</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C341" s="4">
-        <v>14733</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C342" s="4">
-        <v>655659</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C343" s="4">
-        <v>24543</v>
+        <v>38403</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C344" s="4">
-        <v>99180</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C345" s="4">
-        <v>126621</v>
+        <v>684279</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C346" s="4">
-        <v>10071</v>
+        <v>24543</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4628,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C347" s="4">
-        <v>30637</v>
+        <v>99180</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C348" s="4">
-        <v>39731</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C349" s="4">
-        <v>73737</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C350" s="4">
-        <v>10017</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C351" s="4">
-        <v>10138</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4683,10 @@
         <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C352" s="4">
-        <v>32562</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C353" s="4">
-        <v>11619</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C354" s="4">
-        <v>4835</v>
+        <v>20486</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>120</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C355" s="4">
-        <v>6667</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>120</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C356" s="4">
-        <v>10501</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4738,10 @@
         <v>120</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C357" s="4">
-        <v>15903</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>120</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C358" s="4">
-        <v>7920</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>120</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C359" s="4">
-        <v>30411</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,10 +4771,10 @@
         <v>120</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C360" s="4">
-        <v>14212</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,10 +4782,10 @@
         <v>120</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C361" s="4">
-        <v>13993</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,10 +4793,10 @@
         <v>120</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C362" s="4">
-        <v>19140</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,9 +4804,42 @@
         <v>120</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C363" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C364" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C365" s="4">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C366" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C366"/>
+      <selection activeCell="A302" sqref="A302:C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,10 +4144,10 @@
         <v>120</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C303" s="4">
-        <v>15428</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -4155,10 +4155,10 @@
         <v>120</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C304" s="4">
-        <v>21045</v>
+        <v>15428</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,10 +4166,10 @@
         <v>120</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C305" s="4">
-        <v>10241</v>
+        <v>21045</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -4177,10 +4177,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C306" s="4">
-        <v>55328</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,10 +4188,10 @@
         <v>120</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C307" s="4">
-        <v>19901</v>
+        <v>55328</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,10 +4199,10 @@
         <v>120</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C308" s="4">
-        <v>53001</v>
+        <v>25235</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -4210,10 +4210,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C309" s="4">
-        <v>20816</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,10 +4221,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C310" s="4">
-        <v>15344</v>
+        <v>53001</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,10 +4232,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C311" s="4">
-        <v>14357</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,10 +4243,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C312" s="4">
-        <v>9261</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C313" s="4">
-        <v>33047</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C314" s="4">
-        <v>31686</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,10 +4276,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C315" s="4">
-        <v>1932</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4287,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C316" s="4">
-        <v>21441</v>
+        <v>33047</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4298,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="C317" s="4">
-        <v>9499</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C318" s="4">
-        <v>9933</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C319" s="4">
-        <v>22617</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4331,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C320" s="4">
-        <v>12201</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4342,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C321" s="4">
-        <v>8275</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C322" s="4">
-        <v>50589</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C323" s="4">
-        <v>12769</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C324" s="4">
-        <v>2113</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4386,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C325" s="4">
-        <v>10327</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C326" s="4">
-        <v>2386</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C327" s="4">
-        <v>3870</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4419,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C328" s="4">
-        <v>2516</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C329" s="4">
-        <v>2358</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C330" s="4">
-        <v>2552</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="C331" s="4">
-        <v>32491</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4463,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C332" s="4">
-        <v>16111</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4474,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C333" s="4">
-        <v>4878</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C334" s="4">
-        <v>4770</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4496,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C335" s="4">
-        <v>10701</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C336" s="4">
-        <v>24435</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C337" s="4">
-        <v>26073</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4529,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C338" s="4">
-        <v>10482</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C339" s="4">
-        <v>6327</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C340" s="4">
-        <v>17703</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C341" s="4">
-        <v>4869</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C342" s="4">
-        <v>13509</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C343" s="4">
-        <v>38403</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C344" s="4">
-        <v>14733</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C345" s="4">
-        <v>684279</v>
+        <v>17703</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C346" s="4">
-        <v>24543</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4628,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C347" s="4">
-        <v>99180</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C348" s="4">
-        <v>126621</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C349" s="4">
-        <v>10071</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C350" s="4">
-        <v>30637</v>
+        <v>46152</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="C351" s="4">
-        <v>39731</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4683,10 @@
         <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C352" s="4">
-        <v>73737</v>
+        <v>720270</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C353" s="4">
-        <v>10017</v>
+        <v>24543</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="C354" s="4">
-        <v>20486</v>
+        <v>110880</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>120</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C355" s="4">
-        <v>32562</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>120</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C356" s="4">
-        <v>11619</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4738,10 @@
         <v>120</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C357" s="4">
-        <v>4835</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>120</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="C358" s="4">
-        <v>6667</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>120</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C359" s="4">
-        <v>10501</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,10 +4771,10 @@
         <v>120</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C360" s="4">
-        <v>15903</v>
+        <v>19881</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,10 +4782,10 @@
         <v>120</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C361" s="4">
-        <v>10297</v>
+        <v>20486</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,10 +4793,10 @@
         <v>120</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C362" s="4">
-        <v>30411</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>120</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C363" s="4">
-        <v>14212</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,10 +4815,10 @@
         <v>120</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C364" s="4">
-        <v>13993</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,10 +4826,10 @@
         <v>120</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C365" s="4">
-        <v>19140</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,9 +4837,108 @@
         <v>120</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C366" s="4">
+        <v>10501</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C367" s="4">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C368" s="4">
+        <v>14967</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C369" s="4">
+        <v>10297</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C370" s="4">
+        <v>30411</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C371" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C372" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C373" s="4">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C374" s="4">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C375" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C375"/>
+      <selection activeCell="A302" sqref="A302:C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,10 +4210,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C309" s="4">
-        <v>19901</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,10 +4221,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C310" s="4">
-        <v>53001</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,10 +4232,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C311" s="4">
-        <v>20816</v>
+        <v>53001</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,10 +4243,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="C312" s="4">
-        <v>15344</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C313" s="4">
-        <v>10297</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C314" s="4">
-        <v>14357</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,10 +4276,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C315" s="4">
-        <v>9261</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4287,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C316" s="4">
-        <v>33047</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4298,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C317" s="4">
-        <v>31686</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C318" s="4">
-        <v>4340</v>
+        <v>33047</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C319" s="4">
-        <v>21441</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4331,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C320" s="4">
-        <v>9499</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4342,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C321" s="4">
-        <v>10185</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C322" s="4">
-        <v>9933</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C323" s="4">
-        <v>22617</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C324" s="4">
-        <v>12201</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4386,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C325" s="4">
-        <v>8275</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C326" s="4">
-        <v>50589</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C327" s="4">
-        <v>12769</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4419,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C328" s="4">
-        <v>2113</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C329" s="4">
-        <v>12739</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C330" s="4">
-        <v>2386</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C331" s="4">
-        <v>5922</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4463,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C332" s="4">
-        <v>2516</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4474,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C333" s="4">
-        <v>2358</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C334" s="4">
-        <v>2552</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4496,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C335" s="4">
-        <v>32491</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C336" s="4">
-        <v>16111</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C337" s="4">
-        <v>4878</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4529,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C338" s="4">
-        <v>6830</v>
+        <v>32491</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C339" s="4">
-        <v>10701</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C340" s="4">
-        <v>24435</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C341" s="4">
-        <v>26073</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C342" s="4">
-        <v>10482</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C343" s="4">
-        <v>9250</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C344" s="4">
-        <v>6327</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C345" s="4">
-        <v>17703</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C346" s="4">
-        <v>4770</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4628,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C347" s="4">
-        <v>4851</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C348" s="4">
-        <v>4869</v>
+        <v>17703</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C349" s="4">
-        <v>13509</v>
+        <v>14166</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="C350" s="4">
-        <v>46152</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C351" s="4">
-        <v>14733</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4683,10 @@
         <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C352" s="4">
-        <v>720270</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C353" s="4">
-        <v>24543</v>
+        <v>46152</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C354" s="4">
-        <v>110880</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>120</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C355" s="4">
-        <v>126621</v>
+        <v>720270</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>120</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C356" s="4">
-        <v>10071</v>
+        <v>24543</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4738,10 @@
         <v>120</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C357" s="4">
-        <v>30637</v>
+        <v>139554</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>120</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C358" s="4">
-        <v>39731</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>120</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C359" s="4">
-        <v>73737</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,10 +4771,10 @@
         <v>120</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C360" s="4">
-        <v>19881</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,10 +4782,10 @@
         <v>120</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C361" s="4">
-        <v>20486</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,10 +4793,10 @@
         <v>120</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C362" s="4">
-        <v>32562</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>120</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C363" s="4">
-        <v>11619</v>
+        <v>30114</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,10 +4815,10 @@
         <v>120</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C364" s="4">
-        <v>9968</v>
+        <v>9306</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,10 +4826,10 @@
         <v>120</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C365" s="4">
-        <v>6667</v>
+        <v>20486</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,10 +4837,10 @@
         <v>120</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C366" s="4">
-        <v>10501</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,10 +4848,10 @@
         <v>120</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C367" s="4">
-        <v>15903</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,10 +4859,10 @@
         <v>120</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C368" s="4">
-        <v>14967</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,10 +4870,10 @@
         <v>120</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C369" s="4">
-        <v>10297</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,10 +4881,10 @@
         <v>120</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C370" s="4">
-        <v>30411</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,10 +4892,10 @@
         <v>120</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C371" s="4">
-        <v>14212</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,10 +4903,10 @@
         <v>120</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C372" s="4">
-        <v>13993</v>
+        <v>14967</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,10 +4914,10 @@
         <v>120</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C373" s="4">
-        <v>19140</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,10 +4925,10 @@
         <v>120</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C374" s="4">
-        <v>4128</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4936,9 +4936,53 @@
         <v>120</v>
       </c>
       <c r="B375" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C375" s="4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C376" s="4">
+        <v>13993</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C377" s="4">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C378" s="4">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C379" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:D380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C379"/>
+      <selection activeCell="A302" sqref="A302:C380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,7 +4279,7 @@
         <v>98</v>
       </c>
       <c r="C315" s="4">
-        <v>9156</v>
+        <v>10675</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
         <v>16</v>
       </c>
       <c r="C324" s="4">
-        <v>9933</v>
+        <v>29848</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4466,7 +4466,7 @@
         <v>20</v>
       </c>
       <c r="C332" s="4">
-        <v>12739</v>
+        <v>15240</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4521,7 +4521,7 @@
         <v>72</v>
       </c>
       <c r="C337" s="4">
-        <v>2552</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C340" s="4">
-        <v>4878</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C341" s="4">
-        <v>7640</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C342" s="4">
-        <v>10701</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C343" s="4">
-        <v>24435</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C344" s="4">
-        <v>26073</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C345" s="4">
-        <v>10482</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C346" s="4">
-        <v>9250</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4628,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C347" s="4">
-        <v>6327</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C348" s="4">
-        <v>17703</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C349" s="4">
-        <v>14166</v>
+        <v>17703</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C350" s="4">
-        <v>4851</v>
+        <v>20421</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C351" s="4">
-        <v>4869</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4683,10 @@
         <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C352" s="4">
-        <v>13509</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C353" s="4">
-        <v>46152</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="C354" s="4">
-        <v>14733</v>
+        <v>50040</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>120</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C355" s="4">
-        <v>720270</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>120</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C356" s="4">
-        <v>24543</v>
+        <v>720270</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4738,10 @@
         <v>120</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C357" s="4">
-        <v>139554</v>
+        <v>24543</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>120</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C358" s="4">
-        <v>126621</v>
+        <v>150219</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>120</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C359" s="4">
-        <v>10071</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,10 +4771,10 @@
         <v>120</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C360" s="4">
-        <v>30637</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,10 +4782,10 @@
         <v>120</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C361" s="4">
-        <v>39731</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,10 +4793,10 @@
         <v>120</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C362" s="4">
-        <v>73737</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>120</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C363" s="4">
-        <v>30114</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,10 +4815,10 @@
         <v>120</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C364" s="4">
-        <v>9306</v>
+        <v>30114</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,10 +4826,10 @@
         <v>120</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C365" s="4">
-        <v>20486</v>
+        <v>19746</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,10 +4837,10 @@
         <v>120</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C366" s="4">
-        <v>32562</v>
+        <v>20486</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,10 +4848,10 @@
         <v>120</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C367" s="4">
-        <v>11619</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,10 +4859,10 @@
         <v>120</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C368" s="4">
-        <v>9968</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,10 +4870,10 @@
         <v>120</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C369" s="4">
-        <v>6667</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,10 +4881,10 @@
         <v>120</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C370" s="4">
-        <v>10501</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,10 +4892,10 @@
         <v>120</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C371" s="4">
-        <v>15903</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,10 +4903,10 @@
         <v>120</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C372" s="4">
-        <v>14967</v>
+        <v>26953</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,10 +4914,10 @@
         <v>120</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C373" s="4">
-        <v>10297</v>
+        <v>14967</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,10 +4925,10 @@
         <v>120</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C374" s="4">
-        <v>30411</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4936,10 +4936,10 @@
         <v>120</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C375" s="4">
-        <v>14212</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,10 +4947,10 @@
         <v>120</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C376" s="4">
-        <v>13993</v>
+        <v>29213</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,10 +4958,10 @@
         <v>120</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C377" s="4">
-        <v>19140</v>
+        <v>13993</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,10 +4969,10 @@
         <v>120</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C378" s="4">
-        <v>10031</v>
+        <v>19140</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,9 +4980,20 @@
         <v>120</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C379" s="4">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C380" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="123">
   <si>
     <t>Период</t>
   </si>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C380"/>
+      <selection activeCell="A302" sqref="A302:C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,10 +4210,10 @@
         <v>120</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C309" s="4">
-        <v>9380</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,10 +4221,10 @@
         <v>120</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C310" s="4">
-        <v>19901</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,10 +4232,10 @@
         <v>120</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" s="4">
-        <v>53001</v>
+        <v>14380</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,10 +4243,10 @@
         <v>120</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C312" s="4">
-        <v>20816</v>
+        <v>19901</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,10 +4254,10 @@
         <v>120</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C313" s="4">
-        <v>15344</v>
+        <v>53001</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
         <v>120</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="C314" s="4">
-        <v>10297</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,10 +4276,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C315" s="4">
-        <v>10675</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,10 +4287,10 @@
         <v>120</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C316" s="4">
-        <v>14357</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,10 +4298,10 @@
         <v>120</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C317" s="4">
-        <v>9261</v>
+        <v>10675</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,10 +4309,10 @@
         <v>120</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C318" s="4">
-        <v>33047</v>
+        <v>14357</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>120</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C319" s="4">
-        <v>31686</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,10 +4331,10 @@
         <v>120</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C320" s="4">
-        <v>4340</v>
+        <v>33047</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,10 +4342,10 @@
         <v>120</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C321" s="4">
-        <v>21441</v>
+        <v>31686</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,10 +4353,10 @@
         <v>120</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C322" s="4">
-        <v>9499</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,10 +4364,10 @@
         <v>120</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C323" s="4">
-        <v>10185</v>
+        <v>21441</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="C324" s="4">
-        <v>29848</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,10 +4386,10 @@
         <v>120</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C325" s="4">
-        <v>22617</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,10 +4397,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C326" s="4">
-        <v>12201</v>
+        <v>29848</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C327" s="4">
-        <v>8275</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,10 +4419,10 @@
         <v>120</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C328" s="4">
-        <v>50589</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>120</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C329" s="4">
-        <v>1642</v>
+        <v>8275</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
         <v>120</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C330" s="4">
-        <v>12769</v>
+        <v>50589</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,10 +4452,10 @@
         <v>120</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C331" s="4">
-        <v>2113</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,10 +4463,10 @@
         <v>120</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C332" s="4">
-        <v>15240</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,10 +4474,10 @@
         <v>120</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C333" s="4">
-        <v>2386</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,10 +4485,10 @@
         <v>120</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="C334" s="4">
-        <v>5922</v>
+        <v>15240</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,10 +4496,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C335" s="4">
-        <v>2516</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,10 +4507,10 @@
         <v>120</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="C336" s="4">
-        <v>2358</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,10 +4518,10 @@
         <v>120</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C337" s="4">
-        <v>4783</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,10 +4529,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C338" s="4">
-        <v>32491</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>120</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C339" s="4">
-        <v>16111</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4551,10 @@
         <v>120</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C340" s="4">
-        <v>1070</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,10 +4562,10 @@
         <v>120</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C341" s="4">
-        <v>4878</v>
+        <v>65350</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,10 +4573,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C342" s="4">
-        <v>7640</v>
+        <v>16111</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>120</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C343" s="4">
-        <v>10701</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,10 +4595,10 @@
         <v>120</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C344" s="4">
-        <v>24435</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>120</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C345" s="4">
-        <v>26073</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>120</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C346" s="4">
-        <v>10482</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,10 +4628,10 @@
         <v>120</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C347" s="4">
-        <v>9250</v>
+        <v>24435</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,10 +4639,10 @@
         <v>120</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C348" s="4">
-        <v>6327</v>
+        <v>26073</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,10 +4650,10 @@
         <v>120</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C349" s="4">
-        <v>17703</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>120</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C350" s="4">
-        <v>20421</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C351" s="4">
-        <v>4851</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,10 +4683,10 @@
         <v>120</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C352" s="4">
-        <v>4869</v>
+        <v>21352</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>120</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C353" s="4">
-        <v>13509</v>
+        <v>17703</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>120</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C354" s="4">
-        <v>50040</v>
+        <v>20421</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,10 +4716,10 @@
         <v>120</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C355" s="4">
-        <v>14733</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>120</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C356" s="4">
-        <v>720270</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,10 +4738,10 @@
         <v>120</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C357" s="4">
-        <v>24543</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>120</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C358" s="4">
-        <v>150219</v>
+        <v>66501</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>120</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C359" s="4">
-        <v>126621</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,10 +4771,10 @@
         <v>120</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C360" s="4">
-        <v>10071</v>
+        <v>720270</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,10 +4782,10 @@
         <v>120</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C361" s="4">
-        <v>30637</v>
+        <v>24543</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,10 +4793,10 @@
         <v>120</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C362" s="4">
-        <v>39731</v>
+        <v>150219</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>120</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C363" s="4">
-        <v>73737</v>
+        <v>126621</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,10 +4815,10 @@
         <v>120</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C364" s="4">
-        <v>30114</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,10 +4826,10 @@
         <v>120</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C365" s="4">
-        <v>19746</v>
+        <v>55558</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,10 +4837,10 @@
         <v>120</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C366" s="4">
-        <v>20486</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,10 +4848,10 @@
         <v>120</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C367" s="4">
-        <v>32562</v>
+        <v>73737</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,10 +4859,10 @@
         <v>120</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C368" s="4">
-        <v>11619</v>
+        <v>30114</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,10 +4870,10 @@
         <v>120</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C369" s="4">
-        <v>9968</v>
+        <v>19746</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,10 +4881,10 @@
         <v>120</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C370" s="4">
-        <v>6667</v>
+        <v>20486</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,10 +4892,10 @@
         <v>120</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C371" s="4">
-        <v>10501</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,10 +4903,10 @@
         <v>120</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C372" s="4">
-        <v>26953</v>
+        <v>16371</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,10 +4914,10 @@
         <v>120</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C373" s="4">
-        <v>14967</v>
+        <v>23166</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,10 +4925,10 @@
         <v>120</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C374" s="4">
-        <v>10297</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4936,10 +4936,10 @@
         <v>120</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C375" s="4">
-        <v>30411</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,10 +4947,10 @@
         <v>120</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C376" s="4">
-        <v>29213</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,10 +4958,10 @@
         <v>120</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C377" s="4">
-        <v>13993</v>
+        <v>26953</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,10 +4969,10 @@
         <v>120</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C378" s="4">
-        <v>19140</v>
+        <v>14967</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,10 +4980,10 @@
         <v>120</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C379" s="4">
-        <v>10031</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,9 +4991,75 @@
         <v>120</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C380" s="4">
+        <v>30411</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C381" s="4">
+        <v>31712</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C382" s="4">
+        <v>25508</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C383" s="4">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C384" s="4">
+        <v>22638</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C385" s="4">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C386" s="4">
         <v>9723</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
   </si>
 </sst>
 </file>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302:C386"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="A387" sqref="A387:C391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,6 +5066,61 @@
         <v>9723</v>
       </c>
     </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C387" s="4">
+        <v>11606</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C388" s="4">
+        <v>17160</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C389" s="4">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C390" s="4">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C391" s="4">
+        <v>16434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C391"/>
+      <selection activeCell="A387" sqref="A387:C392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5074,7 @@
         <v>15</v>
       </c>
       <c r="C387" s="4">
-        <v>11606</v>
+        <v>48699</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
         <v>81</v>
       </c>
       <c r="C389" s="4">
-        <v>6102</v>
+        <v>9981</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C390" s="4">
-        <v>2376</v>
+        <v>38106</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,9 +5115,20 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C391" s="4">
+        <v>30474</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C392" s="4">
         <v>16434</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C392"/>
+      <selection activeCell="A387" sqref="A387:C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5074,7 @@
         <v>15</v>
       </c>
       <c r="C387" s="4">
-        <v>48699</v>
+        <v>67795</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
         <v>34</v>
       </c>
       <c r="C390" s="4">
-        <v>38106</v>
+        <v>95400</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C391" s="4">
-        <v>30474</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,9 +5126,20 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C392" s="4">
+        <v>49545</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C393" s="4">
         <v>16434</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C393"/>
+      <selection activeCell="A387" sqref="A387:C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5074,7 @@
         <v>15</v>
       </c>
       <c r="C387" s="4">
-        <v>67795</v>
+        <v>80189</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +5082,10 @@
         <v>123</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C388" s="4">
-        <v>17160</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C389" s="4">
-        <v>9981</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C390" s="4">
-        <v>95400</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C391" s="4">
-        <v>3564</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C392" s="4">
-        <v>49545</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,54 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C393" s="4">
+        <v>100611</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C394" s="4">
+        <v>10115</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C395" s="4">
+        <v>49545</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C396" s="4">
         <v>16434</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C397" s="4">
+        <v>16146</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D397"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C397"/>
+      <selection activeCell="A387" sqref="A387:C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5085,7 +5085,7 @@
         <v>18</v>
       </c>
       <c r="C388" s="4">
-        <v>1218</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C389" s="4">
-        <v>2016</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C390" s="4">
-        <v>17160</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C391" s="4">
-        <v>17680</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C392" s="4">
-        <v>20063</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C393" s="4">
-        <v>100611</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5148,10 @@
         <v>123</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C394" s="4">
-        <v>10115</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +5159,10 @@
         <v>123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C395" s="4">
-        <v>49545</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
         <v>123</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C396" s="4">
-        <v>16434</v>
+        <v>49545</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +5181,43 @@
         <v>123</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C397" s="4">
+        <v>16434</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C397" s="4">
-        <v>16146</v>
+      <c r="C398" s="4">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C399" s="4">
+        <v>12582</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C400" s="4">
+        <v>6776</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,6 +473,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -756,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C400"/>
+      <selection activeCell="A387" sqref="A387:C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5071,10 +5074,10 @@
         <v>123</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C387" s="4">
-        <v>80189</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +5085,10 @@
         <v>123</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C388" s="4">
-        <v>10871</v>
+        <v>80189</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5096,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C389" s="4">
-        <v>2664</v>
+        <v>66</v>
+      </c>
+      <c r="C389" s="5">
+        <v>686</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5107,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C390" s="4">
-        <v>11331</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5118,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C391" s="4">
-        <v>17160</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5129,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C392" s="4">
-        <v>17680</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5140,10 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C393" s="4">
-        <v>20063</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5151,10 @@
         <v>123</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C394" s="4">
-        <v>100611</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +5162,10 @@
         <v>123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C395" s="4">
-        <v>10115</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +5173,10 @@
         <v>123</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C396" s="4">
-        <v>49545</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +5184,10 @@
         <v>123</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C397" s="4">
-        <v>16434</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +5195,10 @@
         <v>123</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C398" s="4">
-        <v>44820</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +5206,10 @@
         <v>123</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C399" s="4">
-        <v>12582</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +5217,76 @@
         <v>123</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C400" s="4">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C401" s="4">
+        <v>49545</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C402" s="4">
+        <v>10301</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C403" s="4">
+        <v>16434</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C404" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C405" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C400" s="4">
-        <v>6776</v>
+      <c r="C406" s="4">
+        <v>9275</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,9 +473,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -759,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D406"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C406"/>
+      <selection activeCell="A387" sqref="A387:C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,10 +5071,10 @@
         <v>123</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C387" s="4">
-        <v>9202</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5085,10 +5082,10 @@
         <v>123</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C388" s="4">
-        <v>80189</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5096,10 +5093,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C389" s="5">
-        <v>686</v>
+        <v>15</v>
+      </c>
+      <c r="C389" s="4">
+        <v>80189</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5107,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C390" s="4">
-        <v>10871</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5118,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C391" s="4">
-        <v>2664</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,10 +5126,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C392" s="4">
-        <v>3195</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,10 +5137,10 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C393" s="4">
-        <v>11331</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5151,10 +5148,10 @@
         <v>123</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C394" s="4">
-        <v>17160</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5162,10 +5159,10 @@
         <v>123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C395" s="4">
-        <v>17680</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5173,10 +5170,10 @@
         <v>123</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C396" s="4">
-        <v>20063</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5184,10 +5181,10 @@
         <v>123</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C397" s="4">
-        <v>1962</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5195,10 +5192,10 @@
         <v>123</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C398" s="4">
-        <v>100611</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5206,10 +5203,10 @@
         <v>123</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C399" s="4">
-        <v>10115</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5217,10 +5214,10 @@
         <v>123</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C400" s="4">
-        <v>6210</v>
+        <v>100611</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5228,10 +5225,10 @@
         <v>123</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C401" s="4">
-        <v>49545</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5239,10 +5236,10 @@
         <v>123</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C402" s="4">
-        <v>10301</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5250,10 +5247,10 @@
         <v>123</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C403" s="4">
-        <v>16434</v>
+        <v>19242</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5261,10 +5258,10 @@
         <v>123</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C404" s="4">
-        <v>61307</v>
+        <v>49545</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5272,10 +5269,10 @@
         <v>123</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C405" s="4">
-        <v>22257</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5283,9 +5280,53 @@
         <v>123</v>
       </c>
       <c r="B406" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C406" s="4">
+        <v>16434</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C407" s="4">
+        <v>18378</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C408" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C409" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C410" s="4">
         <v>9275</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D410"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C410"/>
+      <selection activeCell="A387" sqref="A387:C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5071,10 +5071,10 @@
         <v>123</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C387" s="4">
-        <v>6804</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +5082,10 @@
         <v>123</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C388" s="4">
-        <v>9202</v>
+        <v>29715</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C389" s="4">
-        <v>80189</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C390" s="4">
-        <v>10381</v>
+        <v>80189</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C391" s="4">
-        <v>10871</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C392" s="4">
-        <v>2664</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C393" s="4">
-        <v>5058</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5148,10 @@
         <v>123</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C394" s="4">
-        <v>3195</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +5159,10 @@
         <v>123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C395" s="4">
-        <v>11331</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
         <v>123</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C396" s="4">
-        <v>17160</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +5181,10 @@
         <v>123</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C397" s="4">
-        <v>17680</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +5192,10 @@
         <v>123</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C398" s="4">
-        <v>20063</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +5203,10 @@
         <v>123</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C399" s="4">
-        <v>11250</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +5214,10 @@
         <v>123</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C400" s="4">
-        <v>100611</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>123</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C401" s="4">
-        <v>10115</v>
+        <v>18657</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,10 +5236,10 @@
         <v>123</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C402" s="4">
-        <v>10081</v>
+        <v>153963</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,10 +5247,10 @@
         <v>123</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C403" s="4">
-        <v>19242</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,10 +5258,10 @@
         <v>123</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C404" s="4">
-        <v>49545</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +5269,10 @@
         <v>123</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C405" s="4">
-        <v>10301</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +5280,10 @@
         <v>123</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C406" s="4">
-        <v>16434</v>
+        <v>49545</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>123</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C407" s="4">
-        <v>18378</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5302,10 @@
         <v>123</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C408" s="4">
-        <v>61307</v>
+        <v>16434</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5313,10 @@
         <v>123</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C409" s="4">
-        <v>22257</v>
+        <v>51325</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,9 +5324,31 @@
         <v>123</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C410" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C411" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C412" s="4">
         <v>9275</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D412"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C412"/>
+      <selection activeCell="A387" sqref="A387:C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5074,7 @@
         <v>6</v>
       </c>
       <c r="C387" s="4">
-        <v>12586</v>
+        <v>14805</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +5082,10 @@
         <v>123</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C388" s="4">
-        <v>29715</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C389" s="4">
-        <v>9202</v>
+        <v>29715</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C390" s="4">
-        <v>80189</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C391" s="4">
-        <v>10381</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C392" s="4">
-        <v>10871</v>
+        <v>80189</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C393" s="4">
-        <v>2664</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5148,10 @@
         <v>123</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="C394" s="4">
-        <v>5058</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +5159,10 @@
         <v>123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C395" s="4">
-        <v>3195</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
         <v>123</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C396" s="4">
-        <v>7742</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +5181,10 @@
         <v>123</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C397" s="4">
-        <v>11331</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +5192,10 @@
         <v>123</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C398" s="4">
-        <v>17160</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +5203,10 @@
         <v>123</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C399" s="4">
-        <v>17680</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +5214,10 @@
         <v>123</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C400" s="4">
-        <v>20063</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>123</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C401" s="4">
-        <v>18657</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,10 +5236,10 @@
         <v>123</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C402" s="4">
-        <v>153963</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,10 +5247,10 @@
         <v>123</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C403" s="4">
-        <v>10115</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,10 +5258,10 @@
         <v>123</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C404" s="4">
-        <v>10081</v>
+        <v>18657</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +5269,10 @@
         <v>123</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C405" s="4">
-        <v>30141</v>
+        <v>200142</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +5280,10 @@
         <v>123</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C406" s="4">
-        <v>49545</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>123</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C407" s="4">
-        <v>10301</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5302,10 @@
         <v>123</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C408" s="4">
-        <v>16434</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5313,10 @@
         <v>123</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C409" s="4">
-        <v>51325</v>
+        <v>49545</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5324,10 @@
         <v>123</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C410" s="4">
-        <v>61307</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5335,10 @@
         <v>123</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C411" s="4">
-        <v>22257</v>
+        <v>16434</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,9 +5346,42 @@
         <v>123</v>
       </c>
       <c r="B412" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C412" s="4">
+        <v>51325</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C413" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C414" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C415" s="4">
         <v>9275</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D425"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C415"/>
+      <selection activeCell="A387" sqref="A387:C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5071,10 +5071,10 @@
         <v>123</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C387" s="4">
-        <v>14805</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +5082,10 @@
         <v>123</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C388" s="4">
-        <v>9751</v>
+        <v>14805</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C389" s="4">
-        <v>29715</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C390" s="4">
-        <v>1232</v>
+        <v>29715</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C391" s="4">
-        <v>9202</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C392" s="4">
-        <v>80189</v>
+        <v>14105</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C393" s="4">
-        <v>10381</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5148,10 @@
         <v>123</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C394" s="4">
-        <v>10871</v>
+        <v>80189</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +5159,10 @@
         <v>123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C395" s="4">
-        <v>2664</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
         <v>123</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C396" s="4">
-        <v>5058</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +5181,10 @@
         <v>123</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="C397" s="4">
-        <v>3195</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +5192,10 @@
         <v>123</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C398" s="4">
-        <v>7742</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +5203,10 @@
         <v>123</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C399" s="4">
-        <v>11331</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +5214,10 @@
         <v>123</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C400" s="4">
-        <v>17160</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>123</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C401" s="4">
-        <v>6192</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,10 +5236,10 @@
         <v>123</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C402" s="4">
-        <v>17680</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,10 +5247,10 @@
         <v>123</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C403" s="4">
-        <v>20063</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,10 +5258,10 @@
         <v>123</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C404" s="4">
-        <v>18657</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +5269,10 @@
         <v>123</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C405" s="4">
-        <v>200142</v>
+        <v>15507</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +5280,10 @@
         <v>123</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C406" s="4">
-        <v>10115</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>123</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C407" s="4">
-        <v>10081</v>
+        <v>8748</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5302,10 @@
         <v>123</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C408" s="4">
-        <v>30141</v>
+        <v>9509</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5313,10 @@
         <v>123</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C409" s="4">
-        <v>49545</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5324,10 @@
         <v>123</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C410" s="4">
-        <v>10301</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5335,10 @@
         <v>123</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C411" s="4">
-        <v>16434</v>
+        <v>18657</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,10 +5346,10 @@
         <v>123</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C412" s="4">
-        <v>51325</v>
+        <v>11457</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
         <v>123</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C413" s="4">
-        <v>61307</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,10 +5368,10 @@
         <v>123</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C414" s="4">
-        <v>22257</v>
+        <v>200142</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,9 +5379,119 @@
         <v>123</v>
       </c>
       <c r="B415" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C415" s="4">
+        <v>10115</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C416" s="4">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C417" s="4">
+        <v>30141</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C418" s="4">
+        <v>49545</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C419" s="4">
+        <v>10301</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C420" s="4">
+        <v>21690</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C421" s="4">
+        <v>51325</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C422" s="4">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C423" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C424" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C425" s="4">
         <v>9275</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D425"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C425"/>
+      <selection activeCell="A387" sqref="A387:C430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,7 +5074,7 @@
         <v>3</v>
       </c>
       <c r="C387" s="4">
-        <v>1092</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +5192,10 @@
         <v>123</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C398" s="4">
-        <v>2664</v>
+        <v>31724</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +5203,10 @@
         <v>123</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C399" s="4">
-        <v>5058</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +5214,10 @@
         <v>123</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="C400" s="4">
-        <v>2556</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>123</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C401" s="4">
-        <v>5157</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,10 +5236,10 @@
         <v>123</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C402" s="4">
-        <v>3195</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,10 +5247,10 @@
         <v>123</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C403" s="4">
-        <v>7742</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,10 +5258,10 @@
         <v>123</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C404" s="4">
-        <v>11331</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +5269,10 @@
         <v>123</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C405" s="4">
-        <v>15507</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +5280,10 @@
         <v>123</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C406" s="4">
-        <v>17160</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>123</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C407" s="4">
-        <v>8748</v>
+        <v>15507</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5302,10 @@
         <v>123</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C408" s="4">
-        <v>9509</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5313,10 @@
         <v>123</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C409" s="4">
-        <v>17680</v>
+        <v>10824</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5324,10 @@
         <v>123</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C410" s="4">
-        <v>20063</v>
+        <v>9509</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5335,10 @@
         <v>123</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C411" s="4">
-        <v>18657</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,10 +5346,10 @@
         <v>123</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C412" s="4">
-        <v>11457</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
         <v>123</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C413" s="4">
-        <v>12780</v>
+        <v>30267</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,10 +5368,10 @@
         <v>123</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C414" s="4">
-        <v>200142</v>
+        <v>11457</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,10 +5379,10 @@
         <v>123</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C415" s="4">
-        <v>10115</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,10 +5390,10 @@
         <v>123</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C416" s="4">
-        <v>10081</v>
+        <v>200142</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,10 +5401,10 @@
         <v>123</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C417" s="4">
-        <v>30141</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,10 +5412,10 @@
         <v>123</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C418" s="4">
-        <v>49545</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,10 +5423,10 @@
         <v>123</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C419" s="4">
-        <v>10301</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,10 +5434,10 @@
         <v>123</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C420" s="4">
-        <v>21690</v>
+        <v>49545</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,10 +5445,10 @@
         <v>123</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C421" s="4">
-        <v>51325</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,10 +5456,10 @@
         <v>123</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C422" s="4">
-        <v>13590</v>
+        <v>39861</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,10 +5467,10 @@
         <v>123</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C423" s="4">
-        <v>61307</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,10 +5478,10 @@
         <v>123</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C424" s="4">
-        <v>22257</v>
+        <v>51325</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5489,9 +5489,64 @@
         <v>123</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C425" s="4">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C426" s="4">
+        <v>9891</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C427" s="4">
+        <v>20219</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C428" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C429" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C430" s="4">
         <v>9275</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="124">
   <si>
     <t>Период</t>
   </si>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C430"/>
+      <selection activeCell="A387" sqref="A387:C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,10 +5082,10 @@
         <v>123</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C388" s="4">
-        <v>14805</v>
+        <v>13601</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5093,10 @@
         <v>123</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C389" s="4">
-        <v>9751</v>
+        <v>14805</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>123</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C390" s="4">
-        <v>29715</v>
+        <v>9751</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5115,10 @@
         <v>123</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C391" s="4">
-        <v>10129</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5126,10 @@
         <v>123</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C392" s="4">
-        <v>14105</v>
+        <v>29715</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5137,10 @@
         <v>123</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C393" s="4">
-        <v>9202</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5148,10 @@
         <v>123</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C394" s="4">
-        <v>80189</v>
+        <v>14105</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +5159,10 @@
         <v>123</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C395" s="4">
-        <v>5145</v>
+        <v>9202</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
         <v>123</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C396" s="4">
-        <v>10381</v>
+        <v>80189</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +5181,10 @@
         <v>123</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="C397" s="4">
-        <v>10871</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +5192,10 @@
         <v>123</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C398" s="4">
-        <v>31724</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +5203,10 @@
         <v>123</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C399" s="4">
-        <v>2664</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +5214,10 @@
         <v>123</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C400" s="4">
-        <v>5058</v>
+        <v>39417</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>123</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C401" s="4">
-        <v>2556</v>
+        <v>12499</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,10 +5236,10 @@
         <v>123</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C402" s="4">
-        <v>5157</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,10 +5247,10 @@
         <v>123</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C403" s="4">
-        <v>3195</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,10 +5258,10 @@
         <v>123</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C404" s="4">
-        <v>7742</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +5269,10 @@
         <v>123</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C405" s="4">
-        <v>10980</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +5280,10 @@
         <v>123</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C406" s="4">
-        <v>11331</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -5291,10 +5291,10 @@
         <v>123</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C407" s="4">
-        <v>15507</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5302,10 @@
         <v>123</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C408" s="4">
-        <v>17160</v>
+        <v>20799</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5313,10 @@
         <v>123</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C409" s="4">
-        <v>10824</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5324,10 @@
         <v>123</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="C410" s="4">
-        <v>9509</v>
+        <v>15507</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5335,10 @@
         <v>123</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C411" s="4">
-        <v>17680</v>
+        <v>24162</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,10 +5346,10 @@
         <v>123</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C412" s="4">
-        <v>20063</v>
+        <v>10824</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
         <v>123</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C413" s="4">
-        <v>30267</v>
+        <v>9509</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,10 +5368,10 @@
         <v>123</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C414" s="4">
-        <v>11457</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,10 +5379,10 @@
         <v>123</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C415" s="4">
-        <v>12780</v>
+        <v>20063</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,10 +5390,10 @@
         <v>123</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C416" s="4">
-        <v>200142</v>
+        <v>35595</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,10 +5401,10 @@
         <v>123</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C417" s="4">
-        <v>10115</v>
+        <v>11457</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,10 +5412,10 @@
         <v>123</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C418" s="4">
-        <v>10081</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,10 +5423,10 @@
         <v>123</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C419" s="4">
-        <v>30141</v>
+        <v>200142</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,10 +5434,10 @@
         <v>123</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C420" s="4">
-        <v>49545</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,10 +5445,10 @@
         <v>123</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C421" s="4">
-        <v>10301</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,10 +5456,10 @@
         <v>123</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C422" s="4">
-        <v>39861</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,10 +5467,10 @@
         <v>123</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C423" s="4">
-        <v>14137</v>
+        <v>56475</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,10 +5478,10 @@
         <v>123</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C424" s="4">
-        <v>51325</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5489,10 +5489,10 @@
         <v>123</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C425" s="4">
-        <v>6120</v>
+        <v>39861</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -5500,10 +5500,10 @@
         <v>123</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C426" s="4">
-        <v>9891</v>
+        <v>10321</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -5511,10 +5511,10 @@
         <v>123</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C427" s="4">
-        <v>20219</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -5522,10 +5522,10 @@
         <v>123</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C428" s="4">
-        <v>61307</v>
+        <v>51325</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -5533,10 +5533,10 @@
         <v>123</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C429" s="4">
-        <v>22257</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -5544,9 +5544,64 @@
         <v>123</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C430" s="4">
+        <v>9891</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C431" s="4">
+        <v>20219</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C432" s="4">
+        <v>10449</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C433" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C434" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C435" s="4">
         <v>9275</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
   </si>
 </sst>
 </file>
@@ -756,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A387" sqref="A387:C435"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:C438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5118,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="C391" s="4">
-        <v>1568</v>
+        <v>23954</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5316,10 @@
         <v>123</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C409" s="4">
-        <v>22500</v>
+        <v>10341</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5327,10 @@
         <v>123</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C410" s="4">
-        <v>15507</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5338,10 @@
         <v>123</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C411" s="4">
-        <v>24162</v>
+        <v>15507</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,10 +5349,10 @@
         <v>123</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C412" s="4">
-        <v>10824</v>
+        <v>30201</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -5357,10 +5360,10 @@
         <v>123</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C413" s="4">
-        <v>9509</v>
+        <v>10824</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,10 +5371,10 @@
         <v>123</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C414" s="4">
-        <v>17680</v>
+        <v>9509</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,10 +5382,10 @@
         <v>123</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C415" s="4">
-        <v>20063</v>
+        <v>17680</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,10 +5393,10 @@
         <v>123</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C416" s="4">
-        <v>35595</v>
+        <v>20981</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,10 +5404,10 @@
         <v>123</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C417" s="4">
-        <v>11457</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,10 +5415,10 @@
         <v>123</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C418" s="4">
-        <v>12780</v>
+        <v>35595</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,10 +5426,10 @@
         <v>123</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C419" s="4">
-        <v>200142</v>
+        <v>11457</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,10 +5437,10 @@
         <v>123</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C420" s="4">
-        <v>10115</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,10 +5448,10 @@
         <v>123</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C421" s="4">
-        <v>10081</v>
+        <v>200142</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,10 +5459,10 @@
         <v>123</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C422" s="4">
-        <v>30141</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,10 +5470,10 @@
         <v>123</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C423" s="4">
-        <v>56475</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,10 +5481,10 @@
         <v>123</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C424" s="4">
-        <v>10301</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5489,10 +5492,10 @@
         <v>123</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C425" s="4">
-        <v>39861</v>
+        <v>87291</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -5500,10 +5503,10 @@
         <v>123</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C426" s="4">
-        <v>10321</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -5511,10 +5514,10 @@
         <v>123</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C427" s="4">
-        <v>14137</v>
+        <v>39861</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -5522,10 +5525,10 @@
         <v>123</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C428" s="4">
-        <v>51325</v>
+        <v>10321</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -5533,10 +5536,10 @@
         <v>123</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C429" s="4">
-        <v>11329</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -5544,10 +5547,10 @@
         <v>123</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C430" s="4">
-        <v>9891</v>
+        <v>51325</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -5555,10 +5558,10 @@
         <v>123</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C431" s="4">
-        <v>20219</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -5566,10 +5569,10 @@
         <v>123</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C432" s="4">
-        <v>10449</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -5577,10 +5580,10 @@
         <v>123</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C433" s="4">
-        <v>61307</v>
+        <v>20219</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -5588,10 +5591,10 @@
         <v>123</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C434" s="4">
-        <v>22257</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -5599,10 +5602,43 @@
         <v>123</v>
       </c>
       <c r="B435" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C435" s="4">
+        <v>61307</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C436" s="4">
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C437" s="4">
         <v>9275</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C438" s="4">
+        <v>4932</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C438"/>
+      <selection activeCell="A438" sqref="A438:C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,10 +5635,109 @@
         <v>124</v>
       </c>
       <c r="B438" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" s="4">
+        <v>40355</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C439" s="4">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C440" s="4">
         <v>4932</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C441" s="4">
+        <v>13644</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C442" s="4">
+        <v>48825</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C443" s="4">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C444" s="4">
+        <v>30087</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C445" s="4">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C446" s="4">
+        <v>12339</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C447" s="4">
+        <v>11837</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D447"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C447"/>
+      <selection activeCell="A438" sqref="A438:C451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5646,10 +5646,10 @@
         <v>124</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C439" s="4">
-        <v>6354</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,10 +5657,10 @@
         <v>124</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C440" s="4">
-        <v>4932</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5668,10 @@
         <v>124</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C441" s="4">
-        <v>13644</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5679,10 @@
         <v>124</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C442" s="4">
-        <v>48825</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5690,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C443" s="4">
-        <v>2556</v>
+        <v>21222</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5701,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C444" s="4">
-        <v>30087</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5712,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C445" s="4">
-        <v>10962</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5723,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C446" s="4">
-        <v>12339</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,9 +5734,53 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C447" s="4">
+        <v>9891</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C448" s="4">
+        <v>30087</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C449" s="4">
+        <v>38538</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C450" s="4">
+        <v>12339</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C451" s="4">
         <v>11837</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C451"/>
+      <selection activeCell="A438" sqref="A438:C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,7 +5660,7 @@
         <v>60</v>
       </c>
       <c r="C440" s="4">
-        <v>2030</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5668,10 @@
         <v>124</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C441" s="4">
-        <v>6354</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5679,10 @@
         <v>124</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C442" s="4">
-        <v>4932</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5690,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C443" s="4">
-        <v>21222</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5701,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C444" s="4">
-        <v>4761</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5712,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C445" s="4">
-        <v>3780</v>
+        <v>22419</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5723,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C446" s="4">
-        <v>48825</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5734,10 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C447" s="4">
-        <v>9891</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5745,10 @@
         <v>124</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C448" s="4">
-        <v>30087</v>
+        <v>24327</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>124</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C449" s="4">
-        <v>38538</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5767,10 @@
         <v>124</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C450" s="4">
-        <v>12339</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,9 +5778,53 @@
         <v>124</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C451" s="4">
+        <v>30087</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C452" s="4">
+        <v>49507</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C453" s="4">
+        <v>12339</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C454" s="4">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C455" s="4">
         <v>11837</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C455"/>
+      <selection activeCell="A438" sqref="A438:C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,10 +5635,10 @@
         <v>124</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C438" s="4">
-        <v>40355</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,10 +5646,10 @@
         <v>124</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C439" s="4">
-        <v>11571</v>
+        <v>40355</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,10 +5657,10 @@
         <v>124</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C440" s="4">
-        <v>10556</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5668,10 @@
         <v>124</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C441" s="4">
-        <v>6034</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5679,10 @@
         <v>124</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C442" s="4">
-        <v>6354</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5690,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C443" s="4">
-        <v>4932</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5701,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C444" s="4">
-        <v>8244</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5712,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C445" s="4">
-        <v>22419</v>
+        <v>23427</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5723,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C446" s="4">
-        <v>4761</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5734,10 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C447" s="4">
-        <v>2268</v>
+        <v>22419</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5745,10 @@
         <v>124</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C448" s="4">
-        <v>24327</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>124</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C449" s="4">
-        <v>48825</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5767,10 @@
         <v>124</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C450" s="4">
-        <v>9891</v>
+        <v>55656</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,10 +5778,10 @@
         <v>124</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C451" s="4">
-        <v>30087</v>
+        <v>24327</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,10 +5789,10 @@
         <v>124</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C452" s="4">
-        <v>49507</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,10 +5800,10 @@
         <v>124</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C453" s="4">
-        <v>12339</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,10 +5811,10 @@
         <v>124</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C454" s="4">
-        <v>4860</v>
+        <v>30087</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,9 +5822,64 @@
         <v>124</v>
       </c>
       <c r="B455" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C455" s="4">
+        <v>49507</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C456" s="4">
+        <v>12339</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C457" s="4">
+        <v>11565</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C458" s="4">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C459" s="4">
+        <v>16254</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C460" s="4">
         <v>11837</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D460"/>
+  <dimension ref="A1:D465"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C460"/>
+      <selection activeCell="A438" sqref="A438:C465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5690,10 +5690,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C443" s="4">
-        <v>6354</v>
+        <v>15967</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5701,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C444" s="4">
-        <v>4932</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5712,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C445" s="4">
-        <v>23427</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5723,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C446" s="4">
-        <v>19476</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5734,10 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C447" s="4">
-        <v>22419</v>
+        <v>23427</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5745,10 @@
         <v>124</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="C448" s="4">
-        <v>4761</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>124</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C449" s="4">
-        <v>8730</v>
+        <v>22419</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5767,10 @@
         <v>124</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C450" s="4">
-        <v>55656</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,10 +5778,10 @@
         <v>124</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C451" s="4">
-        <v>24327</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,10 +5789,10 @@
         <v>124</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C452" s="4">
-        <v>48825</v>
+        <v>98505</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,10 +5800,10 @@
         <v>124</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C453" s="4">
-        <v>9891</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,10 +5811,10 @@
         <v>124</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C454" s="4">
-        <v>30087</v>
+        <v>24327</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,10 +5822,10 @@
         <v>124</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C455" s="4">
-        <v>49507</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,10 +5833,10 @@
         <v>124</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C456" s="4">
-        <v>12339</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,10 +5844,10 @@
         <v>124</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C457" s="4">
-        <v>11565</v>
+        <v>30087</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,10 +5855,10 @@
         <v>124</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C458" s="4">
-        <v>9873</v>
+        <v>49507</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5866,10 +5866,10 @@
         <v>124</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C459" s="4">
-        <v>16254</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,9 +5877,64 @@
         <v>124</v>
       </c>
       <c r="B460" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C460" s="4">
+        <v>11565</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C461" s="4">
+        <v>40806</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C462" s="4">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C463" s="4">
+        <v>22071</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C464" s="4">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C460" s="4">
+      <c r="C465" s="4">
         <v>11837</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -466,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +476,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -759,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D465"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C465"/>
+      <selection activeCell="A438" sqref="A438:C474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,10 +5660,10 @@
         <v>124</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C440" s="4">
-        <v>11571</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5671,10 @@
         <v>124</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C441" s="4">
-        <v>10556</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5682,10 @@
         <v>124</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C442" s="4">
-        <v>10682</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5693,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C443" s="4">
-        <v>15967</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5704,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C444" s="4">
-        <v>6354</v>
+        <v>15967</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5715,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C445" s="4">
-        <v>4932</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5726,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C446" s="4">
-        <v>6525</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5737,10 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C447" s="4">
-        <v>23427</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5748,10 @@
         <v>124</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C448" s="4">
-        <v>19476</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5759,10 @@
         <v>124</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C449" s="4">
-        <v>22419</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5770,10 @@
         <v>124</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C450" s="4">
-        <v>4761</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,10 +5781,10 @@
         <v>124</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C451" s="4">
-        <v>16687</v>
+        <v>8986</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,10 +5792,10 @@
         <v>124</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C452" s="4">
-        <v>98505</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,10 +5803,10 @@
         <v>124</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C453" s="4">
-        <v>4446</v>
+        <v>23427</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,10 +5814,10 @@
         <v>124</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C454" s="4">
-        <v>24327</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,10 +5825,10 @@
         <v>124</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C455" s="4">
-        <v>48825</v>
+        <v>22419</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,10 +5836,10 @@
         <v>124</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C456" s="4">
-        <v>9891</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,10 +5847,10 @@
         <v>124</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C457" s="4">
-        <v>30087</v>
+        <v>11151</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,10 +5858,10 @@
         <v>124</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C458" s="4">
-        <v>49507</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5866,10 +5869,10 @@
         <v>124</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C459" s="4">
-        <v>12339</v>
+        <v>17753</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,10 +5880,10 @@
         <v>124</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C460" s="4">
-        <v>11565</v>
+        <v>98505</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,10 +5891,10 @@
         <v>124</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C461" s="4">
-        <v>40806</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,10 +5902,10 @@
         <v>124</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C462" s="4">
-        <v>9873</v>
+        <v>24327</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,10 +5913,10 @@
         <v>124</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C463" s="4">
-        <v>22071</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,10 +5924,10 @@
         <v>124</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C464" s="4">
-        <v>4004</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5932,9 +5935,108 @@
         <v>124</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C465" s="4">
+        <v>30087</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C466" s="4">
+        <v>49507</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C467" s="4">
+        <v>12339</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C468" s="4">
+        <v>11565</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C469" s="5">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C470" s="4">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C471" s="4">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C472" s="4">
+        <v>22071</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C473" s="4">
+        <v>19271</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C465" s="4">
+      <c r="C474" s="4">
         <v>11837</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -466,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,9 +476,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -762,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D474"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C474"/>
+      <selection activeCell="A438" sqref="A438:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,10 +5635,10 @@
         <v>124</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C438" s="4">
-        <v>10220</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5649,10 +5646,10 @@
         <v>124</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C439" s="4">
-        <v>40355</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5660,10 +5657,10 @@
         <v>124</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C440" s="4">
-        <v>10192</v>
+        <v>40355</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5671,10 +5668,10 @@
         <v>124</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C441" s="4">
-        <v>11571</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5682,10 +5679,10 @@
         <v>124</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C442" s="4">
-        <v>10556</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5693,10 +5690,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C443" s="4">
-        <v>10682</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5704,10 +5701,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C444" s="4">
-        <v>15967</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5715,10 +5712,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C445" s="4">
-        <v>2520</v>
+        <v>15967</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5726,10 +5723,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C446" s="4">
-        <v>6354</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5737,10 +5734,10 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C447" s="4">
-        <v>4932</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5748,10 +5745,10 @@
         <v>124</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C448" s="4">
-        <v>2130</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5759,10 +5756,10 @@
         <v>124</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="C449" s="4">
-        <v>4356</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5770,10 +5767,10 @@
         <v>124</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C450" s="4">
-        <v>2052</v>
+        <v>11493</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5781,10 +5778,10 @@
         <v>124</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C451" s="4">
-        <v>8986</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5792,10 +5789,10 @@
         <v>124</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C452" s="4">
-        <v>6525</v>
+        <v>8986</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5803,10 +5800,10 @@
         <v>124</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C453" s="4">
-        <v>23427</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5814,10 +5811,10 @@
         <v>124</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="C454" s="4">
-        <v>19476</v>
+        <v>23427</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5825,10 +5822,10 @@
         <v>124</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C455" s="4">
-        <v>22419</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5836,10 +5833,10 @@
         <v>124</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C456" s="4">
-        <v>4761</v>
+        <v>22419</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5847,10 +5844,10 @@
         <v>124</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C457" s="4">
-        <v>11151</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5858,10 +5855,10 @@
         <v>124</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C458" s="4">
-        <v>16687</v>
+        <v>11151</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5869,10 +5866,10 @@
         <v>124</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C459" s="4">
-        <v>17753</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5880,10 +5877,10 @@
         <v>124</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C460" s="4">
-        <v>98505</v>
+        <v>17753</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5891,10 +5888,10 @@
         <v>124</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C461" s="4">
-        <v>10102</v>
+        <v>98505</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5902,10 +5899,10 @@
         <v>124</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C462" s="4">
-        <v>24327</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5913,10 +5910,10 @@
         <v>124</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C463" s="4">
-        <v>48825</v>
+        <v>24327</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5924,10 +5921,10 @@
         <v>124</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C464" s="4">
-        <v>9891</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5935,10 +5932,10 @@
         <v>124</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C465" s="4">
-        <v>30087</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,10 +5943,10 @@
         <v>124</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C466" s="4">
-        <v>49507</v>
+        <v>30087</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -5957,10 +5954,10 @@
         <v>124</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C467" s="4">
-        <v>12339</v>
+        <v>49507</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -5968,10 +5965,10 @@
         <v>124</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C468" s="4">
-        <v>11565</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -5979,10 +5976,10 @@
         <v>124</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C469" s="5">
-        <v>920</v>
+        <v>88</v>
+      </c>
+      <c r="C469" s="4">
+        <v>11565</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -5990,10 +5987,10 @@
         <v>124</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C470" s="4">
-        <v>44035</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -6001,10 +5998,10 @@
         <v>124</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C471" s="4">
-        <v>9873</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -6012,10 +6009,10 @@
         <v>124</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C472" s="4">
-        <v>22071</v>
+        <v>9873</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -6023,10 +6020,10 @@
         <v>124</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C473" s="4">
-        <v>19271</v>
+        <v>22071</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -6034,9 +6031,20 @@
         <v>124</v>
       </c>
       <c r="B474" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C474" s="4">
+        <v>19271</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B475" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C474" s="4">
+      <c r="C475" s="4">
         <v>11837</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="125">
   <si>
     <t>Период</t>
   </si>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C475"/>
+      <selection activeCell="A438" sqref="A438:C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,10 +5635,10 @@
         <v>124</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C438" s="4">
-        <v>7105</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,10 +5646,10 @@
         <v>124</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C439" s="4">
-        <v>10220</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,10 +5657,10 @@
         <v>124</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C440" s="4">
-        <v>40355</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5668,10 @@
         <v>124</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C441" s="4">
-        <v>10192</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5679,10 @@
         <v>124</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C442" s="4">
-        <v>11571</v>
+        <v>40355</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5690,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C443" s="4">
-        <v>10556</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5701,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C444" s="4">
-        <v>10682</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5712,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C445" s="4">
-        <v>15967</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5723,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C446" s="4">
-        <v>13081</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5734,10 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C447" s="4">
-        <v>6354</v>
+        <v>15967</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5745,10 @@
         <v>124</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C448" s="4">
-        <v>4932</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>124</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="C449" s="4">
-        <v>2130</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5767,10 @@
         <v>124</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C450" s="4">
-        <v>11493</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,10 +5778,10 @@
         <v>124</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C451" s="4">
-        <v>19125</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,10 +5789,10 @@
         <v>124</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="C452" s="4">
-        <v>8986</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,10 +5800,10 @@
         <v>124</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="C453" s="4">
-        <v>6525</v>
+        <v>11493</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,10 +5811,10 @@
         <v>124</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="C454" s="4">
-        <v>23427</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,10 +5822,10 @@
         <v>124</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C455" s="4">
-        <v>19476</v>
+        <v>8986</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,10 +5833,10 @@
         <v>124</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C456" s="4">
-        <v>22419</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,10 +5844,10 @@
         <v>124</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C457" s="4">
-        <v>4761</v>
+        <v>23427</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,10 +5855,10 @@
         <v>124</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C458" s="4">
-        <v>11151</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5866,10 +5866,10 @@
         <v>124</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C459" s="4">
-        <v>16687</v>
+        <v>22419</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,10 +5877,10 @@
         <v>124</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C460" s="4">
-        <v>17753</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,10 +5888,10 @@
         <v>124</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C461" s="4">
-        <v>98505</v>
+        <v>11151</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,10 +5899,10 @@
         <v>124</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C462" s="4">
-        <v>10102</v>
+        <v>35047</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,10 +5910,10 @@
         <v>124</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C463" s="4">
-        <v>24327</v>
+        <v>47070</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,10 +5921,10 @@
         <v>124</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C464" s="4">
-        <v>48825</v>
+        <v>17753</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5932,10 +5932,10 @@
         <v>124</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C465" s="4">
-        <v>9891</v>
+        <v>98505</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -5943,10 +5943,10 @@
         <v>124</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C466" s="4">
-        <v>30087</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -5954,10 +5954,10 @@
         <v>124</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C467" s="4">
-        <v>49507</v>
+        <v>24327</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -5965,10 +5965,10 @@
         <v>124</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C468" s="4">
-        <v>12339</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -5976,10 +5976,10 @@
         <v>124</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C469" s="4">
-        <v>11565</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -5987,10 +5987,10 @@
         <v>124</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C470" s="4">
-        <v>4885</v>
+        <v>30087</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,10 +5998,10 @@
         <v>124</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C471" s="4">
-        <v>44035</v>
+        <v>49507</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -6009,10 +6009,10 @@
         <v>124</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C472" s="4">
-        <v>9873</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -6020,10 +6020,10 @@
         <v>124</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C473" s="4">
-        <v>22071</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -6031,10 +6031,10 @@
         <v>124</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C474" s="4">
-        <v>19271</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -6042,9 +6042,53 @@
         <v>124</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C475" s="4">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C476" s="4">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C477" s="4">
+        <v>22071</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C478" s="4">
+        <v>19271</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B479" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C475" s="4">
+      <c r="C479" s="4">
         <v>11837</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +479,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -759,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:C479"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A491" sqref="A491:C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,10 +5674,10 @@
         <v>124</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C441" s="4">
-        <v>10220</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5685,10 @@
         <v>124</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C442" s="4">
-        <v>40355</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5696,10 @@
         <v>124</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C443" s="4">
-        <v>10192</v>
+        <v>40355</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5707,10 @@
         <v>124</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C444" s="4">
-        <v>11571</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5718,10 @@
         <v>124</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C445" s="4">
-        <v>10556</v>
+        <v>10409</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5729,10 @@
         <v>124</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C446" s="4">
-        <v>10682</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5740,10 @@
         <v>124</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C447" s="4">
-        <v>15967</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5751,10 @@
         <v>124</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C448" s="4">
-        <v>13468</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5762,10 @@
         <v>124</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C449" s="4">
-        <v>13081</v>
+        <v>15967</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5767,10 +5773,10 @@
         <v>124</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="C450" s="4">
-        <v>6354</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5778,10 +5784,10 @@
         <v>124</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C451" s="4">
-        <v>4932</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,10 +5795,10 @@
         <v>124</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="C452" s="4">
-        <v>2130</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5800,10 +5806,10 @@
         <v>124</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C453" s="4">
-        <v>11493</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,10 +5817,10 @@
         <v>124</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C454" s="4">
-        <v>19125</v>
+        <v>30485</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5822,10 +5828,10 @@
         <v>124</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C455" s="4">
-        <v>8986</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,10 +5839,10 @@
         <v>124</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C456" s="4">
-        <v>6525</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,10 +5850,10 @@
         <v>124</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C457" s="4">
-        <v>23427</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,10 +5861,10 @@
         <v>124</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C458" s="4">
-        <v>19476</v>
+        <v>11223</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5866,10 +5872,10 @@
         <v>124</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="C459" s="4">
-        <v>22419</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5877,10 +5883,10 @@
         <v>124</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C460" s="4">
-        <v>4761</v>
+        <v>11493</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5888,10 +5894,10 @@
         <v>124</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C461" s="4">
-        <v>11151</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5899,10 +5905,10 @@
         <v>124</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C462" s="4">
-        <v>35047</v>
+        <v>8986</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5910,10 +5916,10 @@
         <v>124</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C463" s="4">
-        <v>47070</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5921,10 +5927,10 @@
         <v>124</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C464" s="4">
-        <v>17753</v>
+        <v>23427</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5932,10 +5938,10 @@
         <v>124</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C465" s="4">
-        <v>98505</v>
+        <v>19476</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -5943,10 +5949,10 @@
         <v>124</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C466" s="4">
-        <v>10102</v>
+        <v>22419</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -5954,10 +5960,10 @@
         <v>124</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C467" s="4">
-        <v>24327</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -5965,10 +5971,10 @@
         <v>124</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C468" s="4">
-        <v>48825</v>
+        <v>11151</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -5976,10 +5982,10 @@
         <v>124</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C469" s="4">
-        <v>9891</v>
+        <v>49456</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -5987,10 +5993,10 @@
         <v>124</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C470" s="4">
-        <v>30087</v>
+        <v>97695</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,10 +6004,10 @@
         <v>124</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C471" s="4">
-        <v>49507</v>
+        <v>17753</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -6009,10 +6015,10 @@
         <v>124</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C472" s="4">
-        <v>12339</v>
+        <v>98505</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -6020,10 +6026,10 @@
         <v>124</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C473" s="4">
-        <v>11565</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -6031,10 +6037,10 @@
         <v>124</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C474" s="4">
-        <v>4885</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -6042,10 +6048,10 @@
         <v>124</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C475" s="4">
-        <v>44035</v>
+        <v>24327</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -6053,10 +6059,10 @@
         <v>124</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C476" s="4">
-        <v>9873</v>
+        <v>126207</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -6064,10 +6070,10 @@
         <v>124</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C477" s="4">
-        <v>22071</v>
+        <v>9891</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -6075,10 +6081,10 @@
         <v>124</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C478" s="4">
-        <v>19271</v>
+        <v>30087</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -6086,10 +6092,208 @@
         <v>124</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C479" s="4">
+        <v>49507</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C480" s="4">
+        <v>12339</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C481" s="4">
+        <v>22734</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C482" s="4">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C483" s="4">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C484" s="4">
+        <v>9873</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C485" s="4">
+        <v>13239</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C486" s="4">
+        <v>22071</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C487" s="4">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C488" s="4">
+        <v>19271</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C489" s="4">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C479" s="4">
+      <c r="C490" s="4">
         <v>11837</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C491" s="4">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C492" s="4">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C493" s="4">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C494" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C495" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C496" s="4">
+        <v>30456</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C497" s="4">
+        <v>99261</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -469,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,9 +479,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -765,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D497"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C497"/>
+      <selection activeCell="A491" sqref="A491:C499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6238,7 +6235,7 @@
         <v>11</v>
       </c>
       <c r="C492" s="4">
-        <v>7210</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -6246,10 +6243,10 @@
         <v>125</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C493" s="4">
-        <v>1230</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -6257,10 +6254,10 @@
         <v>125</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C494" s="5">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="C494" s="4">
+        <v>1625</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -6268,10 +6265,10 @@
         <v>125</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C495" s="4">
-        <v>2000</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6279,10 +6276,10 @@
         <v>125</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C496" s="4">
-        <v>30456</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6290,9 +6287,31 @@
         <v>125</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C497" s="4">
+        <v>20502</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C498" s="4">
+        <v>55566</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B499" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C499" s="4">
         <v>99261</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C499"/>
+      <selection activeCell="A491" sqref="A491:C502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6232,10 +6232,10 @@
         <v>125</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C492" s="4">
-        <v>14239</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -6243,10 +6243,10 @@
         <v>125</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C493" s="4">
-        <v>10225</v>
+        <v>34825</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,10 +6254,10 @@
         <v>125</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C494" s="4">
-        <v>1625</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,10 +6265,10 @@
         <v>125</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C495" s="4">
-        <v>1944</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,10 +6276,10 @@
         <v>125</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C496" s="4">
-        <v>2000</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,10 +6287,10 @@
         <v>125</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C497" s="4">
-        <v>20502</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>125</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C498" s="4">
-        <v>55566</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,9 +6309,42 @@
         <v>125</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C499" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C500" s="4">
+        <v>98520</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C501" s="4">
+        <v>104823</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C499" s="4">
+      <c r="C502" s="4">
         <v>99261</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C502"/>
+      <selection activeCell="A491" sqref="A491:C510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,10 +6265,10 @@
         <v>125</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C495" s="4">
-        <v>10225</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,10 +6276,10 @@
         <v>125</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C496" s="4">
-        <v>1625</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,10 +6287,10 @@
         <v>125</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C497" s="4">
-        <v>1944</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>125</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C498" s="4">
-        <v>13194</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,10 +6309,10 @@
         <v>125</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C499" s="4">
-        <v>2000</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>125</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C500" s="4">
-        <v>98520</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>125</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C501" s="4">
-        <v>104823</v>
+        <v>16344</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,98 @@
         <v>125</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C502" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C503" s="4">
+        <v>16281</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C504" s="4">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C505" s="4">
+        <v>98520</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C506" s="4">
+        <v>104823</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C502" s="4">
+      <c r="C507" s="4">
         <v>99261</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C508" s="4">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C509" s="4">
+        <v>19845</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C510" s="4">
+        <v>13221</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C510"/>
+      <selection activeCell="A491" sqref="A491:C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6221,10 +6221,10 @@
         <v>125</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C491" s="4">
-        <v>9310</v>
+        <v>14977</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,10 +6232,10 @@
         <v>125</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C492" s="4">
-        <v>11571</v>
+        <v>10437</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -6243,10 +6243,10 @@
         <v>125</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C493" s="4">
-        <v>34825</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,10 +6254,10 @@
         <v>125</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C494" s="4">
-        <v>14239</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,10 +6265,10 @@
         <v>125</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C495" s="4">
-        <v>9779</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,10 +6276,10 @@
         <v>125</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C496" s="4">
-        <v>14847</v>
+        <v>34825</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,10 +6287,10 @@
         <v>125</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C497" s="4">
-        <v>10225</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>125</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C498" s="4">
-        <v>1625</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,10 +6309,10 @@
         <v>125</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C499" s="4">
-        <v>1944</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>125</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C500" s="4">
-        <v>3285</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>125</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C501" s="4">
-        <v>16344</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,10 @@
         <v>125</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C502" s="4">
-        <v>2000</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>125</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C503" s="4">
-        <v>16281</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,10 +6364,10 @@
         <v>125</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C504" s="4">
-        <v>5563</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,10 +6375,10 @@
         <v>125</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C505" s="4">
-        <v>98520</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>125</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C506" s="4">
-        <v>104823</v>
+        <v>16344</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>125</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C507" s="4">
-        <v>99261</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6408,10 @@
         <v>125</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C508" s="4">
-        <v>4437</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>125</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C509" s="4">
-        <v>19845</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6430,175 @@
         <v>125</v>
       </c>
       <c r="B510" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C510" s="4">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C511" s="4">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C512" s="4">
+        <v>8172</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C513" s="4">
+        <v>92169</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C514" s="4">
+        <v>98520</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C515" s="4">
+        <v>104823</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C516" s="4">
+        <v>10107</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C517" s="4">
+        <v>30244</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C518" s="4">
+        <v>99261</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C519" s="4">
+        <v>10161</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C520" s="4">
+        <v>16497</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C521" s="4">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C522" s="4">
+        <v>19845</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B523" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C510" s="4">
+      <c r="C523" s="4">
         <v>13221</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C524" s="4">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C525" s="4">
+        <v>3234</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D525"/>
+  <dimension ref="A1:D527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C525"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="A491" sqref="A491:C527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6287,10 +6287,10 @@
         <v>125</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C497" s="4">
-        <v>14239</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>125</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C498" s="4">
-        <v>9779</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,10 +6309,10 @@
         <v>125</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C499" s="4">
-        <v>10605</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>125</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C500" s="4">
-        <v>14847</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>125</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C501" s="4">
-        <v>10225</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,10 @@
         <v>125</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C502" s="4">
-        <v>8113</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>125</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C503" s="4">
-        <v>1625</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,10 +6364,10 @@
         <v>125</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C504" s="4">
-        <v>1944</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,10 +6375,10 @@
         <v>125</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C505" s="4">
-        <v>3285</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>125</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="C506" s="4">
-        <v>16344</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>125</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C507" s="4">
-        <v>2000</v>
+        <v>16344</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6408,10 @@
         <v>125</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C508" s="4">
-        <v>13221</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>125</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C509" s="4">
-        <v>16281</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6430,10 @@
         <v>125</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="C510" s="4">
-        <v>5563</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,10 +6441,10 @@
         <v>125</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C511" s="4">
-        <v>5319</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,10 +6452,10 @@
         <v>125</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C512" s="4">
-        <v>8172</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,10 +6463,10 @@
         <v>125</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C513" s="4">
-        <v>92169</v>
+        <v>17837</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,10 +6474,10 @@
         <v>125</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C514" s="4">
-        <v>98520</v>
+        <v>92169</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,10 +6485,10 @@
         <v>125</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C515" s="4">
-        <v>104823</v>
+        <v>109482</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,10 +6496,10 @@
         <v>125</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C516" s="4">
-        <v>10107</v>
+        <v>104823</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,10 +6507,10 @@
         <v>125</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C517" s="4">
-        <v>30244</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6518,10 @@
         <v>125</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C518" s="4">
-        <v>99261</v>
+        <v>30244</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,10 +6529,10 @@
         <v>125</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C519" s="4">
-        <v>10161</v>
+        <v>99261</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,10 +6540,10 @@
         <v>125</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C520" s="4">
-        <v>16497</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,10 +6551,10 @@
         <v>125</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C521" s="4">
-        <v>4437</v>
+        <v>16497</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,10 +6562,10 @@
         <v>125</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C522" s="4">
-        <v>19845</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,10 +6573,10 @@
         <v>125</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C523" s="4">
-        <v>13221</v>
+        <v>19845</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,10 +6584,10 @@
         <v>125</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C524" s="4">
-        <v>20615</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,10 +6595,32 @@
         <v>125</v>
       </c>
       <c r="B525" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C525" s="4">
+        <v>13221</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C526" s="4">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B527" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C525" s="4">
-        <v>3234</v>
+      <c r="C527" s="4">
+        <v>12530</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D527"/>
+  <dimension ref="A1:D536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C527"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A491" sqref="A491:C536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,7 +6246,7 @@
         <v>5</v>
       </c>
       <c r="C493" s="4">
-        <v>9310</v>
+        <v>24198</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -6254,10 +6254,10 @@
         <v>125</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C494" s="4">
-        <v>11571</v>
+        <v>12204</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,10 +6265,10 @@
         <v>125</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C495" s="4">
-        <v>11613</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6276,10 +6276,10 @@
         <v>125</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C496" s="4">
-        <v>34825</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -6287,10 +6287,10 @@
         <v>125</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C497" s="4">
-        <v>7126</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>125</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C498" s="4">
-        <v>14239</v>
+        <v>34825</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -6309,10 +6309,10 @@
         <v>125</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C499" s="4">
-        <v>9779</v>
+        <v>18137</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>125</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C500" s="4">
-        <v>10605</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>125</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C501" s="4">
-        <v>14847</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,10 @@
         <v>125</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C502" s="4">
-        <v>10225</v>
+        <v>14203</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>125</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C503" s="4">
-        <v>8113</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,10 +6364,10 @@
         <v>125</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C504" s="4">
-        <v>1625</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,10 +6375,10 @@
         <v>125</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C505" s="4">
-        <v>1944</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>125</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C506" s="4">
-        <v>3285</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>125</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C507" s="4">
-        <v>16344</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6408,10 @@
         <v>125</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C508" s="4">
-        <v>2000</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>125</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C509" s="4">
-        <v>13221</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6430,10 @@
         <v>125</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C510" s="4">
-        <v>16281</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,10 +6441,10 @@
         <v>125</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C511" s="4">
-        <v>5563</v>
+        <v>33255</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,10 +6452,10 @@
         <v>125</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C512" s="4">
-        <v>5319</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,10 +6463,10 @@
         <v>125</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C513" s="4">
-        <v>17837</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,10 +6474,10 @@
         <v>125</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C514" s="4">
-        <v>92169</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,10 +6485,10 @@
         <v>125</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C515" s="4">
-        <v>109482</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,10 +6496,10 @@
         <v>125</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C516" s="4">
-        <v>104823</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,10 +6507,10 @@
         <v>125</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C517" s="4">
-        <v>10107</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6518,10 @@
         <v>125</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C518" s="4">
-        <v>30244</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,10 +6529,10 @@
         <v>125</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C519" s="4">
-        <v>99261</v>
+        <v>17837</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,10 +6540,10 @@
         <v>125</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C520" s="4">
-        <v>10161</v>
+        <v>92475</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,10 +6551,10 @@
         <v>125</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C521" s="4">
-        <v>16497</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,10 +6562,10 @@
         <v>125</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C522" s="4">
-        <v>4437</v>
+        <v>152143</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,10 +6573,10 @@
         <v>125</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C523" s="4">
-        <v>19845</v>
+        <v>104823</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,10 +6584,10 @@
         <v>125</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C524" s="4">
-        <v>16470</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,10 +6595,10 @@
         <v>125</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C525" s="4">
-        <v>13221</v>
+        <v>30244</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,10 +6606,10 @@
         <v>125</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C526" s="4">
-        <v>20615</v>
+        <v>35271</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,9 +6617,108 @@
         <v>125</v>
       </c>
       <c r="B527" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C527" s="4">
+        <v>99261</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C528" s="4">
+        <v>10161</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C529" s="4">
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C530" s="4">
+        <v>16497</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C531" s="4">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C532" s="4">
+        <v>31014</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C533" s="4">
+        <v>16470</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C534" s="4">
+        <v>13221</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C535" s="4">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B536" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C527" s="4">
+      <c r="C536" s="4">
         <v>12530</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="126">
   <si>
     <t>Период</t>
   </si>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D536"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C536"/>
+      <selection activeCell="A491" sqref="A491:C541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6268,7 +6268,7 @@
         <v>56</v>
       </c>
       <c r="C495" s="4">
-        <v>5418</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>125</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C500" s="4">
-        <v>14239</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>125</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C501" s="4">
-        <v>9779</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6342,10 @@
         <v>125</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C502" s="4">
-        <v>14203</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,10 +6353,10 @@
         <v>125</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C503" s="4">
-        <v>10605</v>
+        <v>14021</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,10 +6364,10 @@
         <v>125</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C504" s="4">
-        <v>14847</v>
+        <v>14203</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,10 +6375,10 @@
         <v>125</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C505" s="4">
-        <v>10225</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>125</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C506" s="4">
-        <v>8113</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6397,10 @@
         <v>125</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C507" s="4">
-        <v>1625</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6408,10 @@
         <v>125</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C508" s="4">
-        <v>1944</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6419,10 @@
         <v>125</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C509" s="4">
-        <v>2376</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6430,10 @@
         <v>125</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C510" s="4">
-        <v>3285</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,10 +6441,10 @@
         <v>125</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C511" s="4">
-        <v>33255</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,10 +6452,10 @@
         <v>125</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C512" s="4">
-        <v>2000</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,10 +6463,10 @@
         <v>125</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C513" s="4">
-        <v>13221</v>
+        <v>33255</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,10 +6474,10 @@
         <v>125</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C514" s="4">
-        <v>16281</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,10 +6485,10 @@
         <v>125</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C515" s="4">
-        <v>5563</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,10 +6496,10 @@
         <v>125</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C516" s="4">
-        <v>14247</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,10 +6507,10 @@
         <v>125</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C517" s="4">
-        <v>11760</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6518,10 @@
         <v>125</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C518" s="4">
-        <v>5319</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,10 +6529,10 @@
         <v>125</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C519" s="4">
-        <v>17837</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,10 +6540,10 @@
         <v>125</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C520" s="4">
-        <v>92475</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,10 +6551,10 @@
         <v>125</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C521" s="4">
-        <v>15000</v>
+        <v>15705</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,10 +6562,10 @@
         <v>125</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C522" s="4">
-        <v>152143</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,10 +6573,10 @@
         <v>125</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C523" s="4">
-        <v>104823</v>
+        <v>17837</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,10 +6584,10 @@
         <v>125</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C524" s="4">
-        <v>10107</v>
+        <v>147681</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,10 +6595,10 @@
         <v>125</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C525" s="4">
-        <v>30244</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,10 +6606,10 @@
         <v>125</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C526" s="4">
-        <v>35271</v>
+        <v>152143</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,10 +6617,10 @@
         <v>125</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C527" s="4">
-        <v>99261</v>
+        <v>104823</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -6628,10 +6628,10 @@
         <v>125</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C528" s="4">
-        <v>10161</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,10 +6639,10 @@
         <v>125</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C529" s="4">
-        <v>13689</v>
+        <v>30244</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,10 +6650,10 @@
         <v>125</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C530" s="4">
-        <v>16497</v>
+        <v>35271</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,10 +6661,10 @@
         <v>125</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C531" s="4">
-        <v>4437</v>
+        <v>99261</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -6672,10 +6672,10 @@
         <v>125</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C532" s="4">
-        <v>31014</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -6683,10 +6683,10 @@
         <v>125</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C533" s="4">
-        <v>16470</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -6694,10 +6694,10 @@
         <v>125</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C534" s="4">
-        <v>13221</v>
+        <v>13689</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,10 +6705,10 @@
         <v>125</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C535" s="4">
-        <v>20615</v>
+        <v>16497</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,9 +6716,64 @@
         <v>125</v>
       </c>
       <c r="B536" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C536" s="4">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C537" s="4">
+        <v>31014</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C538" s="4">
+        <v>16470</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C539" s="4">
+        <v>13221</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C540" s="4">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B541" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C536" s="4">
+      <c r="C541" s="4">
         <v>12530</v>
       </c>
     </row>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="129">
   <si>
     <t>Период</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
   </si>
 </sst>
 </file>
@@ -762,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491:C541"/>
+    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="A680" sqref="A680:C681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,7 +6266,7 @@
         <v>6</v>
       </c>
       <c r="C494" s="4">
-        <v>12204</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -6389,7 +6398,7 @@
         <v>14</v>
       </c>
       <c r="C506" s="4">
-        <v>14847</v>
+        <v>28812</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6406,10 @@
         <v>125</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C507" s="4">
-        <v>10225</v>
+        <v>10754</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6417,10 @@
         <v>125</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="C508" s="4">
-        <v>8113</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6428,10 @@
         <v>125</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C509" s="4">
-        <v>1625</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6439,10 @@
         <v>125</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C510" s="4">
-        <v>1944</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,10 +6450,10 @@
         <v>125</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C511" s="4">
-        <v>2376</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,10 +6461,10 @@
         <v>125</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C512" s="4">
-        <v>3285</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,10 +6472,10 @@
         <v>125</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C513" s="4">
-        <v>33255</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,10 +6483,10 @@
         <v>125</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C514" s="4">
-        <v>9801</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,10 +6494,10 @@
         <v>125</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C515" s="4">
-        <v>2000</v>
+        <v>33255</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,10 +6505,10 @@
         <v>125</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C516" s="4">
-        <v>13221</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,10 +6516,10 @@
         <v>125</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="C517" s="4">
-        <v>16281</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6527,10 @@
         <v>125</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C518" s="4">
-        <v>5563</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,10 +6538,10 @@
         <v>125</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C519" s="4">
-        <v>14247</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,10 +6549,10 @@
         <v>125</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C520" s="4">
-        <v>11760</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,10 +6560,10 @@
         <v>125</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C521" s="4">
-        <v>15705</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,10 +6571,10 @@
         <v>125</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C522" s="4">
-        <v>5319</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,10 +6582,10 @@
         <v>125</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C523" s="4">
-        <v>17837</v>
+        <v>15705</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,10 +6593,10 @@
         <v>125</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C524" s="4">
-        <v>147681</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,10 +6604,10 @@
         <v>125</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C525" s="4">
-        <v>15000</v>
+        <v>17837</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,10 +6615,10 @@
         <v>125</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C526" s="4">
-        <v>152143</v>
+        <v>278370</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,10 +6626,10 @@
         <v>125</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C527" s="4">
-        <v>104823</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -6628,10 +6637,10 @@
         <v>125</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C528" s="4">
-        <v>10107</v>
+        <v>158515</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,10 +6648,10 @@
         <v>125</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C529" s="4">
-        <v>30244</v>
+        <v>104823</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,10 +6659,10 @@
         <v>125</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C530" s="4">
-        <v>35271</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,10 +6670,10 @@
         <v>125</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C531" s="4">
-        <v>99261</v>
+        <v>30244</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -6672,10 +6681,10 @@
         <v>125</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C532" s="4">
-        <v>10161</v>
+        <v>35271</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -6683,10 +6692,10 @@
         <v>125</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C533" s="4">
-        <v>6390</v>
+        <v>99261</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -6694,10 +6703,10 @@
         <v>125</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C534" s="4">
-        <v>13689</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,10 +6714,10 @@
         <v>125</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C535" s="4">
-        <v>16497</v>
+        <v>24968</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,10 +6725,10 @@
         <v>125</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C536" s="4">
-        <v>4437</v>
+        <v>13689</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -6727,10 +6736,10 @@
         <v>125</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C537" s="4">
-        <v>31014</v>
+        <v>16497</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -6738,10 +6747,10 @@
         <v>125</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C538" s="4">
-        <v>16470</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,10 +6758,10 @@
         <v>125</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C539" s="4">
-        <v>13221</v>
+        <v>31014</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -6760,10 +6769,10 @@
         <v>125</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C540" s="4">
-        <v>20615</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -6771,10 +6780,1550 @@
         <v>125</v>
       </c>
       <c r="B541" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C541" s="4">
+        <v>13221</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C542" s="4">
+        <v>20615</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C543" s="4">
+        <v>10115</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B544" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C541" s="4">
+      <c r="C544" s="4">
         <v>12530</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C545" s="4">
+        <v>11935</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C546" s="4">
+        <v>18291</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C547" s="4">
+        <v>12268</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C548" s="4">
+        <v>29976</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C549" s="4">
+        <v>11711</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C550" s="4">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C551" s="4">
+        <v>10169</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C552" s="4">
+        <v>35966</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C553" s="4">
+        <v>31685</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C554" s="4">
+        <v>13080</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C555" s="4">
+        <v>13261</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C556" s="4">
+        <v>10717</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C557" s="4">
+        <v>11564</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C558" s="4">
+        <v>40985</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C559" s="4">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C560" s="4">
+        <v>10159</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C561" s="4">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C562" s="4">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C563" s="4">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C564" s="4">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C565" s="4">
+        <v>8175</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C566" s="4">
+        <v>34822</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C567" s="4">
+        <v>10642</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C568" s="4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C569" s="4">
+        <v>27735</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C570" s="4">
+        <v>15075</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C571" s="4">
+        <v>13905</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C572" s="4">
+        <v>10647</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C573" s="4">
+        <v>9747</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C574" s="4">
+        <v>7461</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C575" s="4">
+        <v>12051</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C576" s="4">
+        <v>10989</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C577" s="4">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C578" s="4">
+        <v>40140</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C579" s="4">
+        <v>213975</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C580" s="4">
+        <v>198651</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C581" s="4">
+        <v>140254</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C582" s="4">
+        <v>10269</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C583" s="4">
+        <v>24789</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C584" s="4">
+        <v>29403</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C585" s="4">
+        <v>74816</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C586" s="4">
+        <v>20331</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C587" s="4">
+        <v>10676</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C588" s="4">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C589" s="4">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C590" s="4">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C591" s="4">
+        <v>20707</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C592" s="4">
+        <v>16497</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C593" s="4">
+        <v>13145</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C594" s="4">
+        <v>14193</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C595" s="4">
+        <v>17843</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C596" s="4">
+        <v>10731</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C597" s="4">
+        <v>20916</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C598" s="4">
+        <v>11781</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C599" s="4">
+        <v>10539</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C600" s="4">
+        <v>7455</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C601" s="4">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C602" s="4">
+        <v>13811</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C603" s="4">
+        <v>9901</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C604" s="4">
+        <v>23058</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C605" s="4">
+        <v>12607</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C606" s="4">
+        <v>10437</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C607" s="4">
+        <v>11775</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C608" s="4">
+        <v>62363</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C609" s="4">
+        <v>18235</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C610" s="4">
+        <v>15099</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C611" s="4">
+        <v>10353</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C612" s="4">
+        <v>24913</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C613" s="4">
+        <v>20867</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C614" s="4">
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C615" s="4">
+        <v>14217</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C616" s="4">
+        <v>17941</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C617" s="4">
+        <v>13615</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C618" s="4">
+        <v>10703</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C619" s="4">
+        <v>54726</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C620" s="4">
+        <v>75841</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C621" s="4">
+        <v>57372</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C622" s="4">
+        <v>13265</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C623" s="4">
+        <v>23905</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C624" s="4">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C625" s="4">
+        <v>70206</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C626" s="4">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C627" s="4">
+        <v>10195</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C628" s="4">
+        <v>6462</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C629" s="4">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C630" s="4">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C631" s="4">
+        <v>29907</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C632" s="4">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C633" s="4">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C634" s="4">
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C635" s="4">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C636" s="4">
+        <v>16113</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C637" s="4">
+        <v>21519</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C638" s="4">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C639" s="4">
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C640" s="4">
+        <v>37663</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C641" s="4">
+        <v>21495</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C642" s="4">
+        <v>22417</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C643" s="4">
+        <v>23221</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C644" s="4">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C645" s="4">
+        <v>15615</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C646" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C647" s="4">
+        <v>11472</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C648" s="4">
+        <v>948516</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C649" s="4">
+        <v>20475</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C650" s="4">
+        <v>192294</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C651" s="4">
+        <v>369954</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C652" s="4">
+        <v>10179</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C653" s="4">
+        <v>61560</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C654" s="4">
+        <v>50417</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C655" s="4">
+        <v>98973</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C656" s="4">
+        <v>20255</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C657" s="4">
+        <v>25497</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C658" s="4">
+        <v>20594</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C659" s="4">
+        <v>90486</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C660" s="4">
+        <v>11349</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C661" s="4">
+        <v>19344</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C662" s="4">
+        <v>9907</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C663" s="4">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C664" s="4">
+        <v>10573</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C665" s="4">
+        <v>10652</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C666" s="4">
+        <v>104288</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C667" s="4">
+        <v>10663</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C668" s="4">
+        <v>26928</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C669" s="4">
+        <v>30888</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C670" s="4">
+        <v>20079</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C671" s="4">
+        <v>11277</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C672" s="4">
+        <v>105435</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C673" s="4">
+        <v>32728</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C674" s="4">
+        <v>39942</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C675" s="4">
+        <v>11053</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C676" s="4">
+        <v>11552</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C677" s="4">
+        <v>50773</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C678" s="4">
+        <v>25517</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C679" s="4">
+        <v>13139</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C680" s="4">
+        <v>28656</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C681" s="4">
+        <v>49023</v>
       </c>
     </row>
   </sheetData>

--- a/data/production_2_stage.xlsx
+++ b/data/production_2_stage.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="131">
   <si>
     <t>Период</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -473,12 +479,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,6 +509,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -771,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D681"/>
+  <dimension ref="A1:D968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
-      <selection activeCell="A680" sqref="A680:C681"/>
+    <sheetView tabSelected="1" topLeftCell="A852" workbookViewId="0">
+      <selection activeCell="A871" sqref="A871:C937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8309,10 +8342,10 @@
         <v>128</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C680" s="4">
-        <v>28656</v>
+        <v>16679</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -8320,11 +8353,2982 @@
         <v>128</v>
       </c>
       <c r="B681" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C681" s="4">
+        <v>13965</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C682" s="4">
+        <v>18081</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C683" s="4">
+        <v>19334</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C684" s="4">
+        <v>15953</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C685" s="4">
+        <v>27055</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C686" s="4">
+        <v>22145</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C687" s="4">
+        <v>11361</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C688" s="4">
+        <v>68910</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C689" s="4">
+        <v>26131</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C690" s="4">
+        <v>15015</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C691" s="4">
+        <v>18778</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C692" s="4">
+        <v>14749</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C693" s="4">
+        <v>17137</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C694" s="4">
+        <v>46487</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C695" s="4">
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C696" s="4">
+        <v>32760</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C697" s="4">
+        <v>11109</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C698" s="4">
+        <v>18305</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C699" s="4">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C700" s="4">
+        <v>56707</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C701" s="4">
+        <v>10325</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C702" s="4">
+        <v>203889</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C703" s="4">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C704" s="4">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C705" s="4">
+        <v>35760</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C706" s="4">
+        <v>26691</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C707" s="4">
+        <v>21840</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C708" s="4">
+        <v>10180</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C709" s="4">
+        <v>23938</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C710" s="4">
+        <v>107536</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C711" s="4">
+        <v>16041</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C712" s="4">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C713" s="4">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C714" s="4">
+        <v>20383</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C715" s="4">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C716" s="4">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C717" s="4">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C718" s="4">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C719" s="4">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C720" s="4">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C721" s="4">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C722" s="4">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C723" s="4">
+        <v>77598</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C724" s="4">
+        <v>20565</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C725" s="4">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C726" s="4">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C727" s="4">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C728" s="4">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C729" s="4">
+        <v>20862</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C730" s="4">
+        <v>21231</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C731" s="4">
+        <v>43267</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C732" s="4">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C733" s="4">
+        <v>49657</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C734" s="4">
+        <v>11169</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C735" s="4">
+        <v>11475</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C736" s="4">
+        <v>31671</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C737" s="4">
+        <v>29754</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B738" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C681" s="4">
-        <v>49023</v>
-      </c>
+      <c r="C738" s="4">
+        <v>102108</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C739" s="4">
+        <v>56998</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C740" s="4">
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C741" s="4">
+        <v>10333</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C742" s="4">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C743" s="4">
+        <v>80029</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C744" s="4">
+        <v>24543</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C745" s="4">
+        <v>1558272</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C746" s="4">
+        <v>30427</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C747" s="4">
+        <v>241146</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C748" s="4">
+        <v>735700</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C749" s="4">
+        <v>20166</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C750" s="4">
+        <v>20277</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C751" s="4">
+        <v>74070</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C752" s="4">
+        <v>247977</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C753" s="4">
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C754" s="4">
+        <v>75294</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C755" s="4">
+        <v>20435</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C756" s="4">
+        <v>49480</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C757" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C758" s="4">
+        <v>18562</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C759" s="4">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C760" s="4">
+        <v>10117</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C761" s="4">
+        <v>170204</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C762" s="4">
+        <v>24517</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C763" s="4">
+        <v>38278</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C764" s="4">
+        <v>41661</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C765" s="4">
+        <v>15759</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C766" s="4">
+        <v>64503</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C767" s="4">
+        <v>55836</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C768" s="4">
+        <v>21763</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C769" s="4">
+        <v>34909</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C770" s="4">
+        <v>17171</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C771" s="4">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C772" s="4">
+        <v>15836</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C773" s="4">
+        <v>19474</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C774" s="4">
+        <v>33688</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C775" s="4">
+        <v>11739</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C776" s="4">
+        <v>15733</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C777" s="4">
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C778" s="4">
+        <v>11102</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C779" s="4">
+        <v>15771</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C780" s="4">
+        <v>12929</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C781" s="4">
+        <v>17444</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C782" s="4">
+        <v>36005</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C783" s="4">
+        <v>12628</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C784" s="4">
+        <v>19775</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C785" s="4">
+        <v>39109</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C786" s="4">
+        <v>26056</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C787" s="4">
+        <v>16707</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C788" s="4">
+        <v>11833</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C789" s="4">
+        <v>33542</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C790" s="4">
+        <v>23926</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C791" s="4">
+        <v>60620</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C792" s="4">
+        <v>29197</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C793" s="4">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C794" s="4">
+        <v>13419</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C795" s="4">
+        <v>10787</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C796" s="4">
+        <v>46144</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C797" s="4">
+        <v>24689</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C798" s="4">
+        <v>102158</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C799" s="4">
+        <v>40153</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C800" s="4">
+        <v>10073</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C801" s="4">
+        <v>9382</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C802" s="4">
+        <v>30383</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C803" s="4">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C804" s="4">
+        <v>22341</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C805" s="4">
+        <v>11593</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C806" s="4">
+        <v>60200</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C807" s="4">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C808" s="4">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C809" s="4">
+        <v>11887</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C810" s="4">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C811" s="4">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C812" s="4">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C813" s="4">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C814" s="4">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C815" s="4">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C816" s="4">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C817" s="4">
+        <v>8118</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C818" s="4">
+        <v>23109</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C819" s="4">
+        <v>75287</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C820" s="4">
+        <v>19143</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C821" s="4">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C822" s="4">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C823" s="4">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C824" s="4">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C825" s="4">
+        <v>13923</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C826" s="4">
+        <v>37053</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C827" s="4">
+        <v>51490</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C828" s="4">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C829" s="4">
+        <v>18585</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C830" s="4">
+        <v>8068</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C831" s="4">
+        <v>58329</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C832" s="4">
+        <v>24777</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C833" s="4">
+        <v>37761</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C834" s="4">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C835" s="4">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C836" s="4">
+        <v>15777</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C837" s="4">
+        <v>59202</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C838" s="4">
+        <v>25812</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C839" s="4">
+        <v>1233864</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C840" s="4">
+        <v>40343</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C841" s="4">
+        <v>395748</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C842" s="4">
+        <v>242451</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C843" s="4">
+        <v>20133</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C844" s="4">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C845" s="4">
+        <v>74862</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C846" s="4">
+        <v>100692</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C847" s="4">
+        <v>134109</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C848" s="4">
+        <v>39582</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C849" s="4">
+        <v>50463</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A850" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C850" s="4">
+        <v>30729</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A851" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C851" s="4">
+        <v>129978</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A852" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C852" s="4">
+        <v>33940</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A853" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C853" s="4">
+        <v>40446</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C854" s="4">
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A855" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C855" s="4">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A856" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C856" s="4">
+        <v>10465</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A857" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C857" s="4">
+        <v>15278</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A858" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C858" s="4">
+        <v>107593</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A859" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C859" s="4">
+        <v>10393</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A860" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C860" s="4">
+        <v>19485</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C861" s="4">
+        <v>29757</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C862" s="4">
+        <v>24759</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C863" s="4">
+        <v>73478</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C864" s="4">
+        <v>19881</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C865" s="4">
+        <v>21231</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C866" s="4">
+        <v>14007</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C867" s="4">
+        <v>16219</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C868" s="4">
+        <v>53410</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C869" s="4">
+        <v>11249</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C870" s="4">
+        <v>19355</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C871" s="4">
+        <v>11221</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C872" s="4">
+        <v>13153</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C873" s="4">
+        <v>30632</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C874" s="4">
+        <v>21077</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C875" s="4">
+        <v>13503</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C876" s="4">
+        <v>13628</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C877" s="4">
+        <v>40183</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C878" s="4">
+        <v>19355</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C879" s="4">
+        <v>13839</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C880" s="4">
+        <v>19236</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C881" s="4">
+        <v>20370</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C882" s="4">
+        <v>20643</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C883" s="4">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C884" s="4">
+        <v>29575</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C885" s="4">
+        <v>47733</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C886" s="4">
+        <v>16478</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C887" s="4">
+        <v>21914</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C888" s="4">
+        <v>13405</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C889" s="4">
+        <v>11151</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C890" s="4">
+        <v>61334</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A891" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C891" s="4">
+        <v>11673</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A892" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C892" s="4">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A893" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C893" s="4">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C894" s="4">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C895" s="4">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C896" s="4">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C897" s="4">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C898" s="8">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C899" s="4">
+        <v>18621</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C900" s="4">
+        <v>14549</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C901" s="4">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C902" s="4">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C903" s="4">
+        <v>28314</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C904" s="4">
+        <v>15143</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C905" s="4">
+        <v>10089</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C906" s="4">
+        <v>19446</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C907" s="4">
+        <v>19323</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C908" s="4">
+        <v>9720</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C909" s="4">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C910" s="4">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C911" s="4">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C912" s="4">
+        <v>40842</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C913" s="4">
+        <v>23623</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C914" s="4">
+        <v>437823</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C915" s="4">
+        <v>36891</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C916" s="4">
+        <v>104661</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C917" s="4">
+        <v>245358</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C918" s="4">
+        <v>19485</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C919" s="4">
+        <v>73595</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C920" s="4">
+        <v>40087</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C921" s="4">
+        <v>95634</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C922" s="4">
+        <v>20259</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C923" s="4">
+        <v>73476</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C924" s="4">
+        <v>24687</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C925" s="4">
+        <v>16821</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C926" s="4">
+        <v>6495</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C927" s="4">
+        <v>184759</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C928" s="4">
+        <v>18848</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A929" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C929" s="4">
+        <v>30177</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A930" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C930" s="4">
+        <v>19683</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A931" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C931" s="4">
+        <v>110370</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A932" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C932" s="4">
+        <v>29313</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A933" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C933" s="4">
+        <v>37576</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A934" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C934" s="4">
+        <v>11263</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A935" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C935" s="4">
+        <v>11627</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A936" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C936" s="4">
+        <v>31361</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A937" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C937" s="4">
+        <v>23291</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A938" s="5"/>
+      <c r="B938" s="5"/>
+      <c r="C938" s="7"/>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A939" s="5"/>
+      <c r="B939" s="5"/>
+      <c r="C939" s="6"/>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A940" s="5"/>
+      <c r="B940" s="5"/>
+      <c r="C940" s="7"/>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941" s="5"/>
+      <c r="B941" s="5"/>
+      <c r="C941" s="7"/>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942" s="5"/>
+      <c r="B942" s="5"/>
+      <c r="C942" s="7"/>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943" s="5"/>
+      <c r="B943" s="5"/>
+      <c r="C943" s="7"/>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944" s="5"/>
+      <c r="B944" s="5"/>
+      <c r="C944" s="7"/>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" s="5"/>
+      <c r="B945" s="5"/>
+      <c r="C945" s="6"/>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A946" s="5"/>
+      <c r="B946" s="5"/>
+      <c r="C946" s="7"/>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947" s="5"/>
+      <c r="B947" s="5"/>
+      <c r="C947" s="7"/>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948" s="5"/>
+      <c r="B948" s="5"/>
+      <c r="C948" s="7"/>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" s="5"/>
+      <c r="B949" s="5"/>
+      <c r="C949" s="6"/>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" s="5"/>
+      <c r="B950" s="5"/>
+      <c r="C950" s="7"/>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" s="5"/>
+      <c r="B951" s="5"/>
+      <c r="C951" s="7"/>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952" s="5"/>
+      <c r="B952" s="5"/>
+      <c r="C952" s="7"/>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" s="5"/>
+      <c r="B953" s="5"/>
+      <c r="C953" s="6"/>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" s="5"/>
+      <c r="B954" s="5"/>
+      <c r="C954" s="6"/>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" s="5"/>
+      <c r="B955" s="5"/>
+      <c r="C955" s="7"/>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" s="5"/>
+      <c r="B956" s="5"/>
+      <c r="C956" s="6"/>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" s="5"/>
+      <c r="B957" s="5"/>
+      <c r="C957" s="7"/>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" s="5"/>
+      <c r="B958" s="5"/>
+      <c r="C958" s="7"/>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" s="5"/>
+      <c r="B959" s="5"/>
+      <c r="C959" s="7"/>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" s="5"/>
+      <c r="B960" s="5"/>
+      <c r="C960" s="7"/>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" s="5"/>
+      <c r="B961" s="5"/>
+      <c r="C961" s="6"/>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" s="5"/>
+      <c r="B962" s="5"/>
+      <c r="C962" s="7"/>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" s="5"/>
+      <c r="B963" s="5"/>
+      <c r="C963" s="6"/>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" s="5"/>
+      <c r="B964" s="5"/>
+      <c r="C964" s="6"/>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" s="5"/>
+      <c r="B965" s="5"/>
+      <c r="C965" s="6"/>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" s="5"/>
+      <c r="B966" s="5"/>
+      <c r="C966" s="7"/>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" s="5"/>
+      <c r="B967" s="5"/>
+      <c r="C967" s="6"/>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" s="5"/>
+      <c r="B968" s="5"/>
+      <c r="C968" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
